--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -3181,17 +3181,13 @@
         <v>256</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>256</v>
-      </c>
-      <c r="K80" t="n">
-        <v>256</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3220,194 +3216,166 @@
         <v>256.3333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>257</v>
+      </c>
+      <c r="C82" t="n">
         <v>256</v>
       </c>
-      <c r="K81" t="n">
+      <c r="D82" t="n">
+        <v>257</v>
+      </c>
+      <c r="E82" t="n">
         <v>256</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="F82" t="n">
+        <v>1015.3827</v>
+      </c>
+      <c r="G82" t="n">
+        <v>256</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>258</v>
+      </c>
+      <c r="C83" t="n">
+        <v>259</v>
+      </c>
+      <c r="D83" t="n">
+        <v>259</v>
+      </c>
+      <c r="E83" t="n">
+        <v>258</v>
+      </c>
+      <c r="F83" t="n">
+        <v>116.7201</v>
+      </c>
+      <c r="G83" t="n">
+        <v>257</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>259</v>
+      </c>
+      <c r="C84" t="n">
+        <v>259</v>
+      </c>
+      <c r="D84" t="n">
+        <v>259</v>
+      </c>
+      <c r="E84" t="n">
+        <v>259</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1813.8783</v>
+      </c>
+      <c r="G84" t="n">
+        <v>258</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>259</v>
+      </c>
+      <c r="K84" t="n">
+        <v>259</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>259</v>
+      </c>
+      <c r="C85" t="n">
+        <v>259</v>
+      </c>
+      <c r="D85" t="n">
+        <v>259</v>
+      </c>
+      <c r="E85" t="n">
+        <v>259</v>
+      </c>
+      <c r="F85" t="n">
+        <v>188.4843</v>
+      </c>
+      <c r="G85" t="n">
+        <v>259</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>259</v>
+      </c>
+      <c r="K85" t="n">
+        <v>259</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>257</v>
-      </c>
-      <c r="C82" t="n">
-        <v>256</v>
-      </c>
-      <c r="D82" t="n">
-        <v>257</v>
-      </c>
-      <c r="E82" t="n">
-        <v>256</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1015.3827</v>
-      </c>
-      <c r="G82" t="n">
-        <v>256</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>257</v>
-      </c>
-      <c r="K82" t="n">
-        <v>256</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>258</v>
-      </c>
-      <c r="C83" t="n">
-        <v>259</v>
-      </c>
-      <c r="D83" t="n">
-        <v>259</v>
-      </c>
-      <c r="E83" t="n">
-        <v>258</v>
-      </c>
-      <c r="F83" t="n">
-        <v>116.7201</v>
-      </c>
-      <c r="G83" t="n">
-        <v>257</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>258</v>
-      </c>
-      <c r="K83" t="n">
-        <v>256</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>259</v>
-      </c>
-      <c r="C84" t="n">
-        <v>259</v>
-      </c>
-      <c r="D84" t="n">
-        <v>259</v>
-      </c>
-      <c r="E84" t="n">
-        <v>259</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1813.8783</v>
-      </c>
-      <c r="G84" t="n">
-        <v>258</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>259</v>
-      </c>
-      <c r="K84" t="n">
-        <v>256</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>259</v>
-      </c>
-      <c r="C85" t="n">
-        <v>259</v>
-      </c>
-      <c r="D85" t="n">
-        <v>259</v>
-      </c>
-      <c r="E85" t="n">
-        <v>259</v>
-      </c>
-      <c r="F85" t="n">
-        <v>188.4843</v>
-      </c>
-      <c r="G85" t="n">
-        <v>259</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>259</v>
-      </c>
-      <c r="K85" t="n">
-        <v>256</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3435,20 +3403,18 @@
         <v>258.6666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>258</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3478,22 +3444,14 @@
         <v>258.6666666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>259</v>
-      </c>
-      <c r="K87" t="n">
-        <v>256</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3521,22 +3479,14 @@
         <v>259</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>260</v>
-      </c>
-      <c r="K88" t="n">
-        <v>256</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3564,22 +3514,14 @@
         <v>259.6666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>260</v>
-      </c>
-      <c r="K89" t="n">
-        <v>256</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3613,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>256</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>256</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3695,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>256</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3736,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>256</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3777,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>256</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3818,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>256</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3859,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>256</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3900,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>256</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3941,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>256</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>256</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4023,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>256</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4064,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>256</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>256</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>256</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4187,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>256</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4228,14 +4080,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>256</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4269,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>256</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>256</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4348,17 +4182,11 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>256</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4392,14 +4220,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>256</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4433,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>256</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4474,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>256</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4515,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>256</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>256</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4597,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>256</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4638,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>256</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4679,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>256</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4500,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>256</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4761,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>256</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4802,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>256</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4843,14 +4605,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>256</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4884,14 +4640,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>256</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4675,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>256</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>256</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>256</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5045,19 +4777,13 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>256</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>1.03015625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5086,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5121,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C2" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F2" t="n">
-        <v>1119.5855</v>
+        <v>14464.83</v>
       </c>
       <c r="G2" t="n">
-        <v>261</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C3" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D3" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E3" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F3" t="n">
-        <v>8154.0499</v>
+        <v>1119.5855</v>
       </c>
       <c r="G3" t="n">
-        <v>261.6666666666667</v>
+        <v>260.4333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" t="n">
         <v>260</v>
@@ -512,13 +512,13 @@
         <v>260</v>
       </c>
       <c r="E4" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F4" t="n">
-        <v>1017.57</v>
+        <v>8154.0499</v>
       </c>
       <c r="G4" t="n">
-        <v>261</v>
+        <v>260.45</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>1017.57</v>
       </c>
       <c r="G5" t="n">
-        <v>260.6666666666667</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" t="n">
         <v>262</v>
@@ -582,13 +582,13 @@
         <v>262</v>
       </c>
       <c r="E6" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" t="n">
-        <v>114.50381679</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>261.3333333333333</v>
+        <v>260.3833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>262</v>
       </c>
       <c r="C7" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" t="n">
         <v>262</v>
       </c>
       <c r="F7" t="n">
-        <v>572.52818321</v>
+        <v>114.50381679</v>
       </c>
       <c r="G7" t="n">
-        <v>262.3333333333333</v>
+        <v>260.3833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>262</v>
       </c>
       <c r="C8" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D8" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8" t="n">
         <v>262</v>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>572.52818321</v>
       </c>
       <c r="G8" t="n">
-        <v>262.3333333333333</v>
+        <v>260.4333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>262.3333333333333</v>
+        <v>260.4333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>262</v>
       </c>
       <c r="F10" t="n">
-        <v>41.11751679</v>
+        <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>262</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C11" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D11" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F11" t="n">
-        <v>848.7306</v>
+        <v>41.11751679</v>
       </c>
       <c r="G11" t="n">
-        <v>261.3333333333333</v>
+        <v>260.4333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>261</v>
       </c>
       <c r="C12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" t="n">
         <v>261</v>
       </c>
       <c r="E12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>848.7306</v>
       </c>
       <c r="G12" t="n">
-        <v>261</v>
+        <v>260.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>261</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D13" t="n">
         <v>261</v>
       </c>
       <c r="E13" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F13" t="n">
-        <v>853.2283</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>260.3333333333333</v>
+        <v>260.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C14" t="n">
         <v>260</v>
       </c>
       <c r="D14" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E14" t="n">
         <v>260</v>
       </c>
       <c r="F14" t="n">
-        <v>574.2536</v>
+        <v>853.2283</v>
       </c>
       <c r="G14" t="n">
-        <v>260.3333333333333</v>
+        <v>260.3833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>260</v>
       </c>
       <c r="F15" t="n">
-        <v>298.1259</v>
+        <v>574.2536</v>
       </c>
       <c r="G15" t="n">
-        <v>260</v>
+        <v>260.3166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>260</v>
       </c>
       <c r="C16" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>260</v>
       </c>
       <c r="E16" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F16" t="n">
-        <v>928.558</v>
+        <v>298.1259</v>
       </c>
       <c r="G16" t="n">
-        <v>259.3333333333333</v>
+        <v>260.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>260</v>
+      </c>
+      <c r="C17" t="n">
         <v>258</v>
       </c>
-      <c r="C17" t="n">
-        <v>254</v>
-      </c>
       <c r="D17" t="n">
+        <v>260</v>
+      </c>
+      <c r="E17" t="n">
         <v>258</v>
       </c>
-      <c r="E17" t="n">
-        <v>254</v>
-      </c>
       <c r="F17" t="n">
-        <v>5491.5811</v>
+        <v>928.558</v>
       </c>
       <c r="G17" t="n">
-        <v>257.3333333333333</v>
+        <v>260.2333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C18" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D18" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>5491.5811</v>
       </c>
       <c r="G18" t="n">
-        <v>257.3333333333333</v>
+        <v>260.1166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>260</v>
       </c>
       <c r="C19" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D19" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" t="n">
         <v>260</v>
       </c>
       <c r="F19" t="n">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>258.3333333333333</v>
+        <v>260.0666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C20" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F20" t="n">
-        <v>1811</v>
+        <v>301</v>
       </c>
       <c r="G20" t="n">
-        <v>261</v>
+        <v>260.0666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>262</v>
       </c>
       <c r="F21" t="n">
-        <v>140.6</v>
+        <v>1811</v>
       </c>
       <c r="G21" t="n">
-        <v>261.6666666666667</v>
+        <v>260.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>262</v>
       </c>
       <c r="F22" t="n">
-        <v>1329.7625</v>
+        <v>140.6</v>
       </c>
       <c r="G22" t="n">
-        <v>262</v>
+        <v>260.1166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>262</v>
       </c>
       <c r="C23" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E23" t="n">
         <v>262</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>1329.7625</v>
       </c>
       <c r="G23" t="n">
-        <v>262.3333333333333</v>
+        <v>260.1333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>262</v>
       </c>
       <c r="C24" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D24" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E24" t="n">
         <v>262</v>
       </c>
       <c r="F24" t="n">
-        <v>293.6</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>262.3333333333333</v>
+        <v>260.1666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>262</v>
       </c>
       <c r="F25" t="n">
-        <v>1368.104</v>
+        <v>293.6</v>
       </c>
       <c r="G25" t="n">
-        <v>262.3333333333333</v>
+        <v>260.15</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>262</v>
       </c>
       <c r="F26" t="n">
-        <v>800</v>
+        <v>1368.104</v>
       </c>
       <c r="G26" t="n">
-        <v>262</v>
+        <v>260.1666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F27" t="n">
-        <v>2348.787</v>
+        <v>800</v>
       </c>
       <c r="G27" t="n">
-        <v>262.3333333333333</v>
+        <v>260.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>263</v>
       </c>
       <c r="F28" t="n">
-        <v>21.48258321</v>
+        <v>2348.787</v>
       </c>
       <c r="G28" t="n">
-        <v>262.6666666666667</v>
+        <v>260.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C29" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D29" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E29" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F29" t="n">
-        <v>2373.9847</v>
+        <v>21.48258321</v>
       </c>
       <c r="G29" t="n">
-        <v>262</v>
+        <v>260.25</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D30" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E30" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F30" t="n">
-        <v>1866</v>
+        <v>2373.9847</v>
       </c>
       <c r="G30" t="n">
-        <v>260.6666666666667</v>
+        <v>260.1833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>259</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>1866</v>
       </c>
       <c r="G31" t="n">
-        <v>259.3333333333333</v>
+        <v>260.1666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D32" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E32" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>260</v>
+        <v>260.15</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C33" t="n">
         <v>262</v>
@@ -1527,13 +1527,13 @@
         <v>262</v>
       </c>
       <c r="E33" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F33" t="n">
-        <v>6893.5928</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>261</v>
+        <v>260.1333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>262</v>
       </c>
       <c r="F34" t="n">
-        <v>27</v>
+        <v>6893.5928</v>
       </c>
       <c r="G34" t="n">
-        <v>262</v>
+        <v>260.1666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D35" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E35" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F35" t="n">
-        <v>16032.0776</v>
+        <v>27</v>
       </c>
       <c r="G35" t="n">
-        <v>262.6666666666667</v>
+        <v>260.2166666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>263</v>
       </c>
       <c r="C36" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D36" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E36" t="n">
         <v>263</v>
       </c>
       <c r="F36" t="n">
-        <v>4757.3336</v>
+        <v>16032.0776</v>
       </c>
       <c r="G36" t="n">
-        <v>263</v>
+        <v>260.3166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>263</v>
       </c>
       <c r="F37" t="n">
-        <v>678</v>
+        <v>4757.3336</v>
       </c>
       <c r="G37" t="n">
-        <v>263.3333333333333</v>
+        <v>260.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>263</v>
       </c>
       <c r="F38" t="n">
-        <v>120.4</v>
+        <v>678</v>
       </c>
       <c r="G38" t="n">
-        <v>263</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>263</v>
       </c>
       <c r="F39" t="n">
-        <v>203.0684</v>
+        <v>120.4</v>
       </c>
       <c r="G39" t="n">
-        <v>263</v>
+        <v>260.55</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C40" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D40" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E40" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F40" t="n">
-        <v>70.3175</v>
+        <v>203.0684</v>
       </c>
       <c r="G40" t="n">
-        <v>262.6666666666667</v>
+        <v>260.6333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>262</v>
       </c>
       <c r="F41" t="n">
-        <v>140.6349</v>
+        <v>70.3175</v>
       </c>
       <c r="G41" t="n">
-        <v>262.3333333333333</v>
+        <v>260.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D42" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E42" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F42" t="n">
-        <v>2439.4587</v>
+        <v>140.6349</v>
       </c>
       <c r="G42" t="n">
-        <v>262.3333333333333</v>
+        <v>260.7666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>263</v>
       </c>
       <c r="F43" t="n">
-        <v>174.1693</v>
+        <v>2439.4587</v>
       </c>
       <c r="G43" t="n">
-        <v>262.6666666666667</v>
+        <v>260.85</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C44" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D44" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E44" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F44" t="n">
-        <v>1980.315</v>
+        <v>174.1693</v>
       </c>
       <c r="G44" t="n">
-        <v>262.6666666666667</v>
+        <v>260.9333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C45" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D45" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E45" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F45" t="n">
-        <v>2327.1854</v>
+        <v>1980.315</v>
       </c>
       <c r="G45" t="n">
-        <v>262</v>
+        <v>260.95</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>261</v>
       </c>
       <c r="C46" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D46" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E46" t="n">
         <v>261</v>
       </c>
       <c r="F46" t="n">
-        <v>574.2662</v>
+        <v>2327.1854</v>
       </c>
       <c r="G46" t="n">
-        <v>261.6666666666667</v>
+        <v>260.95</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C47" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E47" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>574.2662</v>
       </c>
       <c r="G47" t="n">
-        <v>262</v>
+        <v>260.9833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C48" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D48" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E48" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F48" t="n">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>262.3333333333333</v>
+        <v>261.0333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>262</v>
       </c>
       <c r="F49" t="n">
-        <v>2.2469</v>
+        <v>314</v>
       </c>
       <c r="G49" t="n">
-        <v>262.3333333333333</v>
+        <v>261.0333333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F50" t="n">
-        <v>1781</v>
+        <v>2.2469</v>
       </c>
       <c r="G50" t="n">
-        <v>261.6666666666667</v>
+        <v>261.0666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>261</v>
       </c>
       <c r="F51" t="n">
-        <v>263.6</v>
+        <v>1781</v>
       </c>
       <c r="G51" t="n">
-        <v>261.3333333333333</v>
+        <v>261.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>261</v>
       </c>
       <c r="F52" t="n">
-        <v>432.7619</v>
+        <v>263.6</v>
       </c>
       <c r="G52" t="n">
-        <v>261</v>
+        <v>261.0833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C53" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E53" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>432.7619</v>
       </c>
       <c r="G53" t="n">
-        <v>261.3333333333333</v>
+        <v>261.0666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C54" t="n">
         <v>262</v>
@@ -2262,13 +2262,13 @@
         <v>262</v>
       </c>
       <c r="E54" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F54" t="n">
-        <v>1606.6307</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>261.6666666666667</v>
+        <v>261.1333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>260</v>
       </c>
       <c r="F55" t="n">
-        <v>2525.8</v>
+        <v>1606.6307</v>
       </c>
       <c r="G55" t="n">
-        <v>262</v>
+        <v>261.1666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C56" t="n">
         <v>262</v>
@@ -2332,13 +2332,13 @@
         <v>262</v>
       </c>
       <c r="E56" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>2525.8</v>
       </c>
       <c r="G56" t="n">
-        <v>262</v>
+        <v>261.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C57" t="n">
         <v>262</v>
@@ -2367,13 +2367,13 @@
         <v>262</v>
       </c>
       <c r="E57" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F57" t="n">
-        <v>2970.9384</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>262</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>260</v>
       </c>
       <c r="F58" t="n">
-        <v>2229.9132</v>
+        <v>2970.9384</v>
       </c>
       <c r="G58" t="n">
-        <v>262</v>
+        <v>261.35</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E59" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F59" t="n">
-        <v>1770.9603</v>
+        <v>2229.9132</v>
       </c>
       <c r="G59" t="n">
-        <v>262.3333333333333</v>
+        <v>261.4333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>262</v>
       </c>
       <c r="C60" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D60" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E60" t="n">
         <v>262</v>
       </c>
       <c r="F60" t="n">
-        <v>4629.1599</v>
+        <v>1770.9603</v>
       </c>
       <c r="G60" t="n">
-        <v>262.3333333333333</v>
+        <v>261.5166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>262</v>
       </c>
       <c r="F61" t="n">
-        <v>3095.5515</v>
+        <v>4629.1599</v>
       </c>
       <c r="G61" t="n">
-        <v>262.3333333333333</v>
+        <v>261.5833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C62" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D62" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E62" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F62" t="n">
-        <v>344</v>
+        <v>3095.5515</v>
       </c>
       <c r="G62" t="n">
-        <v>261.6666666666667</v>
+        <v>261.5833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>261</v>
       </c>
       <c r="F63" t="n">
-        <v>1327.1</v>
+        <v>344</v>
       </c>
       <c r="G63" t="n">
-        <v>261.3333333333333</v>
+        <v>261.55</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>261</v>
       </c>
       <c r="F64" t="n">
-        <v>172.9</v>
+        <v>1327.1</v>
       </c>
       <c r="G64" t="n">
-        <v>261</v>
+        <v>261.5666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>261</v>
       </c>
       <c r="F65" t="n">
-        <v>900.4392</v>
+        <v>172.9</v>
       </c>
       <c r="G65" t="n">
-        <v>261</v>
+        <v>261.5833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>261</v>
       </c>
       <c r="F66" t="n">
-        <v>547.9617</v>
+        <v>900.4392</v>
       </c>
       <c r="G66" t="n">
-        <v>261</v>
+        <v>261.5666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C67" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D67" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E67" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F67" t="n">
-        <v>1085.2576</v>
+        <v>547.9617</v>
       </c>
       <c r="G67" t="n">
-        <v>261.3333333333333</v>
+        <v>261.55</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C68" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D68" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E68" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F68" t="n">
-        <v>12.6553</v>
+        <v>1085.2576</v>
       </c>
       <c r="G68" t="n">
-        <v>260.3333333333333</v>
+        <v>261.5333333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>258</v>
       </c>
       <c r="C69" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D69" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" t="n">
         <v>258</v>
       </c>
       <c r="F69" t="n">
-        <v>44.5052</v>
+        <v>12.6553</v>
       </c>
       <c r="G69" t="n">
-        <v>259.6666666666667</v>
+        <v>261.4666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" t="n">
         <v>259</v>
@@ -2822,13 +2822,13 @@
         <v>259</v>
       </c>
       <c r="E70" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F70" t="n">
-        <v>6387.4787</v>
+        <v>44.5052</v>
       </c>
       <c r="G70" t="n">
-        <v>258.6666666666667</v>
+        <v>261.4166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>259</v>
       </c>
       <c r="F71" t="n">
-        <v>1694</v>
+        <v>6387.4787</v>
       </c>
       <c r="G71" t="n">
-        <v>259</v>
+        <v>261.3666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C72" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D72" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E72" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F72" t="n">
-        <v>1389.4563</v>
+        <v>1694</v>
       </c>
       <c r="G72" t="n">
-        <v>258</v>
+        <v>261.35</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>257</v>
       </c>
       <c r="C73" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D73" t="n">
         <v>257</v>
       </c>
       <c r="E73" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" t="n">
-        <v>1723</v>
+        <v>1389.4563</v>
       </c>
       <c r="G73" t="n">
-        <v>257.3333333333333</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C74" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D74" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E74" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F74" t="n">
-        <v>558.1</v>
+        <v>1723</v>
       </c>
       <c r="G74" t="n">
-        <v>257</v>
+        <v>261.2166666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>258</v>
       </c>
       <c r="F75" t="n">
-        <v>1140.6</v>
+        <v>558.1</v>
       </c>
       <c r="G75" t="n">
-        <v>257.6666666666667</v>
+        <v>261.1833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>258</v>
       </c>
       <c r="F76" t="n">
-        <v>867.5</v>
+        <v>1140.6</v>
       </c>
       <c r="G76" t="n">
-        <v>258</v>
+        <v>261.15</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>258</v>
       </c>
       <c r="F77" t="n">
-        <v>120</v>
+        <v>867.5</v>
       </c>
       <c r="G77" t="n">
-        <v>258</v>
+        <v>261.15</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C78" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D78" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E78" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G78" t="n">
-        <v>257</v>
+        <v>261.2166666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C79" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D79" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E79" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F79" t="n">
-        <v>197.7078</v>
+        <v>80</v>
       </c>
       <c r="G79" t="n">
-        <v>256.6666666666667</v>
+        <v>261.1333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,31 +3163,35 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C80" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D80" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E80" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F80" t="n">
-        <v>75.5626</v>
+        <v>197.7078</v>
       </c>
       <c r="G80" t="n">
-        <v>256</v>
+        <v>261.0666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>255</v>
+      </c>
+      <c r="K80" t="n">
+        <v>255</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3210,10 +3214,10 @@
         <v>256</v>
       </c>
       <c r="F81" t="n">
-        <v>820.8083</v>
+        <v>75.5626</v>
       </c>
       <c r="G81" t="n">
-        <v>256.3333333333333</v>
+        <v>260.9666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3226,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>255</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,32 +3243,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C82" t="n">
         <v>256</v>
       </c>
       <c r="D82" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E82" t="n">
         <v>256</v>
       </c>
       <c r="F82" t="n">
-        <v>1015.3827</v>
+        <v>820.8083</v>
       </c>
       <c r="G82" t="n">
+        <v>260.8666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>256</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>255</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,32 +3286,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C83" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D83" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E83" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F83" t="n">
-        <v>116.7201</v>
+        <v>1015.3827</v>
       </c>
       <c r="G83" t="n">
-        <v>257</v>
+        <v>260.7666666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>256</v>
+      </c>
+      <c r="K83" t="n">
+        <v>255</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,7 +3329,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C84" t="n">
         <v>259</v>
@@ -3312,13 +3338,13 @@
         <v>259</v>
       </c>
       <c r="E84" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F84" t="n">
-        <v>1813.8783</v>
+        <v>116.7201</v>
       </c>
       <c r="G84" t="n">
-        <v>258</v>
+        <v>260.7</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3327,12 +3353,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K84" t="n">
-        <v>259</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3354,10 +3384,10 @@
         <v>259</v>
       </c>
       <c r="F85" t="n">
-        <v>188.4843</v>
+        <v>1813.8783</v>
       </c>
       <c r="G85" t="n">
-        <v>259</v>
+        <v>260.65</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3369,11 +3399,11 @@
         <v>259</v>
       </c>
       <c r="K85" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3385,36 +3415,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C86" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D86" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E86" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F86" t="n">
-        <v>186.7</v>
+        <v>188.4843</v>
       </c>
       <c r="G86" t="n">
-        <v>258.6666666666667</v>
+        <v>260.6</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>259</v>
+      </c>
       <c r="K86" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3426,22 +3458,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C87" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D87" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F87" t="n">
-        <v>2835.3233</v>
+        <v>186.7</v>
       </c>
       <c r="G87" t="n">
-        <v>258.6666666666667</v>
+        <v>260.5333333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3450,8 +3482,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>255</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3461,22 +3499,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C88" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E88" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>2835.3233</v>
       </c>
       <c r="G88" t="n">
-        <v>259</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3485,8 +3523,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>255</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,16 +3546,16 @@
         <v>260</v>
       </c>
       <c r="D89" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E89" t="n">
         <v>260</v>
       </c>
       <c r="F89" t="n">
-        <v>5524.6355</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>259.6666666666667</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3520,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>255</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,16 +3587,16 @@
         <v>260</v>
       </c>
       <c r="D90" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E90" t="n">
         <v>260</v>
       </c>
       <c r="F90" t="n">
-        <v>1694.2656</v>
+        <v>5524.6355</v>
       </c>
       <c r="G90" t="n">
-        <v>260</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3555,8 +3605,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>255</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3566,22 +3622,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C91" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E91" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>1694.2656</v>
       </c>
       <c r="G91" t="n">
-        <v>260.6666666666667</v>
+        <v>260.4333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3590,8 +3646,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>255</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3613,10 +3675,10 @@
         <v>262</v>
       </c>
       <c r="F92" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>261.3333333333333</v>
+        <v>260.4833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3625,8 +3687,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>255</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3639,19 +3707,19 @@
         <v>262</v>
       </c>
       <c r="C93" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" t="n">
         <v>262</v>
       </c>
       <c r="E93" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F93" t="n">
-        <v>1676.896</v>
+        <v>1.5</v>
       </c>
       <c r="G93" t="n">
-        <v>261.3333333333333</v>
+        <v>260.4833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3660,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>255</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,22 +3745,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C94" t="n">
         <v>260</v>
       </c>
       <c r="D94" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E94" t="n">
         <v>260</v>
       </c>
       <c r="F94" t="n">
-        <v>918</v>
+        <v>1676.896</v>
       </c>
       <c r="G94" t="n">
-        <v>260.6666666666667</v>
+        <v>260.45</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3695,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>255</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3709,19 +3789,19 @@
         <v>260</v>
       </c>
       <c r="C95" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D95" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E95" t="n">
         <v>260</v>
       </c>
       <c r="F95" t="n">
-        <v>865.4525</v>
+        <v>918</v>
       </c>
       <c r="G95" t="n">
-        <v>261</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3730,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>255</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3744,19 +3830,19 @@
         <v>260</v>
       </c>
       <c r="C96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E96" t="n">
         <v>260</v>
       </c>
       <c r="F96" t="n">
-        <v>837.3985</v>
+        <v>865.4525</v>
       </c>
       <c r="G96" t="n">
-        <v>262.3333333333333</v>
+        <v>260.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3765,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>255</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3779,19 +3871,19 @@
         <v>260</v>
       </c>
       <c r="C97" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E97" t="n">
         <v>260</v>
       </c>
       <c r="F97" t="n">
-        <v>3360.2414</v>
+        <v>837.3985</v>
       </c>
       <c r="G97" t="n">
-        <v>263.3333333333333</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3800,8 +3892,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>255</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3823,22 +3921,28 @@
         <v>260</v>
       </c>
       <c r="F98" t="n">
-        <v>301.2336</v>
+        <v>3360.2414</v>
       </c>
       <c r="G98" t="n">
-        <v>263.3333333333333</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>255</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>1.026372549019608</v>
       </c>
     </row>
     <row r="99">
@@ -3846,7 +3950,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C99" t="n">
         <v>263</v>
@@ -3855,19 +3959,19 @@
         <v>263</v>
       </c>
       <c r="E99" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F99" t="n">
-        <v>1987.6692</v>
+        <v>301.2336</v>
       </c>
       <c r="G99" t="n">
-        <v>263</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3881,28 +3985,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C100" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D100" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E100" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F100" t="n">
-        <v>175.6255</v>
+        <v>1987.6692</v>
       </c>
       <c r="G100" t="n">
-        <v>262.3333333333333</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3916,28 +4020,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F101" t="n">
-        <v>927.7839</v>
+        <v>175.6255</v>
       </c>
       <c r="G101" t="n">
-        <v>261.3333333333333</v>
+        <v>260.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3966,7 +4070,7 @@
         <v>927.7839</v>
       </c>
       <c r="G102" t="n">
-        <v>260.3333333333333</v>
+        <v>260.3666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,22 +4090,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F103" t="n">
-        <v>123</v>
+        <v>927.7839</v>
       </c>
       <c r="G103" t="n">
-        <v>260.3333333333333</v>
+        <v>260.3166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4021,22 +4125,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C104" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D104" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E104" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F104" t="n">
-        <v>2130.3937</v>
+        <v>123</v>
       </c>
       <c r="G104" t="n">
-        <v>261.3333333333333</v>
+        <v>260.2833333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4056,22 +4160,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C105" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D105" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E105" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F105" t="n">
-        <v>2429.952</v>
+        <v>2130.3937</v>
       </c>
       <c r="G105" t="n">
-        <v>263</v>
+        <v>260.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4091,22 +4195,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>264</v>
+      </c>
+      <c r="C106" t="n">
         <v>265</v>
       </c>
-      <c r="C106" t="n">
-        <v>266</v>
-      </c>
       <c r="D106" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E106" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F106" t="n">
-        <v>1169.4924</v>
+        <v>2429.952</v>
       </c>
       <c r="G106" t="n">
-        <v>264.6666666666667</v>
+        <v>260.3666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4126,22 +4230,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C107" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D107" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E107" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F107" t="n">
-        <v>927.4</v>
+        <v>1169.4924</v>
       </c>
       <c r="G107" t="n">
-        <v>265</v>
+        <v>260.4333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4164,7 +4268,7 @@
         <v>264</v>
       </c>
       <c r="C108" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D108" t="n">
         <v>264</v>
@@ -4173,16 +4277,16 @@
         <v>263</v>
       </c>
       <c r="F108" t="n">
-        <v>197.5922</v>
+        <v>927.4</v>
       </c>
       <c r="G108" t="n">
-        <v>264.3333333333333</v>
+        <v>260.45</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4196,22 +4300,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C109" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D109" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E109" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F109" t="n">
-        <v>1653.9367</v>
+        <v>197.5922</v>
       </c>
       <c r="G109" t="n">
-        <v>262</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4231,22 +4335,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C110" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D110" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E110" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F110" t="n">
-        <v>743.295</v>
+        <v>1653.9367</v>
       </c>
       <c r="G110" t="n">
-        <v>261</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,22 +4370,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C111" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D111" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E111" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F111" t="n">
-        <v>3646.9734</v>
+        <v>743.295</v>
       </c>
       <c r="G111" t="n">
-        <v>260</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4304,19 +4408,19 @@
         <v>262</v>
       </c>
       <c r="C112" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D112" t="n">
         <v>262</v>
       </c>
       <c r="E112" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>3646.9734</v>
       </c>
       <c r="G112" t="n">
-        <v>261</v>
+        <v>260.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4348,10 +4452,10 @@
         <v>262</v>
       </c>
       <c r="F113" t="n">
-        <v>234.1279</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>261.3333333333333</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,22 +4475,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C114" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D114" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E114" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>234.1279</v>
       </c>
       <c r="G114" t="n">
-        <v>263</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4418,10 +4522,10 @@
         <v>265</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>264</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4444,19 +4548,19 @@
         <v>265</v>
       </c>
       <c r="C116" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D116" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E116" t="n">
         <v>265</v>
       </c>
       <c r="F116" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>265.3333333333333</v>
+        <v>260.5166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4476,7 +4580,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C117" t="n">
         <v>266</v>
@@ -4485,13 +4589,13 @@
         <v>266</v>
       </c>
       <c r="E117" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F117" t="n">
-        <v>1430</v>
+        <v>39</v>
       </c>
       <c r="G117" t="n">
-        <v>265.6666666666667</v>
+        <v>260.5833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4511,7 +4615,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" t="n">
         <v>266</v>
@@ -4520,13 +4624,13 @@
         <v>266</v>
       </c>
       <c r="E118" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F118" t="n">
-        <v>1843.7</v>
+        <v>1430</v>
       </c>
       <c r="G118" t="n">
-        <v>266</v>
+        <v>260.65</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4546,7 +4650,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C119" t="n">
         <v>266</v>
@@ -4555,13 +4659,13 @@
         <v>266</v>
       </c>
       <c r="E119" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F119" t="n">
-        <v>1762.4585</v>
+        <v>1843.7</v>
       </c>
       <c r="G119" t="n">
-        <v>266</v>
+        <v>260.7166666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4581,22 +4685,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C120" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D120" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E120" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>1762.4585</v>
       </c>
       <c r="G120" t="n">
-        <v>266.3333333333333</v>
+        <v>260.7666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4628,16 +4732,16 @@
         <v>267</v>
       </c>
       <c r="F121" t="n">
-        <v>3200</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>266.6666666666667</v>
+        <v>260.85</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4651,28 +4755,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C122" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D122" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E122" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3200</v>
       </c>
       <c r="G122" t="n">
-        <v>267.3333333333333</v>
+        <v>260.9333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4686,28 +4790,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C123" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D123" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E123" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F123" t="n">
-        <v>1042.5697</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>267</v>
+        <v>261.05</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4721,28 +4825,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C124" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D124" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E124" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>1042.5697</v>
       </c>
       <c r="G124" t="n">
-        <v>267.3333333333333</v>
+        <v>261.1333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4756,28 +4860,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C125" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D125" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E125" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F125" t="n">
-        <v>2304.0846</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>266.3333333333333</v>
+        <v>261.25</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4791,28 +4895,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C126" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D126" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E126" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F126" t="n">
-        <v>1971.4673</v>
+        <v>2304.0846</v>
       </c>
       <c r="G126" t="n">
-        <v>265.3333333333333</v>
+        <v>261.3166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4826,22 +4930,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C127" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D127" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E127" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F127" t="n">
-        <v>2608.1588</v>
+        <v>1971.4673</v>
       </c>
       <c r="G127" t="n">
-        <v>265.3333333333333</v>
+        <v>261.35</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4864,19 +4968,19 @@
         <v>265</v>
       </c>
       <c r="C128" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D128" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E128" t="n">
         <v>265</v>
       </c>
       <c r="F128" t="n">
-        <v>67.8627</v>
+        <v>2608.1588</v>
       </c>
       <c r="G128" t="n">
-        <v>265.3333333333333</v>
+        <v>261.45</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,22 +5000,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C129" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D129" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E129" t="n">
         <v>265</v>
       </c>
       <c r="F129" t="n">
-        <v>28037.4581</v>
+        <v>67.8627</v>
       </c>
       <c r="G129" t="n">
-        <v>267.3333333333333</v>
+        <v>261.5666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4931,22 +5035,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>268</v>
+      </c>
+      <c r="C130" t="n">
+        <v>269</v>
+      </c>
+      <c r="D130" t="n">
+        <v>269</v>
+      </c>
+      <c r="E130" t="n">
         <v>265</v>
       </c>
-      <c r="C130" t="n">
-        <v>263</v>
-      </c>
-      <c r="D130" t="n">
-        <v>265</v>
-      </c>
-      <c r="E130" t="n">
-        <v>263</v>
-      </c>
       <c r="F130" t="n">
-        <v>14178.5985</v>
+        <v>28037.4581</v>
       </c>
       <c r="G130" t="n">
-        <v>265.6666666666667</v>
+        <v>261.7333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4966,22 +5070,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C131" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D131" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E131" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>14178.5985</v>
       </c>
       <c r="G131" t="n">
-        <v>266.6666666666667</v>
+        <v>261.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5001,22 +5105,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C132" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D132" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E132" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F132" t="n">
-        <v>1728.2187</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>265.6666666666667</v>
+        <v>261.95</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5048,10 +5152,10 @@
         <v>266</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>1728.2187</v>
       </c>
       <c r="G133" t="n">
-        <v>266.6666666666667</v>
+        <v>262.1166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5071,22 +5175,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C134" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D134" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E134" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F134" t="n">
-        <v>1681</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>266.6666666666667</v>
+        <v>262.2666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5109,19 +5213,19 @@
         <v>267</v>
       </c>
       <c r="C135" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D135" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E135" t="n">
         <v>267</v>
       </c>
       <c r="F135" t="n">
-        <v>1751</v>
+        <v>1681</v>
       </c>
       <c r="G135" t="n">
-        <v>267</v>
+        <v>262.4333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5144,19 +5248,19 @@
         <v>267</v>
       </c>
       <c r="C136" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D136" t="n">
         <v>267</v>
       </c>
       <c r="E136" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F136" t="n">
-        <v>11782.3984</v>
+        <v>1751</v>
       </c>
       <c r="G136" t="n">
-        <v>267</v>
+        <v>262.5833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5176,22 +5280,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C137" t="n">
         <v>266</v>
       </c>
       <c r="D137" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E137" t="n">
         <v>263</v>
       </c>
       <c r="F137" t="n">
-        <v>3879.072</v>
+        <v>11782.3984</v>
       </c>
       <c r="G137" t="n">
-        <v>266.3333333333333</v>
+        <v>262.7166666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5211,22 +5315,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>263</v>
+      </c>
+      <c r="C138" t="n">
         <v>266</v>
       </c>
-      <c r="C138" t="n">
-        <v>270</v>
-      </c>
       <c r="D138" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E138" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>3879.072</v>
       </c>
       <c r="G138" t="n">
-        <v>267.3333333333333</v>
+        <v>262.85</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5249,19 +5353,19 @@
         <v>266</v>
       </c>
       <c r="C139" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D139" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E139" t="n">
         <v>266</v>
       </c>
       <c r="F139" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G139" t="n">
-        <v>267.3333333333333</v>
+        <v>263.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5284,19 +5388,19 @@
         <v>266</v>
       </c>
       <c r="C140" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D140" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E140" t="n">
         <v>266</v>
       </c>
       <c r="F140" t="n">
-        <v>2694</v>
+        <v>1000</v>
       </c>
       <c r="G140" t="n">
-        <v>268</v>
+        <v>263.25</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5316,22 +5420,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C141" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D141" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E141" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F141" t="n">
-        <v>150.9869</v>
+        <v>2694</v>
       </c>
       <c r="G141" t="n">
-        <v>266.3333333333333</v>
+        <v>263.45</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5351,22 +5455,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C142" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D142" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E142" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>150.9869</v>
       </c>
       <c r="G142" t="n">
-        <v>267</v>
+        <v>263.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5398,10 +5502,10 @@
         <v>268</v>
       </c>
       <c r="F143" t="n">
-        <v>1029.2759</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>267</v>
+        <v>263.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5421,22 +5525,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C144" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D144" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E144" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F144" t="n">
-        <v>12135.9284</v>
+        <v>1029.2759</v>
       </c>
       <c r="G144" t="n">
-        <v>266.3333333333333</v>
+        <v>263.95</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5456,22 +5560,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C145" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D145" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E145" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F145" t="n">
-        <v>15</v>
+        <v>12135.9284</v>
       </c>
       <c r="G145" t="n">
-        <v>266.6666666666667</v>
+        <v>264.0166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5491,22 +5595,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C146" t="n">
         <v>269</v>
       </c>
       <c r="D146" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E146" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F146" t="n">
-        <v>745.8395</v>
+        <v>15</v>
       </c>
       <c r="G146" t="n">
-        <v>267</v>
+        <v>264.1833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5526,22 +5630,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C147" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D147" t="n">
         <v>270</v>
       </c>
       <c r="E147" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F147" t="n">
-        <v>697.6625</v>
+        <v>745.8395</v>
       </c>
       <c r="G147" t="n">
-        <v>269.3333333333333</v>
+        <v>264.3666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5561,22 +5665,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C148" t="n">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D148" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E148" t="n">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F148" t="n">
-        <v>3827.1653</v>
+        <v>697.6625</v>
       </c>
       <c r="G148" t="n">
-        <v>266.6666666666667</v>
+        <v>264.55</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5596,22 +5700,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C149" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D149" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E149" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F149" t="n">
-        <v>4.8796</v>
+        <v>3827.1653</v>
       </c>
       <c r="G149" t="n">
-        <v>265.3333333333333</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5631,22 +5735,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C150" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D150" t="n">
         <v>265</v>
       </c>
       <c r="E150" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F150" t="n">
-        <v>312.5956</v>
+        <v>4.8796</v>
       </c>
       <c r="G150" t="n">
-        <v>263.3333333333333</v>
+        <v>264.65</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5666,22 +5770,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C151" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D151" t="n">
         <v>265</v>
       </c>
       <c r="E151" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>312.5956</v>
       </c>
       <c r="G151" t="n">
-        <v>264.6666666666667</v>
+        <v>264.7166666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5701,22 +5805,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C152" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D152" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E152" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F152" t="n">
-        <v>1979.931</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>265.3333333333333</v>
+        <v>264.7666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5736,22 +5840,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C153" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D153" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E153" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F153" t="n">
-        <v>5.6849</v>
+        <v>1979.931</v>
       </c>
       <c r="G153" t="n">
-        <v>265.6666666666667</v>
+        <v>264.85</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5766,6 +5870,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>265</v>
+      </c>
+      <c r="C154" t="n">
+        <v>265</v>
+      </c>
+      <c r="D154" t="n">
+        <v>265</v>
+      </c>
+      <c r="E154" t="n">
+        <v>265</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5.6849</v>
+      </c>
+      <c r="G154" t="n">
+        <v>264.9333333333333</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>14464.83</v>
       </c>
       <c r="G2" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1119.5855</v>
       </c>
       <c r="G3" t="n">
+        <v>259.7333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>260.4333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>8154.0499</v>
       </c>
       <c r="G4" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>260.45</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1017.57</v>
       </c>
       <c r="G5" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="H5" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>260.3833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>114.50381679</v>
       </c>
       <c r="G7" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>260.3833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>572.52818321</v>
       </c>
       <c r="G8" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>260.4333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>500</v>
       </c>
       <c r="G9" t="n">
+        <v>260.1333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>260.4333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>500</v>
       </c>
       <c r="G10" t="n">
+        <v>260.2666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>41.11751679</v>
       </c>
       <c r="G11" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H11" t="n">
         <v>260.4333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>848.7306</v>
       </c>
       <c r="G12" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>260.4</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H13" t="n">
         <v>260.4</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>853.2283</v>
       </c>
       <c r="G14" t="n">
+        <v>261</v>
+      </c>
+      <c r="H14" t="n">
         <v>260.3833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>574.2536</v>
       </c>
       <c r="G15" t="n">
+        <v>261.1333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>260.3166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>298.1259</v>
       </c>
       <c r="G16" t="n">
+        <v>261.2666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>260.3</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>928.558</v>
       </c>
       <c r="G17" t="n">
+        <v>261</v>
+      </c>
+      <c r="H17" t="n">
         <v>260.2333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5491.5811</v>
       </c>
       <c r="G18" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H18" t="n">
         <v>260.1166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>40</v>
       </c>
       <c r="G19" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>260.0666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>301</v>
       </c>
       <c r="G20" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>260.0666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1811</v>
       </c>
       <c r="G21" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>260.1</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>140.6</v>
       </c>
       <c r="G22" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>260.1166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1329.7625</v>
       </c>
       <c r="G23" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H23" t="n">
         <v>260.1333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>260.1666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>293.6</v>
       </c>
       <c r="G25" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>260.15</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1368.104</v>
       </c>
       <c r="G26" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>260.1666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>800</v>
       </c>
       <c r="G27" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>260.2</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2348.787</v>
       </c>
       <c r="G28" t="n">
+        <v>260.7333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>260.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>21.48258321</v>
       </c>
       <c r="G29" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>260.25</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2373.9847</v>
       </c>
       <c r="G30" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>260.1833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1866</v>
       </c>
       <c r="G31" t="n">
+        <v>260.8666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>260.1666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>20</v>
       </c>
       <c r="G32" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>260.15</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
+        <v>261.4666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>260.1333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>6893.5928</v>
       </c>
       <c r="G34" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>260.1666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>27</v>
       </c>
       <c r="G35" t="n">
+        <v>261.6666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>260.2166666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>16032.0776</v>
       </c>
       <c r="G36" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="H36" t="n">
         <v>260.3166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>4757.3336</v>
       </c>
       <c r="G37" t="n">
+        <v>261.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>260.4</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>678</v>
       </c>
       <c r="G38" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>120.4</v>
       </c>
       <c r="G39" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>260.55</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>203.0684</v>
       </c>
       <c r="G40" t="n">
+        <v>262</v>
+      </c>
+      <c r="H40" t="n">
         <v>260.6333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>70.3175</v>
       </c>
       <c r="G41" t="n">
+        <v>262</v>
+      </c>
+      <c r="H41" t="n">
         <v>260.7</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>140.6349</v>
       </c>
       <c r="G42" t="n">
+        <v>262</v>
+      </c>
+      <c r="H42" t="n">
         <v>260.7666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>2439.4587</v>
       </c>
       <c r="G43" t="n">
+        <v>262</v>
+      </c>
+      <c r="H43" t="n">
         <v>260.85</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>174.1693</v>
       </c>
       <c r="G44" t="n">
+        <v>262</v>
+      </c>
+      <c r="H44" t="n">
         <v>260.9333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1980.315</v>
       </c>
       <c r="G45" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>260.95</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>2327.1854</v>
       </c>
       <c r="G46" t="n">
+        <v>262.2666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>260.95</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>574.2662</v>
       </c>
       <c r="G47" t="n">
+        <v>262.4666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>260.9833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>261.0333333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>314</v>
       </c>
       <c r="G49" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>261.0333333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2.2469</v>
       </c>
       <c r="G50" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>261.0666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1781</v>
       </c>
       <c r="G51" t="n">
+        <v>262.3333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>261.1</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>263.6</v>
       </c>
       <c r="G52" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>261.0833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>432.7619</v>
       </c>
       <c r="G53" t="n">
+        <v>262.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>261.0666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>262</v>
+      </c>
+      <c r="H54" t="n">
         <v>261.1333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1606.6307</v>
       </c>
       <c r="G55" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>261.1666666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2525.8</v>
       </c>
       <c r="G56" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>261.2</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>261.2666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2970.9384</v>
       </c>
       <c r="G58" t="n">
+        <v>261.8666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>261.35</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2229.9132</v>
       </c>
       <c r="G59" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="H59" t="n">
         <v>261.4333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1770.9603</v>
       </c>
       <c r="G60" t="n">
+        <v>261.8666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>261.5166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>4629.1599</v>
       </c>
       <c r="G61" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>261.5833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>3095.5515</v>
       </c>
       <c r="G62" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>261.5833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>344</v>
       </c>
       <c r="G63" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="H63" t="n">
         <v>261.55</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1327.1</v>
       </c>
       <c r="G64" t="n">
+        <v>261.7333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>261.5666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,25 @@
         <v>172.9</v>
       </c>
       <c r="G65" t="n">
+        <v>261.6666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>261.5833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>261</v>
+      </c>
+      <c r="L65" t="n">
+        <v>261</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2889,27 @@
         <v>900.4392</v>
       </c>
       <c r="G66" t="n">
+        <v>261.6666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>261.5666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>261</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2933,27 @@
         <v>547.9617</v>
       </c>
       <c r="G67" t="n">
+        <v>261.6666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>261.55</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>261</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2977,21 @@
         <v>1085.2576</v>
       </c>
       <c r="G68" t="n">
+        <v>261.7333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>261.5333333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,15 +3018,18 @@
         <v>261.4666666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>261.4666666666666</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3053,27 @@
         <v>44.5052</v>
       </c>
       <c r="G70" t="n">
+        <v>261.2666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>261.4166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>258</v>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3097,27 @@
         <v>6387.4787</v>
       </c>
       <c r="G71" t="n">
+        <v>261.0666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>261.3666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>259</v>
+      </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3141,27 @@
         <v>1694</v>
       </c>
       <c r="G72" t="n">
+        <v>260.8666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>261.35</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>259</v>
+      </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3185,27 @@
         <v>1389.4563</v>
       </c>
       <c r="G73" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>261.2666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>259</v>
+      </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3229,27 @@
         <v>1723</v>
       </c>
       <c r="G74" t="n">
+        <v>260.1333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>261.2166666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>256</v>
+      </c>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3273,27 @@
         <v>558.1</v>
       </c>
       <c r="G75" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>261.1833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>257</v>
+      </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3317,27 @@
         <v>1140.6</v>
       </c>
       <c r="G76" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>261.15</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>258</v>
+      </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3361,27 @@
         <v>867.5</v>
       </c>
       <c r="G77" t="n">
+        <v>259.2666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>261.15</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>258</v>
+      </c>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3405,27 @@
         <v>120</v>
       </c>
       <c r="G78" t="n">
+        <v>259.0666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>261.2166666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>258</v>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3449,27 @@
         <v>80</v>
       </c>
       <c r="G79" t="n">
+        <v>258.6666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>261.1333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>258</v>
+      </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,22 +3493,27 @@
         <v>197.7078</v>
       </c>
       <c r="G80" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H80" t="n">
         <v>261.0666666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>255</v>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3217,24 +3537,27 @@
         <v>75.5626</v>
       </c>
       <c r="G81" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>260.9666666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
-        <v>255</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>257</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,26 +3581,27 @@
         <v>820.8083</v>
       </c>
       <c r="G82" t="n">
+        <v>257.7333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>260.8666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
         <v>256</v>
       </c>
-      <c r="K82" t="n">
-        <v>255</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,26 +3625,27 @@
         <v>1015.3827</v>
       </c>
       <c r="G83" t="n">
+        <v>257.3333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>260.7666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
         <v>256</v>
       </c>
-      <c r="K83" t="n">
-        <v>255</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,26 +3669,27 @@
         <v>116.7201</v>
       </c>
       <c r="G84" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="H84" t="n">
         <v>260.7</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
         <v>256</v>
       </c>
-      <c r="K84" t="n">
-        <v>255</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,26 +3713,25 @@
         <v>1813.8783</v>
       </c>
       <c r="G85" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="H85" t="n">
         <v>260.65</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>259</v>
-      </c>
-      <c r="K85" t="n">
-        <v>255</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,26 +3755,25 @@
         <v>188.4843</v>
       </c>
       <c r="G86" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="H86" t="n">
         <v>260.6</v>
       </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>259</v>
-      </c>
-      <c r="K86" t="n">
-        <v>255</v>
-      </c>
-      <c r="L86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,24 +3797,25 @@
         <v>186.7</v>
       </c>
       <c r="G87" t="n">
+        <v>257.3333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>260.5333333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>255</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,24 +3839,25 @@
         <v>2835.3233</v>
       </c>
       <c r="G88" t="n">
+        <v>257.5333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>255</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,24 +3881,25 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
+        <v>257.7333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>255</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,24 +3923,25 @@
         <v>5524.6355</v>
       </c>
       <c r="G90" t="n">
+        <v>257.8666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>255</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,24 +3965,25 @@
         <v>1694.2656</v>
       </c>
       <c r="G91" t="n">
+        <v>258</v>
+      </c>
+      <c r="H91" t="n">
         <v>260.4333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>255</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,24 +4007,25 @@
         <v>4</v>
       </c>
       <c r="G92" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>260.4833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>255</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,24 +4049,25 @@
         <v>1.5</v>
       </c>
       <c r="G93" t="n">
+        <v>258.5333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>260.4833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>255</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,24 +4091,25 @@
         <v>1676.896</v>
       </c>
       <c r="G94" t="n">
+        <v>258.8666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>260.45</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>255</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,24 +4133,25 @@
         <v>918</v>
       </c>
       <c r="G95" t="n">
+        <v>259.0666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>255</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,24 +4175,25 @@
         <v>865.4525</v>
       </c>
       <c r="G96" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>260.4</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>255</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,24 +4217,25 @@
         <v>837.3985</v>
       </c>
       <c r="G97" t="n">
+        <v>260.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>255</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,25 +4259,26 @@
         <v>3360.2414</v>
       </c>
       <c r="G98" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>255</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1.026372549019608</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3965,18 +4301,25 @@
         <v>301.2336</v>
       </c>
       <c r="G99" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H99" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,18 +4343,25 @@
         <v>1987.6692</v>
       </c>
       <c r="G100" t="n">
+        <v>261.0666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,18 +4385,25 @@
         <v>175.6255</v>
       </c>
       <c r="G101" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>260.4</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,18 +4427,25 @@
         <v>927.7839</v>
       </c>
       <c r="G102" t="n">
+        <v>261.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>260.3666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,18 +4469,25 @@
         <v>927.7839</v>
       </c>
       <c r="G103" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="H103" t="n">
         <v>260.3166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,18 +4511,25 @@
         <v>123</v>
       </c>
       <c r="G104" t="n">
+        <v>261.4666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>260.2833333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,18 +4553,25 @@
         <v>2130.3937</v>
       </c>
       <c r="G105" t="n">
+        <v>261.6666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>260.3</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,18 +4595,25 @@
         <v>2429.952</v>
       </c>
       <c r="G106" t="n">
+        <v>262</v>
+      </c>
+      <c r="H106" t="n">
         <v>260.3666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,18 +4637,25 @@
         <v>1169.4924</v>
       </c>
       <c r="G107" t="n">
+        <v>262.2666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>260.4333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,18 +4679,25 @@
         <v>927.4</v>
       </c>
       <c r="G108" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H108" t="n">
         <v>260.45</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,18 +4721,25 @@
         <v>197.5922</v>
       </c>
       <c r="G109" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="H109" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,18 +4763,25 @@
         <v>1653.9367</v>
       </c>
       <c r="G110" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +4805,25 @@
         <v>743.295</v>
       </c>
       <c r="G111" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H111" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,18 +4847,25 @@
         <v>3646.9734</v>
       </c>
       <c r="G112" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>260.4</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,18 +4889,25 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
+        <v>262.0666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,18 +4931,25 @@
         <v>234.1279</v>
       </c>
       <c r="G114" t="n">
+        <v>262</v>
+      </c>
+      <c r="H114" t="n">
         <v>260.4166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,18 +4973,25 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,18 +5015,25 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>260.5166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,18 +5057,25 @@
         <v>39</v>
       </c>
       <c r="G117" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="H117" t="n">
         <v>260.5833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,18 +5099,25 @@
         <v>1430</v>
       </c>
       <c r="G118" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="H118" t="n">
         <v>260.65</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,18 +5141,25 @@
         <v>1843.7</v>
       </c>
       <c r="G119" t="n">
+        <v>263.5333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>260.7166666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,18 +5183,25 @@
         <v>1762.4585</v>
       </c>
       <c r="G120" t="n">
+        <v>263.7333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>260.7666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,18 +5225,25 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
+        <v>263.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>260.85</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,18 +5267,25 @@
         <v>3200</v>
       </c>
       <c r="G122" t="n">
+        <v>263.9333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>260.9333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,18 +5309,25 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="H123" t="n">
         <v>261.05</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,18 +5351,25 @@
         <v>1042.5697</v>
       </c>
       <c r="G124" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="H124" t="n">
         <v>261.1333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,18 +5393,25 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>265</v>
+      </c>
+      <c r="H125" t="n">
         <v>261.25</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,18 +5435,25 @@
         <v>2304.0846</v>
       </c>
       <c r="G126" t="n">
+        <v>265.2666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>261.3166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,18 +5477,25 @@
         <v>1971.4673</v>
       </c>
       <c r="G127" t="n">
+        <v>265.4666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>261.35</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,18 +5519,25 @@
         <v>2608.1588</v>
       </c>
       <c r="G128" t="n">
+        <v>265.8666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>261.45</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,18 +5561,25 @@
         <v>67.8627</v>
       </c>
       <c r="G129" t="n">
+        <v>266.0666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>261.5666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,18 +5603,25 @@
         <v>28037.4581</v>
       </c>
       <c r="G130" t="n">
+        <v>266.3333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>261.7333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,18 +5645,25 @@
         <v>14178.5985</v>
       </c>
       <c r="G131" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="H131" t="n">
         <v>261.8</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,18 +5687,25 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
+        <v>266.3333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>261.95</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,20 +5729,25 @@
         <v>1728.2187</v>
       </c>
       <c r="G133" t="n">
+        <v>266.3333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>262.1166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5190,18 +5769,21 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
+        <v>266.3333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>262.2666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,18 +5807,21 @@
         <v>1681</v>
       </c>
       <c r="G135" t="n">
+        <v>266.4666666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>262.4333333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5260,18 +5845,21 @@
         <v>1751</v>
       </c>
       <c r="G136" t="n">
+        <v>266.4666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>262.5833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,18 +5883,21 @@
         <v>11782.3984</v>
       </c>
       <c r="G137" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="H137" t="n">
         <v>262.7166666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,18 +5921,21 @@
         <v>3879.072</v>
       </c>
       <c r="G138" t="n">
+        <v>266.2666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>262.85</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,18 +5959,21 @@
         <v>300</v>
       </c>
       <c r="G139" t="n">
+        <v>266.5333333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>263.1</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,18 +5997,21 @@
         <v>1000</v>
       </c>
       <c r="G140" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="H140" t="n">
         <v>263.25</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,18 +6035,21 @@
         <v>2694</v>
       </c>
       <c r="G141" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="H141" t="n">
         <v>263.45</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,18 +6073,21 @@
         <v>150.9869</v>
       </c>
       <c r="G142" t="n">
+        <v>266.7333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>263.6</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,18 +6111,21 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
+        <v>266.7333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>263.8</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,18 +6149,21 @@
         <v>1029.2759</v>
       </c>
       <c r="G144" t="n">
+        <v>266.9333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>263.95</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,18 +6187,21 @@
         <v>12135.9284</v>
       </c>
       <c r="G145" t="n">
+        <v>266.5333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>264.0166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,18 +6225,21 @@
         <v>15</v>
       </c>
       <c r="G146" t="n">
+        <v>266.9333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>264.1833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,18 +6263,21 @@
         <v>745.8395</v>
       </c>
       <c r="G147" t="n">
+        <v>267</v>
+      </c>
+      <c r="H147" t="n">
         <v>264.3666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,18 +6301,21 @@
         <v>697.6625</v>
       </c>
       <c r="G148" t="n">
+        <v>267.2666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>264.55</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,18 +6339,21 @@
         <v>3827.1653</v>
       </c>
       <c r="G149" t="n">
+        <v>266.9333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>264.5666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,18 +6377,21 @@
         <v>4.8796</v>
       </c>
       <c r="G150" t="n">
+        <v>266.7333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>264.65</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,18 +6415,21 @@
         <v>312.5956</v>
       </c>
       <c r="G151" t="n">
+        <v>266.5333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>264.7166666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,18 +6453,21 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
+        <v>266.4666666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>264.7666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,18 +6491,21 @@
         <v>1979.931</v>
       </c>
       <c r="G153" t="n">
+        <v>266.5333333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>264.85</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,18 +6529,401 @@
         <v>5.6849</v>
       </c>
       <c r="G154" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="H154" t="n">
         <v>264.9333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>265</v>
+      </c>
+      <c r="C155" t="n">
+        <v>265</v>
+      </c>
+      <c r="D155" t="n">
+        <v>265</v>
+      </c>
+      <c r="E155" t="n">
+        <v>265</v>
+      </c>
+      <c r="F155" t="n">
+        <v>958.8871</v>
+      </c>
+      <c r="G155" t="n">
+        <v>266.1333333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>265.0166666666667</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>264</v>
+      </c>
+      <c r="C156" t="n">
+        <v>261</v>
+      </c>
+      <c r="D156" t="n">
+        <v>264</v>
+      </c>
+      <c r="E156" t="n">
+        <v>261</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1930.8084</v>
+      </c>
+      <c r="G156" t="n">
+        <v>265.6666666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>264.9833333333333</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>263</v>
+      </c>
+      <c r="C157" t="n">
+        <v>262</v>
+      </c>
+      <c r="D157" t="n">
+        <v>263</v>
+      </c>
+      <c r="E157" t="n">
+        <v>262</v>
+      </c>
+      <c r="F157" t="n">
+        <v>200</v>
+      </c>
+      <c r="G157" t="n">
+        <v>265.4666666666666</v>
+      </c>
+      <c r="H157" t="n">
+        <v>264.95</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>261</v>
+      </c>
+      <c r="C158" t="n">
+        <v>261</v>
+      </c>
+      <c r="D158" t="n">
+        <v>261</v>
+      </c>
+      <c r="E158" t="n">
+        <v>261</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1868.3888</v>
+      </c>
+      <c r="G158" t="n">
+        <v>265</v>
+      </c>
+      <c r="H158" t="n">
+        <v>264.9166666666667</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>261</v>
+      </c>
+      <c r="C159" t="n">
+        <v>260</v>
+      </c>
+      <c r="D159" t="n">
+        <v>261</v>
+      </c>
+      <c r="E159" t="n">
+        <v>260</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7683.5835</v>
+      </c>
+      <c r="G159" t="n">
+        <v>264.4666666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>264.8666666666667</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>260</v>
+      </c>
+      <c r="C160" t="n">
+        <v>258</v>
+      </c>
+      <c r="D160" t="n">
+        <v>260</v>
+      </c>
+      <c r="E160" t="n">
+        <v>258</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6476.9999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>264.1333333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>264.7833333333334</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>258</v>
+      </c>
+      <c r="C161" t="n">
+        <v>258</v>
+      </c>
+      <c r="D161" t="n">
+        <v>258</v>
+      </c>
+      <c r="E161" t="n">
+        <v>258</v>
+      </c>
+      <c r="F161" t="n">
+        <v>370.2273</v>
+      </c>
+      <c r="G161" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="H161" t="n">
+        <v>264.7333333333333</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>258</v>
+      </c>
+      <c r="C162" t="n">
+        <v>258</v>
+      </c>
+      <c r="D162" t="n">
+        <v>258</v>
+      </c>
+      <c r="E162" t="n">
+        <v>257</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2355.1114</v>
+      </c>
+      <c r="G162" t="n">
+        <v>262.6666666666667</v>
+      </c>
+      <c r="H162" t="n">
+        <v>264.7</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>258</v>
+      </c>
+      <c r="C163" t="n">
+        <v>258</v>
+      </c>
+      <c r="D163" t="n">
+        <v>258</v>
+      </c>
+      <c r="E163" t="n">
+        <v>258</v>
+      </c>
+      <c r="F163" t="n">
+        <v>207.8118</v>
+      </c>
+      <c r="G163" t="n">
+        <v>261.8666666666667</v>
+      </c>
+      <c r="H163" t="n">
+        <v>264.6666666666667</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>259</v>
+      </c>
+      <c r="C164" t="n">
+        <v>259</v>
+      </c>
+      <c r="D164" t="n">
+        <v>259</v>
+      </c>
+      <c r="E164" t="n">
+        <v>259</v>
+      </c>
+      <c r="F164" t="n">
+        <v>950</v>
+      </c>
+      <c r="G164" t="n">
+        <v>261.7333333333333</v>
+      </c>
+      <c r="H164" t="n">
+        <v>264.6333333333333</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C2" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E2" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F2" t="n">
-        <v>14464.83</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>259.5333333333334</v>
+        <v>-8647.124799999994</v>
       </c>
       <c r="H2" t="n">
-        <v>260.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D3" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E3" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F3" t="n">
-        <v>1119.5855</v>
+        <v>1022.658</v>
       </c>
       <c r="G3" t="n">
-        <v>259.7333333333333</v>
+        <v>-9669.782799999994</v>
       </c>
       <c r="H3" t="n">
-        <v>260.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" t="n">
-        <v>8154.0499</v>
+        <v>579.1</v>
       </c>
       <c r="G4" t="n">
-        <v>259.6</v>
+        <v>-10248.88279999999</v>
       </c>
       <c r="H4" t="n">
-        <v>260.45</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E5" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F5" t="n">
-        <v>1017.57</v>
+        <v>12268</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6</v>
+        <v>-22516.88279999999</v>
       </c>
       <c r="H5" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D6" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E6" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>3663.9691</v>
       </c>
       <c r="G6" t="n">
-        <v>259.8</v>
+        <v>-22516.88279999999</v>
       </c>
       <c r="H6" t="n">
-        <v>260.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D7" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F7" t="n">
-        <v>114.50381679</v>
+        <v>704.5404</v>
       </c>
       <c r="G7" t="n">
-        <v>259.8</v>
+        <v>-21812.34239999999</v>
       </c>
       <c r="H7" t="n">
-        <v>260.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C8" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D8" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E8" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F8" t="n">
-        <v>572.52818321</v>
+        <v>8277</v>
       </c>
       <c r="G8" t="n">
-        <v>259.8666666666667</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H8" t="n">
-        <v>260.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C9" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D9" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E9" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>13071.7977</v>
       </c>
       <c r="G9" t="n">
-        <v>260.1333333333333</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H9" t="n">
-        <v>260.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C10" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E10" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>10209.802</v>
       </c>
       <c r="G10" t="n">
-        <v>260.2666666666667</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H10" t="n">
-        <v>260.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C11" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D11" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E11" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F11" t="n">
-        <v>41.11751679</v>
+        <v>2657.8399</v>
       </c>
       <c r="G11" t="n">
-        <v>260.4</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H11" t="n">
-        <v>260.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C12" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D12" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E12" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F12" t="n">
-        <v>848.7306</v>
+        <v>160.18</v>
       </c>
       <c r="G12" t="n">
-        <v>260.5333333333334</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H12" t="n">
-        <v>260.4</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D13" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E13" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>260.8</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H13" t="n">
-        <v>260.4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D14" t="n">
         <v>261</v>
       </c>
       <c r="E14" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F14" t="n">
-        <v>853.2283</v>
+        <v>1138.6</v>
       </c>
       <c r="G14" t="n">
-        <v>261</v>
+        <v>-28950.74239999999</v>
       </c>
       <c r="H14" t="n">
-        <v>260.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C15" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D15" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E15" t="n">
         <v>260</v>
       </c>
       <c r="F15" t="n">
-        <v>574.2536</v>
+        <v>1167.4179</v>
       </c>
       <c r="G15" t="n">
-        <v>261.1333333333333</v>
+        <v>-28950.74239999999</v>
       </c>
       <c r="H15" t="n">
-        <v>260.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C16" t="n">
         <v>260</v>
       </c>
       <c r="D16" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E16" t="n">
         <v>260</v>
       </c>
       <c r="F16" t="n">
-        <v>298.1259</v>
+        <v>709.52</v>
       </c>
       <c r="G16" t="n">
-        <v>261.2666666666667</v>
+        <v>-29660.26239999999</v>
       </c>
       <c r="H16" t="n">
-        <v>260.3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,33 +961,30 @@
         <v>260</v>
       </c>
       <c r="C17" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D17" t="n">
         <v>260</v>
       </c>
       <c r="E17" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F17" t="n">
-        <v>928.558</v>
+        <v>970</v>
       </c>
       <c r="G17" t="n">
-        <v>261</v>
+        <v>-29660.26239999999</v>
       </c>
       <c r="H17" t="n">
-        <v>260.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C18" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D18" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E18" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F18" t="n">
-        <v>5491.5811</v>
+        <v>1285</v>
       </c>
       <c r="G18" t="n">
-        <v>260.4</v>
+        <v>-28375.26239999999</v>
       </c>
       <c r="H18" t="n">
-        <v>260.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,24 +1040,21 @@
         <v>260</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>937</v>
       </c>
       <c r="G19" t="n">
-        <v>260.4</v>
+        <v>-29312.26239999999</v>
       </c>
       <c r="H19" t="n">
-        <v>260.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1125,33 +1066,30 @@
         <v>260</v>
       </c>
       <c r="C20" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D20" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E20" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F20" t="n">
-        <v>301</v>
+        <v>743.5</v>
       </c>
       <c r="G20" t="n">
-        <v>260.4666666666666</v>
+        <v>-30055.76239999999</v>
       </c>
       <c r="H20" t="n">
-        <v>260.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,24 +1110,21 @@
         <v>262</v>
       </c>
       <c r="F21" t="n">
-        <v>1811</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>260.4666666666666</v>
+        <v>-30054.76239999999</v>
       </c>
       <c r="H21" t="n">
-        <v>260.1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,24 +1145,21 @@
         <v>262</v>
       </c>
       <c r="F22" t="n">
-        <v>140.6</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>260.4666666666666</v>
+        <v>-30054.76239999999</v>
       </c>
       <c r="H22" t="n">
-        <v>260.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C23" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D23" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E23" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F23" t="n">
-        <v>1329.7625</v>
+        <v>736.434</v>
       </c>
       <c r="G23" t="n">
-        <v>260.4</v>
+        <v>-30791.19639999999</v>
       </c>
       <c r="H23" t="n">
-        <v>260.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E24" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>260.4666666666666</v>
+        <v>-30691.19639999999</v>
       </c>
       <c r="H24" t="n">
-        <v>260.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D25" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E25" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F25" t="n">
-        <v>293.6</v>
+        <v>500</v>
       </c>
       <c r="G25" t="n">
-        <v>260.4666666666666</v>
+        <v>-30691.19639999999</v>
       </c>
       <c r="H25" t="n">
-        <v>260.15</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C26" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D26" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E26" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F26" t="n">
-        <v>1368.104</v>
+        <v>1326.1</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4666666666666</v>
+        <v>-32017.29639999999</v>
       </c>
       <c r="H26" t="n">
-        <v>260.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C27" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D27" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E27" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>260.6</v>
+        <v>-32018.29639999999</v>
       </c>
       <c r="H27" t="n">
-        <v>260.2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C28" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D28" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E28" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F28" t="n">
-        <v>2348.787</v>
+        <v>658.1134</v>
       </c>
       <c r="G28" t="n">
-        <v>260.7333333333333</v>
+        <v>-32018.29639999999</v>
       </c>
       <c r="H28" t="n">
-        <v>260.25</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C29" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D29" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E29" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F29" t="n">
-        <v>21.48258321</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>260.9333333333333</v>
+        <v>-32017.29639999999</v>
       </c>
       <c r="H29" t="n">
-        <v>260.25</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D30" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E30" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F30" t="n">
-        <v>2373.9847</v>
+        <v>162</v>
       </c>
       <c r="G30" t="n">
-        <v>260.9333333333333</v>
+        <v>-32017.29639999999</v>
       </c>
       <c r="H30" t="n">
-        <v>260.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,33 +1451,30 @@
         <v>259</v>
       </c>
       <c r="C31" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D31" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E31" t="n">
         <v>259</v>
       </c>
       <c r="F31" t="n">
-        <v>1866</v>
+        <v>14464.83</v>
       </c>
       <c r="G31" t="n">
-        <v>260.8666666666667</v>
+        <v>-17552.46639999999</v>
       </c>
       <c r="H31" t="n">
-        <v>260.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C32" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D32" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E32" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>1119.5855</v>
       </c>
       <c r="G32" t="n">
-        <v>260.9333333333333</v>
+        <v>-16432.88089999999</v>
       </c>
       <c r="H32" t="n">
-        <v>260.15</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,33 +1521,30 @@
         <v>260</v>
       </c>
       <c r="C33" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E33" t="n">
         <v>260</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>8154.0499</v>
       </c>
       <c r="G33" t="n">
-        <v>261.4666666666666</v>
+        <v>-24586.93079999999</v>
       </c>
       <c r="H33" t="n">
-        <v>260.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C34" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D34" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E34" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F34" t="n">
-        <v>6893.5928</v>
+        <v>1017.57</v>
       </c>
       <c r="G34" t="n">
-        <v>261.6</v>
+        <v>-24586.93079999999</v>
       </c>
       <c r="H34" t="n">
-        <v>260.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" t="n">
         <v>262</v>
@@ -1701,27 +1597,24 @@
         <v>262</v>
       </c>
       <c r="E35" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>261.6666666666667</v>
+        <v>-24576.93079999999</v>
       </c>
       <c r="H35" t="n">
-        <v>260.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C36" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D36" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E36" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36" t="n">
-        <v>16032.0776</v>
+        <v>114.50381679</v>
       </c>
       <c r="G36" t="n">
-        <v>261.8</v>
+        <v>-24576.93079999999</v>
       </c>
       <c r="H36" t="n">
-        <v>260.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" t="n">
         <v>263</v>
@@ -1777,27 +1667,24 @@
         <v>263</v>
       </c>
       <c r="E37" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F37" t="n">
-        <v>4757.3336</v>
+        <v>572.52818321</v>
       </c>
       <c r="G37" t="n">
-        <v>261.8666666666667</v>
+        <v>-24004.40261678999</v>
       </c>
       <c r="H37" t="n">
-        <v>260.4</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" t="n">
-        <v>678</v>
+        <v>500</v>
       </c>
       <c r="G38" t="n">
-        <v>261.9333333333333</v>
+        <v>-24504.40261678999</v>
       </c>
       <c r="H38" t="n">
-        <v>260.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D39" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E39" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F39" t="n">
-        <v>120.4</v>
+        <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>261.9333333333333</v>
+        <v>-24504.40261678999</v>
       </c>
       <c r="H39" t="n">
-        <v>260.55</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D40" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E40" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F40" t="n">
-        <v>203.0684</v>
+        <v>41.11751679</v>
       </c>
       <c r="G40" t="n">
-        <v>262</v>
+        <v>-24504.40261678999</v>
       </c>
       <c r="H40" t="n">
-        <v>260.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D41" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E41" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F41" t="n">
-        <v>70.3175</v>
+        <v>848.7306</v>
       </c>
       <c r="G41" t="n">
-        <v>262</v>
+        <v>-25353.13321678999</v>
       </c>
       <c r="H41" t="n">
-        <v>260.7</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D42" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E42" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F42" t="n">
-        <v>140.6349</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>262</v>
+        <v>-24353.13321678999</v>
       </c>
       <c r="H42" t="n">
-        <v>260.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C43" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D43" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E43" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F43" t="n">
-        <v>2439.4587</v>
+        <v>853.2283</v>
       </c>
       <c r="G43" t="n">
-        <v>262</v>
+        <v>-25206.36151678998</v>
       </c>
       <c r="H43" t="n">
-        <v>260.85</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C44" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D44" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E44" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F44" t="n">
-        <v>174.1693</v>
+        <v>574.2536</v>
       </c>
       <c r="G44" t="n">
-        <v>262</v>
+        <v>-25206.36151678998</v>
       </c>
       <c r="H44" t="n">
-        <v>260.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C45" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E45" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F45" t="n">
-        <v>1980.315</v>
+        <v>298.1259</v>
       </c>
       <c r="G45" t="n">
-        <v>262.1333333333333</v>
+        <v>-25206.36151678998</v>
       </c>
       <c r="H45" t="n">
-        <v>260.95</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C46" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D46" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E46" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F46" t="n">
-        <v>2327.1854</v>
+        <v>928.558</v>
       </c>
       <c r="G46" t="n">
-        <v>262.2666666666667</v>
+        <v>-26134.91951678999</v>
       </c>
       <c r="H46" t="n">
-        <v>260.95</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C47" t="n">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D47" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E47" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F47" t="n">
-        <v>574.2662</v>
+        <v>5491.5811</v>
       </c>
       <c r="G47" t="n">
-        <v>262.4666666666666</v>
+        <v>-31626.50061678998</v>
       </c>
       <c r="H47" t="n">
-        <v>260.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C48" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D48" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E48" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>262.5333333333334</v>
+        <v>-31586.50061678998</v>
       </c>
       <c r="H48" t="n">
-        <v>261.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C49" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D49" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E49" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F49" t="n">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G49" t="n">
-        <v>262.5333333333334</v>
+        <v>-31285.50061678998</v>
       </c>
       <c r="H49" t="n">
-        <v>261.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,24 +2125,21 @@
         <v>262</v>
       </c>
       <c r="F50" t="n">
-        <v>2.2469</v>
+        <v>1811</v>
       </c>
       <c r="G50" t="n">
-        <v>262.5333333333334</v>
+        <v>-29474.50061678998</v>
       </c>
       <c r="H50" t="n">
-        <v>261.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F51" t="n">
-        <v>1781</v>
+        <v>140.6</v>
       </c>
       <c r="G51" t="n">
-        <v>262.3333333333333</v>
+        <v>-29474.50061678998</v>
       </c>
       <c r="H51" t="n">
-        <v>261.1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C52" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D52" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E52" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F52" t="n">
-        <v>263.6</v>
+        <v>1329.7625</v>
       </c>
       <c r="G52" t="n">
-        <v>262.2</v>
+        <v>-29474.50061678998</v>
       </c>
       <c r="H52" t="n">
-        <v>261.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C53" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D53" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E53" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F53" t="n">
-        <v>432.7619</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>262.0666666666667</v>
+        <v>-29473.50061678998</v>
       </c>
       <c r="H53" t="n">
-        <v>261.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,24 +2265,21 @@
         <v>262</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>293.6</v>
       </c>
       <c r="G54" t="n">
-        <v>262</v>
+        <v>-29767.10061678998</v>
       </c>
       <c r="H54" t="n">
-        <v>261.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C55" t="n">
         <v>262</v>
@@ -2461,27 +2297,24 @@
         <v>262</v>
       </c>
       <c r="E55" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F55" t="n">
-        <v>1606.6307</v>
+        <v>1368.104</v>
       </c>
       <c r="G55" t="n">
-        <v>261.9333333333333</v>
+        <v>-29767.10061678998</v>
       </c>
       <c r="H55" t="n">
-        <v>261.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C56" t="n">
         <v>262</v>
@@ -2499,27 +2332,24 @@
         <v>262</v>
       </c>
       <c r="E56" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F56" t="n">
-        <v>2525.8</v>
+        <v>800</v>
       </c>
       <c r="G56" t="n">
-        <v>261.9333333333333</v>
+        <v>-29767.10061678998</v>
       </c>
       <c r="H56" t="n">
-        <v>261.2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C57" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D57" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E57" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>2348.787</v>
       </c>
       <c r="G57" t="n">
-        <v>261.9333333333333</v>
+        <v>-27418.31361678998</v>
       </c>
       <c r="H57" t="n">
-        <v>261.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C58" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D58" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E58" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F58" t="n">
-        <v>2970.9384</v>
+        <v>21.48258321</v>
       </c>
       <c r="G58" t="n">
-        <v>261.8666666666667</v>
+        <v>-27418.31361678998</v>
       </c>
       <c r="H58" t="n">
-        <v>261.35</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2607,33 +2431,30 @@
         <v>260</v>
       </c>
       <c r="C59" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D59" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E59" t="n">
         <v>260</v>
       </c>
       <c r="F59" t="n">
-        <v>2229.9132</v>
+        <v>2373.9847</v>
       </c>
       <c r="G59" t="n">
-        <v>261.8</v>
+        <v>-29792.29831678998</v>
       </c>
       <c r="H59" t="n">
-        <v>261.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C60" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D60" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E60" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F60" t="n">
-        <v>1770.9603</v>
+        <v>1866</v>
       </c>
       <c r="G60" t="n">
-        <v>261.8666666666667</v>
+        <v>-31658.29831678998</v>
       </c>
       <c r="H60" t="n">
-        <v>261.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C61" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D61" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E61" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F61" t="n">
-        <v>4629.1599</v>
+        <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>261.9333333333333</v>
+        <v>-31658.29831678998</v>
       </c>
       <c r="H61" t="n">
-        <v>261.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C62" t="n">
         <v>262</v>
@@ -2727,27 +2542,24 @@
         <v>262</v>
       </c>
       <c r="E62" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F62" t="n">
-        <v>3095.5515</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>261.9333333333333</v>
+        <v>-31656.29831678998</v>
       </c>
       <c r="H62" t="n">
-        <v>261.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F63" t="n">
-        <v>344</v>
+        <v>6893.5928</v>
       </c>
       <c r="G63" t="n">
-        <v>261.8</v>
+        <v>-31656.29831678998</v>
       </c>
       <c r="H63" t="n">
-        <v>261.55</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C64" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D64" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E64" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F64" t="n">
-        <v>1327.1</v>
+        <v>27</v>
       </c>
       <c r="G64" t="n">
-        <v>261.7333333333333</v>
+        <v>-31656.29831678998</v>
       </c>
       <c r="H64" t="n">
-        <v>261.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,40 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C65" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D65" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E65" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F65" t="n">
-        <v>172.9</v>
+        <v>16032.0776</v>
       </c>
       <c r="G65" t="n">
-        <v>261.6666666666667</v>
+        <v>-15624.22071678998</v>
       </c>
       <c r="H65" t="n">
-        <v>261.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>261</v>
-      </c>
-      <c r="L65" t="n">
-        <v>261</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,42 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C66" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D66" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E66" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F66" t="n">
-        <v>900.4392</v>
+        <v>4757.3336</v>
       </c>
       <c r="G66" t="n">
-        <v>261.6666666666667</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H66" t="n">
-        <v>261.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>261</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,42 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F67" t="n">
-        <v>547.9617</v>
+        <v>678</v>
       </c>
       <c r="G67" t="n">
-        <v>261.6666666666667</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H67" t="n">
-        <v>261.55</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>261</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C68" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D68" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E68" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F68" t="n">
-        <v>1085.2576</v>
+        <v>120.4</v>
       </c>
       <c r="G68" t="n">
-        <v>261.7333333333333</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H68" t="n">
-        <v>261.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C69" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D69" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E69" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F69" t="n">
-        <v>12.6553</v>
+        <v>203.0684</v>
       </c>
       <c r="G69" t="n">
-        <v>261.4666666666666</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H69" t="n">
-        <v>261.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,42 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C70" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D70" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E70" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F70" t="n">
-        <v>44.5052</v>
+        <v>70.3175</v>
       </c>
       <c r="G70" t="n">
-        <v>261.2666666666667</v>
+        <v>-20451.87181678998</v>
       </c>
       <c r="H70" t="n">
-        <v>261.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,42 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C71" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D71" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E71" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F71" t="n">
-        <v>6387.4787</v>
+        <v>140.6349</v>
       </c>
       <c r="G71" t="n">
-        <v>261.0666666666667</v>
+        <v>-20451.87181678998</v>
       </c>
       <c r="H71" t="n">
-        <v>261.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,42 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C72" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D72" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E72" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F72" t="n">
-        <v>1694</v>
+        <v>2439.4587</v>
       </c>
       <c r="G72" t="n">
-        <v>260.8666666666667</v>
+        <v>-18012.41311678998</v>
       </c>
       <c r="H72" t="n">
-        <v>261.35</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,42 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C73" t="n">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D73" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E73" t="n">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F73" t="n">
-        <v>1389.4563</v>
+        <v>174.1693</v>
       </c>
       <c r="G73" t="n">
-        <v>260.4666666666666</v>
+        <v>-18012.41311678998</v>
       </c>
       <c r="H73" t="n">
-        <v>261.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,42 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C74" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D74" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E74" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F74" t="n">
-        <v>1723</v>
+        <v>1980.315</v>
       </c>
       <c r="G74" t="n">
-        <v>260.1333333333333</v>
+        <v>-19992.72811678998</v>
       </c>
       <c r="H74" t="n">
-        <v>261.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,42 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C75" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D75" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E75" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F75" t="n">
-        <v>558.1</v>
+        <v>2327.1854</v>
       </c>
       <c r="G75" t="n">
-        <v>259.8</v>
+        <v>-22319.91351678998</v>
       </c>
       <c r="H75" t="n">
-        <v>261.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,42 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C76" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D76" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E76" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F76" t="n">
-        <v>1140.6</v>
+        <v>574.2662</v>
       </c>
       <c r="G76" t="n">
-        <v>259.5333333333334</v>
+        <v>-21745.64731678998</v>
       </c>
       <c r="H76" t="n">
-        <v>261.15</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,42 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C77" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D77" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E77" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F77" t="n">
-        <v>867.5</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>259.2666666666667</v>
+        <v>-21744.64731678998</v>
       </c>
       <c r="H77" t="n">
-        <v>261.15</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,42 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C78" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D78" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E78" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F78" t="n">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="G78" t="n">
-        <v>259.0666666666667</v>
+        <v>-22058.64731678998</v>
       </c>
       <c r="H78" t="n">
-        <v>261.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,42 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C79" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D79" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E79" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>2.2469</v>
       </c>
       <c r="G79" t="n">
-        <v>258.6666666666667</v>
+        <v>-22058.64731678998</v>
       </c>
       <c r="H79" t="n">
-        <v>261.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,42 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C80" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D80" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E80" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F80" t="n">
-        <v>197.7078</v>
+        <v>1781</v>
       </c>
       <c r="G80" t="n">
-        <v>258.4</v>
+        <v>-23839.64731678998</v>
       </c>
       <c r="H80" t="n">
-        <v>261.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,42 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C81" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D81" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E81" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F81" t="n">
-        <v>75.5626</v>
+        <v>263.6</v>
       </c>
       <c r="G81" t="n">
-        <v>258.0666666666667</v>
+        <v>-23839.64731678998</v>
       </c>
       <c r="H81" t="n">
-        <v>260.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C82" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D82" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E82" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F82" t="n">
-        <v>820.8083</v>
+        <v>432.7619</v>
       </c>
       <c r="G82" t="n">
-        <v>257.7333333333333</v>
+        <v>-23839.64731678998</v>
       </c>
       <c r="H82" t="n">
-        <v>260.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,42 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C83" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D83" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E83" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F83" t="n">
-        <v>1015.3827</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>257.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H83" t="n">
-        <v>260.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,42 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C84" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D84" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E84" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F84" t="n">
-        <v>116.7201</v>
+        <v>1606.6307</v>
       </c>
       <c r="G84" t="n">
-        <v>257.4</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H84" t="n">
-        <v>260.7</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,40 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C85" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D85" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E85" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F85" t="n">
-        <v>1813.8783</v>
+        <v>2525.8</v>
       </c>
       <c r="G85" t="n">
-        <v>257.4</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H85" t="n">
-        <v>260.65</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,40 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C86" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D86" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E86" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F86" t="n">
-        <v>188.4843</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>257.4</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H86" t="n">
-        <v>260.6</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,40 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C87" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D87" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E87" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F87" t="n">
-        <v>186.7</v>
+        <v>2970.9384</v>
       </c>
       <c r="G87" t="n">
-        <v>257.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H87" t="n">
-        <v>260.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,40 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D88" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E88" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F88" t="n">
-        <v>2835.3233</v>
+        <v>2229.9132</v>
       </c>
       <c r="G88" t="n">
-        <v>257.5333333333334</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H88" t="n">
-        <v>260.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,40 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C89" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D89" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E89" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1770.9603</v>
       </c>
       <c r="G89" t="n">
-        <v>257.7333333333333</v>
+        <v>-22067.68701678998</v>
       </c>
       <c r="H89" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,40 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C90" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D90" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E90" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F90" t="n">
-        <v>5524.6355</v>
+        <v>4629.1599</v>
       </c>
       <c r="G90" t="n">
-        <v>257.8666666666667</v>
+        <v>-26696.84691678998</v>
       </c>
       <c r="H90" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,40 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C91" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E91" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F91" t="n">
-        <v>1694.2656</v>
+        <v>3095.5515</v>
       </c>
       <c r="G91" t="n">
-        <v>258</v>
+        <v>-26696.84691678998</v>
       </c>
       <c r="H91" t="n">
-        <v>260.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,40 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C92" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E92" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="G92" t="n">
-        <v>258.2666666666667</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H92" t="n">
-        <v>260.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,40 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C93" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E93" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F93" t="n">
-        <v>1.5</v>
+        <v>1327.1</v>
       </c>
       <c r="G93" t="n">
-        <v>258.5333333333334</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H93" t="n">
-        <v>260.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,40 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E94" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F94" t="n">
-        <v>1676.896</v>
+        <v>172.9</v>
       </c>
       <c r="G94" t="n">
-        <v>258.8666666666667</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H94" t="n">
-        <v>260.45</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,40 +3688,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C95" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E95" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F95" t="n">
-        <v>918</v>
+        <v>900.4392</v>
       </c>
       <c r="G95" t="n">
-        <v>259.0666666666667</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H95" t="n">
-        <v>260.4166666666667</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="K95" t="n">
+        <v>261</v>
+      </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,40 +3727,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C96" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D96" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E96" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F96" t="n">
-        <v>865.4525</v>
+        <v>547.9617</v>
       </c>
       <c r="G96" t="n">
-        <v>259.5333333333334</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H96" t="n">
-        <v>260.4</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>261</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,40 +3768,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C97" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E97" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F97" t="n">
-        <v>837.3985</v>
+        <v>1085.2576</v>
       </c>
       <c r="G97" t="n">
-        <v>260.0666666666667</v>
+        <v>-25955.58931678998</v>
       </c>
       <c r="H97" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>261</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,40 +3809,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C98" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D98" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E98" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F98" t="n">
-        <v>3360.2414</v>
+        <v>12.6553</v>
       </c>
       <c r="G98" t="n">
-        <v>260.5333333333334</v>
+        <v>-25968.24461678998</v>
       </c>
       <c r="H98" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>261</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,40 +3850,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C99" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D99" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E99" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F99" t="n">
-        <v>301.2336</v>
+        <v>44.5052</v>
       </c>
       <c r="G99" t="n">
-        <v>260.8</v>
+        <v>-25923.73941678998</v>
       </c>
       <c r="H99" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>261</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4328,40 +3891,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C100" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D100" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E100" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F100" t="n">
-        <v>1987.6692</v>
+        <v>6387.4787</v>
       </c>
       <c r="G100" t="n">
-        <v>261.0666666666667</v>
+        <v>-25923.73941678998</v>
       </c>
       <c r="H100" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>261</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,40 +3932,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C101" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D101" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E101" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F101" t="n">
-        <v>175.6255</v>
+        <v>1694</v>
       </c>
       <c r="G101" t="n">
-        <v>261.2</v>
+        <v>-25923.73941678998</v>
       </c>
       <c r="H101" t="n">
-        <v>260.4</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>261</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,40 +3973,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C102" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D102" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E102" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F102" t="n">
-        <v>927.7839</v>
+        <v>1389.4563</v>
       </c>
       <c r="G102" t="n">
-        <v>261.3333333333333</v>
+        <v>-27313.19571678998</v>
       </c>
       <c r="H102" t="n">
-        <v>260.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>261</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,40 +4014,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C103" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D103" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E103" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F103" t="n">
-        <v>927.7839</v>
+        <v>1723</v>
       </c>
       <c r="G103" t="n">
-        <v>261.4</v>
+        <v>-25590.19571678998</v>
       </c>
       <c r="H103" t="n">
-        <v>260.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>261</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,40 +4055,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C104" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D104" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E104" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F104" t="n">
-        <v>123</v>
+        <v>558.1</v>
       </c>
       <c r="G104" t="n">
-        <v>261.4666666666666</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H104" t="n">
-        <v>260.2833333333334</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>257</v>
+      </c>
+      <c r="K104" t="n">
+        <v>261</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,40 +4098,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C105" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D105" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E105" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F105" t="n">
-        <v>2130.3937</v>
+        <v>1140.6</v>
       </c>
       <c r="G105" t="n">
-        <v>261.6666666666667</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H105" t="n">
-        <v>260.3</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>258</v>
+      </c>
+      <c r="K105" t="n">
+        <v>261</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,40 +4141,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C106" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D106" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E106" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F106" t="n">
-        <v>2429.952</v>
+        <v>867.5</v>
       </c>
       <c r="G106" t="n">
-        <v>262</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H106" t="n">
-        <v>260.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>258</v>
+      </c>
+      <c r="K106" t="n">
+        <v>261</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,40 +4184,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C107" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D107" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E107" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F107" t="n">
-        <v>1169.4924</v>
+        <v>120</v>
       </c>
       <c r="G107" t="n">
-        <v>262.2666666666667</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H107" t="n">
-        <v>260.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>261</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,40 +4225,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C108" t="n">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D108" t="n">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E108" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F108" t="n">
-        <v>927.4</v>
+        <v>80</v>
       </c>
       <c r="G108" t="n">
-        <v>262.4</v>
+        <v>-25112.09571678998</v>
       </c>
       <c r="H108" t="n">
-        <v>260.45</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>261</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,40 +4266,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C109" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D109" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E109" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F109" t="n">
-        <v>197.5922</v>
+        <v>197.7078</v>
       </c>
       <c r="G109" t="n">
-        <v>262.6</v>
+        <v>-24914.38791678998</v>
       </c>
       <c r="H109" t="n">
-        <v>260.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>261</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,40 +4307,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C110" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D110" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E110" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F110" t="n">
-        <v>1653.9367</v>
+        <v>75.5626</v>
       </c>
       <c r="G110" t="n">
-        <v>262.5333333333334</v>
+        <v>-24989.95051678998</v>
       </c>
       <c r="H110" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>261</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,40 +4348,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C111" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D111" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E111" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F111" t="n">
-        <v>743.295</v>
+        <v>820.8083</v>
       </c>
       <c r="G111" t="n">
-        <v>262.4</v>
+        <v>-24989.95051678998</v>
       </c>
       <c r="H111" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>261</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,40 +4389,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C112" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D112" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E112" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F112" t="n">
-        <v>3646.9734</v>
+        <v>1015.3827</v>
       </c>
       <c r="G112" t="n">
-        <v>262.1333333333333</v>
+        <v>-24989.95051678998</v>
       </c>
       <c r="H112" t="n">
-        <v>260.4</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>261</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,40 +4430,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C113" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D113" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E113" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>116.7201</v>
       </c>
       <c r="G113" t="n">
-        <v>262.0666666666667</v>
+        <v>-24873.23041678999</v>
       </c>
       <c r="H113" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>261</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,40 +4471,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C114" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D114" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E114" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F114" t="n">
-        <v>234.1279</v>
+        <v>1813.8783</v>
       </c>
       <c r="G114" t="n">
-        <v>262</v>
+        <v>-24873.23041678999</v>
       </c>
       <c r="H114" t="n">
-        <v>260.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>261</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,40 +4512,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C115" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D115" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E115" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>188.4843</v>
       </c>
       <c r="G115" t="n">
-        <v>262.1333333333333</v>
+        <v>-24873.23041678999</v>
       </c>
       <c r="H115" t="n">
-        <v>260.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>261</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,40 +4553,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C116" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D116" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E116" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>186.7</v>
       </c>
       <c r="G116" t="n">
-        <v>262.4</v>
+        <v>-25059.93041678999</v>
       </c>
       <c r="H116" t="n">
-        <v>260.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>261</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,40 +4594,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C117" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D117" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E117" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F117" t="n">
-        <v>39</v>
+        <v>2835.3233</v>
       </c>
       <c r="G117" t="n">
-        <v>262.8</v>
+        <v>-22224.60711678999</v>
       </c>
       <c r="H117" t="n">
-        <v>260.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>261</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,40 +4635,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C118" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D118" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E118" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F118" t="n">
-        <v>1430</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>263.2</v>
+        <v>-22222.60711678999</v>
       </c>
       <c r="H118" t="n">
-        <v>260.65</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>261</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,40 +4676,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C119" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D119" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E119" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F119" t="n">
-        <v>1843.7</v>
+        <v>5524.6355</v>
       </c>
       <c r="G119" t="n">
-        <v>263.5333333333334</v>
+        <v>-22222.60711678999</v>
       </c>
       <c r="H119" t="n">
-        <v>260.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>261</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,40 +4717,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C120" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D120" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E120" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F120" t="n">
-        <v>1762.4585</v>
+        <v>1694.2656</v>
       </c>
       <c r="G120" t="n">
-        <v>263.7333333333333</v>
+        <v>-22222.60711678999</v>
       </c>
       <c r="H120" t="n">
-        <v>260.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>261</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,40 +4758,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C121" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D121" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E121" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>263.8666666666667</v>
+        <v>-22218.60711678999</v>
       </c>
       <c r="H121" t="n">
-        <v>260.85</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>261</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,40 +4799,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C122" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D122" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E122" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F122" t="n">
-        <v>3200</v>
+        <v>1.5</v>
       </c>
       <c r="G122" t="n">
-        <v>263.9333333333333</v>
+        <v>-22218.60711678999</v>
       </c>
       <c r="H122" t="n">
-        <v>260.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>261</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,40 +4840,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C123" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D123" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E123" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>1676.896</v>
       </c>
       <c r="G123" t="n">
-        <v>264.2</v>
+        <v>-23895.50311678999</v>
       </c>
       <c r="H123" t="n">
-        <v>261.05</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>261</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,40 +4881,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C124" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D124" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E124" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F124" t="n">
-        <v>1042.5697</v>
+        <v>918</v>
       </c>
       <c r="G124" t="n">
-        <v>264.4</v>
+        <v>-23895.50311678999</v>
       </c>
       <c r="H124" t="n">
-        <v>261.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>261</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,40 +4922,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C125" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D125" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E125" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>865.4525</v>
       </c>
       <c r="G125" t="n">
-        <v>265</v>
+        <v>-23030.05061678999</v>
       </c>
       <c r="H125" t="n">
-        <v>261.25</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>261</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,40 +4963,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C126" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D126" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E126" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F126" t="n">
-        <v>2304.0846</v>
+        <v>837.3985</v>
       </c>
       <c r="G126" t="n">
-        <v>265.2666666666667</v>
+        <v>-22192.65211678999</v>
       </c>
       <c r="H126" t="n">
-        <v>261.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>261</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,40 +5004,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C127" t="n">
         <v>263</v>
       </c>
       <c r="D127" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E127" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F127" t="n">
-        <v>1971.4673</v>
+        <v>3360.2414</v>
       </c>
       <c r="G127" t="n">
-        <v>265.4666666666666</v>
+        <v>-25552.89351678999</v>
       </c>
       <c r="H127" t="n">
-        <v>261.35</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>261</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,40 +5045,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C128" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D128" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E128" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F128" t="n">
-        <v>2608.1588</v>
+        <v>301.2336</v>
       </c>
       <c r="G128" t="n">
-        <v>265.8666666666667</v>
+        <v>-25552.89351678999</v>
       </c>
       <c r="H128" t="n">
-        <v>261.45</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>261</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,40 +5086,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C129" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D129" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E129" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F129" t="n">
-        <v>67.8627</v>
+        <v>1987.6692</v>
       </c>
       <c r="G129" t="n">
-        <v>266.0666666666667</v>
+        <v>-25552.89351678999</v>
       </c>
       <c r="H129" t="n">
-        <v>261.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>261</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,40 +5127,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C130" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D130" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E130" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F130" t="n">
-        <v>28037.4581</v>
+        <v>175.6255</v>
       </c>
       <c r="G130" t="n">
-        <v>266.3333333333333</v>
+        <v>-25728.51901678999</v>
       </c>
       <c r="H130" t="n">
-        <v>261.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>261</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5630,40 +5168,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C131" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D131" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E131" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F131" t="n">
-        <v>14178.5985</v>
+        <v>927.7839</v>
       </c>
       <c r="G131" t="n">
-        <v>266.2</v>
+        <v>-26656.30291678998</v>
       </c>
       <c r="H131" t="n">
-        <v>261.8</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>261</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,40 +5209,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C132" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D132" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E132" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>927.7839</v>
       </c>
       <c r="G132" t="n">
-        <v>266.3333333333333</v>
+        <v>-26656.30291678998</v>
       </c>
       <c r="H132" t="n">
-        <v>261.95</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>261</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,76 +5250,80 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C133" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D133" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E133" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F133" t="n">
-        <v>1728.2187</v>
+        <v>123</v>
       </c>
       <c r="G133" t="n">
-        <v>266.3333333333333</v>
+        <v>-26533.30291678998</v>
       </c>
       <c r="H133" t="n">
-        <v>262.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>261</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C134" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D134" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E134" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2130.3937</v>
       </c>
       <c r="G134" t="n">
-        <v>266.3333333333333</v>
+        <v>-24402.90921678998</v>
       </c>
       <c r="H134" t="n">
-        <v>262.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>261</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5792,36 +5332,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C135" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D135" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E135" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="n">
-        <v>1681</v>
+        <v>2429.952</v>
       </c>
       <c r="G135" t="n">
-        <v>266.4666666666666</v>
+        <v>-21972.95721678998</v>
       </c>
       <c r="H135" t="n">
-        <v>262.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>261</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5830,36 +5373,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C136" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D136" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E136" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="n">
-        <v>1751</v>
+        <v>1169.4924</v>
       </c>
       <c r="G136" t="n">
-        <v>266.4666666666666</v>
+        <v>-20803.46481678998</v>
       </c>
       <c r="H136" t="n">
-        <v>262.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>261</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5868,36 +5414,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C137" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D137" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E137" t="n">
         <v>263</v>
       </c>
       <c r="F137" t="n">
-        <v>11782.3984</v>
+        <v>927.4</v>
       </c>
       <c r="G137" t="n">
-        <v>266.4</v>
+        <v>-21730.86481678998</v>
       </c>
       <c r="H137" t="n">
-        <v>262.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>261</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5906,36 +5455,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C138" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D138" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E138" t="n">
         <v>263</v>
       </c>
       <c r="F138" t="n">
-        <v>3879.072</v>
+        <v>197.5922</v>
       </c>
       <c r="G138" t="n">
-        <v>266.2666666666667</v>
+        <v>-21928.45701678998</v>
       </c>
       <c r="H138" t="n">
-        <v>262.85</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>261</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,36 +5496,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C139" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D139" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E139" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>1653.9367</v>
       </c>
       <c r="G139" t="n">
-        <v>266.5333333333334</v>
+        <v>-23582.39371678998</v>
       </c>
       <c r="H139" t="n">
-        <v>263.1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>261</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,36 +5537,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C140" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D140" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E140" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F140" t="n">
-        <v>1000</v>
+        <v>743.295</v>
       </c>
       <c r="G140" t="n">
-        <v>266.4</v>
+        <v>-22839.09871678998</v>
       </c>
       <c r="H140" t="n">
-        <v>263.25</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>261</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6020,36 +5578,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C141" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D141" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E141" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F141" t="n">
-        <v>2694</v>
+        <v>3646.9734</v>
       </c>
       <c r="G141" t="n">
-        <v>266.6</v>
+        <v>-26486.07211678998</v>
       </c>
       <c r="H141" t="n">
-        <v>263.45</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>261</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,36 +5619,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C142" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D142" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E142" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F142" t="n">
-        <v>150.9869</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>266.7333333333333</v>
+        <v>-26485.07211678998</v>
       </c>
       <c r="H142" t="n">
-        <v>263.6</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>261</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6096,36 +5660,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C143" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D143" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E143" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>234.1279</v>
       </c>
       <c r="G143" t="n">
-        <v>266.7333333333333</v>
+        <v>-26485.07211678998</v>
       </c>
       <c r="H143" t="n">
-        <v>263.8</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>261</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,36 +5701,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C144" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D144" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E144" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F144" t="n">
-        <v>1029.2759</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>266.9333333333333</v>
+        <v>-26484.07211678998</v>
       </c>
       <c r="H144" t="n">
-        <v>263.95</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>261</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,36 +5742,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C145" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D145" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E145" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F145" t="n">
-        <v>12135.9284</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>266.5333333333334</v>
+        <v>-26484.07211678998</v>
       </c>
       <c r="H145" t="n">
-        <v>264.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>261</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6213,33 +5786,36 @@
         <v>265</v>
       </c>
       <c r="C146" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D146" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E146" t="n">
         <v>265</v>
       </c>
       <c r="F146" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G146" t="n">
-        <v>266.9333333333333</v>
+        <v>-26445.07211678998</v>
       </c>
       <c r="H146" t="n">
-        <v>264.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>261</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6248,36 +5824,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C147" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D147" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E147" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F147" t="n">
-        <v>745.8395</v>
+        <v>1430</v>
       </c>
       <c r="G147" t="n">
-        <v>267</v>
+        <v>-26445.07211678998</v>
       </c>
       <c r="H147" t="n">
-        <v>264.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>261</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6286,36 +5865,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C148" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D148" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E148" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F148" t="n">
-        <v>697.6625</v>
+        <v>1843.7</v>
       </c>
       <c r="G148" t="n">
-        <v>267.2666666666667</v>
+        <v>-26445.07211678998</v>
       </c>
       <c r="H148" t="n">
-        <v>264.55</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>1</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>261</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6324,36 +5906,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C149" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D149" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E149" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F149" t="n">
-        <v>3827.1653</v>
+        <v>1762.4585</v>
       </c>
       <c r="G149" t="n">
-        <v>266.9333333333333</v>
+        <v>-26445.07211678998</v>
       </c>
       <c r="H149" t="n">
-        <v>264.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>261</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,36 +5947,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C150" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D150" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E150" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F150" t="n">
-        <v>4.8796</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>266.7333333333333</v>
+        <v>-26444.07211678998</v>
       </c>
       <c r="H150" t="n">
-        <v>264.65</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>1</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>261</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6400,36 +5988,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C151" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D151" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E151" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F151" t="n">
-        <v>312.5956</v>
+        <v>3200</v>
       </c>
       <c r="G151" t="n">
-        <v>266.5333333333334</v>
+        <v>-26444.07211678998</v>
       </c>
       <c r="H151" t="n">
-        <v>264.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>261</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6438,36 +6029,39 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C152" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D152" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E152" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>266.4666666666666</v>
+        <v>-26443.07211678998</v>
       </c>
       <c r="H152" t="n">
-        <v>264.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>1</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>261</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6476,36 +6070,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C153" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D153" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E153" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F153" t="n">
-        <v>1979.931</v>
+        <v>1042.5697</v>
       </c>
       <c r="G153" t="n">
-        <v>266.5333333333334</v>
+        <v>-27485.64181678998</v>
       </c>
       <c r="H153" t="n">
-        <v>264.85</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>261</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,36 +6111,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C154" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D154" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E154" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F154" t="n">
-        <v>5.6849</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>266.2</v>
+        <v>-27484.64181678998</v>
       </c>
       <c r="H154" t="n">
-        <v>264.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>1</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>261</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,24 +6164,27 @@
         <v>265</v>
       </c>
       <c r="F155" t="n">
-        <v>958.8871</v>
+        <v>2304.0846</v>
       </c>
       <c r="G155" t="n">
-        <v>266.1333333333333</v>
+        <v>-29788.72641678998</v>
       </c>
       <c r="H155" t="n">
-        <v>265.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>261</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,33 +6196,36 @@
         <v>264</v>
       </c>
       <c r="C156" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D156" t="n">
         <v>264</v>
       </c>
       <c r="E156" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F156" t="n">
-        <v>1930.8084</v>
+        <v>1971.4673</v>
       </c>
       <c r="G156" t="n">
-        <v>265.6666666666667</v>
+        <v>-31760.19371678999</v>
       </c>
       <c r="H156" t="n">
-        <v>264.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>261</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,36 +6234,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C157" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D157" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E157" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>2608.1588</v>
       </c>
       <c r="G157" t="n">
-        <v>265.4666666666666</v>
+        <v>-29152.03491678998</v>
       </c>
       <c r="H157" t="n">
-        <v>264.95</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>1</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>261</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6666,36 +6275,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C158" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D158" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E158" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F158" t="n">
-        <v>1868.3888</v>
+        <v>67.8627</v>
       </c>
       <c r="G158" t="n">
-        <v>265</v>
+        <v>-29219.89761678999</v>
       </c>
       <c r="H158" t="n">
-        <v>264.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>261</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6704,36 +6316,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C159" t="n">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D159" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E159" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F159" t="n">
-        <v>7683.5835</v>
+        <v>28037.4581</v>
       </c>
       <c r="G159" t="n">
-        <v>264.4666666666666</v>
+        <v>-1182.439516789986</v>
       </c>
       <c r="H159" t="n">
-        <v>264.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>261</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6742,36 +6357,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C160" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D160" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E160" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F160" t="n">
-        <v>6476.9999</v>
+        <v>14178.5985</v>
       </c>
       <c r="G160" t="n">
-        <v>264.1333333333333</v>
+        <v>-15361.03801678999</v>
       </c>
       <c r="H160" t="n">
-        <v>264.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>261</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,36 +6398,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C161" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D161" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E161" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F161" t="n">
-        <v>370.2273</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>263.4</v>
+        <v>-15360.03801678999</v>
       </c>
       <c r="H161" t="n">
-        <v>264.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>261</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,36 +6439,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C162" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D162" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E162" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F162" t="n">
-        <v>2355.1114</v>
+        <v>1728.2187</v>
       </c>
       <c r="G162" t="n">
-        <v>262.6666666666667</v>
+        <v>-17088.25671678999</v>
       </c>
       <c r="H162" t="n">
-        <v>264.7</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>261</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6856,36 +6480,39 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C163" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D163" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E163" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F163" t="n">
-        <v>207.8118</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>261.8666666666667</v>
+        <v>-17088.25671678999</v>
       </c>
       <c r="H163" t="n">
-        <v>264.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>261</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6894,36 +6521,1126 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>267</v>
+      </c>
+      <c r="C164" t="n">
+        <v>268</v>
+      </c>
+      <c r="D164" t="n">
+        <v>268</v>
+      </c>
+      <c r="E164" t="n">
+        <v>267</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1681</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-15407.25671678999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>261</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>267</v>
+      </c>
+      <c r="C165" t="n">
+        <v>267</v>
+      </c>
+      <c r="D165" t="n">
+        <v>267</v>
+      </c>
+      <c r="E165" t="n">
+        <v>267</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1751</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-17158.25671678999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>261</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>267</v>
+      </c>
+      <c r="C166" t="n">
+        <v>266</v>
+      </c>
+      <c r="D166" t="n">
+        <v>267</v>
+      </c>
+      <c r="E166" t="n">
+        <v>263</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11782.3984</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-28940.65511678999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>261</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>263</v>
+      </c>
+      <c r="C167" t="n">
+        <v>266</v>
+      </c>
+      <c r="D167" t="n">
+        <v>266</v>
+      </c>
+      <c r="E167" t="n">
+        <v>263</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3879.072</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-28940.65511678999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>261</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>266</v>
+      </c>
+      <c r="C168" t="n">
+        <v>270</v>
+      </c>
+      <c r="D168" t="n">
+        <v>270</v>
+      </c>
+      <c r="E168" t="n">
+        <v>266</v>
+      </c>
+      <c r="F168" t="n">
+        <v>300</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-28640.65511678999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>261</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>266</v>
+      </c>
+      <c r="C169" t="n">
+        <v>266</v>
+      </c>
+      <c r="D169" t="n">
+        <v>266</v>
+      </c>
+      <c r="E169" t="n">
+        <v>266</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-29640.65511678999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>261</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>266</v>
+      </c>
+      <c r="C170" t="n">
+        <v>268</v>
+      </c>
+      <c r="D170" t="n">
+        <v>268</v>
+      </c>
+      <c r="E170" t="n">
+        <v>266</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2694</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-26946.65511678999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>261</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>265</v>
+      </c>
+      <c r="C171" t="n">
+        <v>265</v>
+      </c>
+      <c r="D171" t="n">
+        <v>265</v>
+      </c>
+      <c r="E171" t="n">
+        <v>265</v>
+      </c>
+      <c r="F171" t="n">
+        <v>150.9869</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-27097.64201678999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>261</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>268</v>
+      </c>
+      <c r="C172" t="n">
+        <v>268</v>
+      </c>
+      <c r="D172" t="n">
+        <v>268</v>
+      </c>
+      <c r="E172" t="n">
+        <v>268</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-27096.64201678999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>261</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>268</v>
+      </c>
+      <c r="C173" t="n">
+        <v>268</v>
+      </c>
+      <c r="D173" t="n">
+        <v>268</v>
+      </c>
+      <c r="E173" t="n">
+        <v>268</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1029.2759</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-27096.64201678999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>261</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>267</v>
+      </c>
+      <c r="C174" t="n">
+        <v>263</v>
+      </c>
+      <c r="D174" t="n">
+        <v>267</v>
+      </c>
+      <c r="E174" t="n">
+        <v>263</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12135.9284</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-39232.57041678999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>261</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>265</v>
+      </c>
+      <c r="C175" t="n">
+        <v>269</v>
+      </c>
+      <c r="D175" t="n">
+        <v>269</v>
+      </c>
+      <c r="E175" t="n">
+        <v>265</v>
+      </c>
+      <c r="F175" t="n">
+        <v>15</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-39217.57041678999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>261</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>269</v>
+      </c>
+      <c r="C176" t="n">
+        <v>269</v>
+      </c>
+      <c r="D176" t="n">
+        <v>270</v>
+      </c>
+      <c r="E176" t="n">
+        <v>268</v>
+      </c>
+      <c r="F176" t="n">
+        <v>745.8395</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-39217.57041678999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>261</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1.025651340996169</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>270</v>
+      </c>
+      <c r="C177" t="n">
+        <v>270</v>
+      </c>
+      <c r="D177" t="n">
+        <v>270</v>
+      </c>
+      <c r="E177" t="n">
+        <v>270</v>
+      </c>
+      <c r="F177" t="n">
+        <v>697.6625</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-38519.90791678999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>267</v>
+      </c>
+      <c r="C178" t="n">
+        <v>261</v>
+      </c>
+      <c r="D178" t="n">
+        <v>267</v>
+      </c>
+      <c r="E178" t="n">
+        <v>261</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3827.1653</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-42347.07321678999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>265</v>
+      </c>
+      <c r="C179" t="n">
+        <v>265</v>
+      </c>
+      <c r="D179" t="n">
+        <v>265</v>
+      </c>
+      <c r="E179" t="n">
+        <v>265</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4.8796</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-42342.19361678999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>264</v>
+      </c>
+      <c r="C180" t="n">
+        <v>264</v>
+      </c>
+      <c r="D180" t="n">
+        <v>265</v>
+      </c>
+      <c r="E180" t="n">
+        <v>264</v>
+      </c>
+      <c r="F180" t="n">
+        <v>312.5956</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-42654.78921678999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>265</v>
+      </c>
+      <c r="C181" t="n">
+        <v>265</v>
+      </c>
+      <c r="D181" t="n">
+        <v>265</v>
+      </c>
+      <c r="E181" t="n">
+        <v>265</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-42653.78921678999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>263</v>
+      </c>
+      <c r="C182" t="n">
+        <v>267</v>
+      </c>
+      <c r="D182" t="n">
+        <v>267</v>
+      </c>
+      <c r="E182" t="n">
+        <v>261</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1979.931</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-40673.85821678999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>265</v>
+      </c>
+      <c r="C183" t="n">
+        <v>265</v>
+      </c>
+      <c r="D183" t="n">
+        <v>265</v>
+      </c>
+      <c r="E183" t="n">
+        <v>265</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5.6849</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-40679.54311679</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>265</v>
+      </c>
+      <c r="C184" t="n">
+        <v>265</v>
+      </c>
+      <c r="D184" t="n">
+        <v>265</v>
+      </c>
+      <c r="E184" t="n">
+        <v>265</v>
+      </c>
+      <c r="F184" t="n">
+        <v>958.8871</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-40679.54311679</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>264</v>
+      </c>
+      <c r="C185" t="n">
+        <v>261</v>
+      </c>
+      <c r="D185" t="n">
+        <v>264</v>
+      </c>
+      <c r="E185" t="n">
+        <v>261</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1930.8084</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-42610.35151679</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>263</v>
+      </c>
+      <c r="C186" t="n">
+        <v>262</v>
+      </c>
+      <c r="D186" t="n">
+        <v>263</v>
+      </c>
+      <c r="E186" t="n">
+        <v>262</v>
+      </c>
+      <c r="F186" t="n">
+        <v>200</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-42410.35151679</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>261</v>
+      </c>
+      <c r="C187" t="n">
+        <v>261</v>
+      </c>
+      <c r="D187" t="n">
+        <v>261</v>
+      </c>
+      <c r="E187" t="n">
+        <v>261</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1868.3888</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-44278.74031679</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>261</v>
+      </c>
+      <c r="C188" t="n">
+        <v>260</v>
+      </c>
+      <c r="D188" t="n">
+        <v>261</v>
+      </c>
+      <c r="E188" t="n">
+        <v>260</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7683.5835</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-51962.32381679</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>260</v>
+      </c>
+      <c r="C189" t="n">
+        <v>258</v>
+      </c>
+      <c r="D189" t="n">
+        <v>260</v>
+      </c>
+      <c r="E189" t="n">
+        <v>258</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6476.9999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>258</v>
+      </c>
+      <c r="C190" t="n">
+        <v>258</v>
+      </c>
+      <c r="D190" t="n">
+        <v>258</v>
+      </c>
+      <c r="E190" t="n">
+        <v>258</v>
+      </c>
+      <c r="F190" t="n">
+        <v>370.2273</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>258</v>
+      </c>
+      <c r="C191" t="n">
+        <v>258</v>
+      </c>
+      <c r="D191" t="n">
+        <v>258</v>
+      </c>
+      <c r="E191" t="n">
+        <v>257</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2355.1114</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>258</v>
+      </c>
+      <c r="C192" t="n">
+        <v>258</v>
+      </c>
+      <c r="D192" t="n">
+        <v>258</v>
+      </c>
+      <c r="E192" t="n">
+        <v>258</v>
+      </c>
+      <c r="F192" t="n">
+        <v>207.8118</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>259</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C193" t="n">
         <v>259</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D193" t="n">
         <v>259</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E193" t="n">
         <v>259</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F193" t="n">
         <v>950</v>
       </c>
-      <c r="G164" t="n">
-        <v>261.7333333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>264.6333333333333</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="G193" t="n">
+        <v>-57489.32371679</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D2" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E2" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>574.2536</v>
       </c>
       <c r="G2" t="n">
-        <v>-8647.124799999994</v>
+        <v>260.3333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,10 +486,10 @@
         <v>260</v>
       </c>
       <c r="F3" t="n">
-        <v>1022.658</v>
+        <v>298.1259</v>
       </c>
       <c r="G3" t="n">
-        <v>-9669.782799999994</v>
+        <v>260</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E4" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" t="n">
-        <v>579.1</v>
+        <v>928.558</v>
       </c>
       <c r="G4" t="n">
-        <v>-10248.88279999999</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,19 +549,19 @@
         <v>258</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D5" t="n">
         <v>258</v>
       </c>
       <c r="E5" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F5" t="n">
-        <v>12268</v>
+        <v>5491.5811</v>
       </c>
       <c r="G5" t="n">
-        <v>-22516.88279999999</v>
+        <v>257.3333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C6" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D6" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E6" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F6" t="n">
-        <v>3663.9691</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>-22516.88279999999</v>
+        <v>257.3333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E7" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F7" t="n">
-        <v>704.5404</v>
+        <v>301</v>
       </c>
       <c r="G7" t="n">
-        <v>-21812.34239999999</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D8" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E8" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F8" t="n">
-        <v>8277</v>
+        <v>1811</v>
       </c>
       <c r="G8" t="n">
-        <v>-30089.34239999999</v>
+        <v>261</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C9" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D9" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E9" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F9" t="n">
-        <v>13071.7977</v>
+        <v>140.6</v>
       </c>
       <c r="G9" t="n">
-        <v>-30089.34239999999</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D10" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E10" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F10" t="n">
-        <v>10209.802</v>
+        <v>1329.7625</v>
       </c>
       <c r="G10" t="n">
-        <v>-30089.34239999999</v>
+        <v>262</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C11" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D11" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E11" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F11" t="n">
-        <v>2657.8399</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-30089.34239999999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C12" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D12" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E12" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F12" t="n">
-        <v>160.18</v>
+        <v>293.6</v>
       </c>
       <c r="G12" t="n">
-        <v>-30089.34239999999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C13" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D13" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E13" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F13" t="n">
-        <v>32</v>
+        <v>1368.104</v>
       </c>
       <c r="G13" t="n">
-        <v>-30089.34239999999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C14" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D14" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E14" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F14" t="n">
-        <v>1138.6</v>
+        <v>800</v>
       </c>
       <c r="G14" t="n">
-        <v>-28950.74239999999</v>
+        <v>262</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C15" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D15" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E15" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F15" t="n">
-        <v>1167.4179</v>
+        <v>2348.787</v>
       </c>
       <c r="G15" t="n">
-        <v>-28950.74239999999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C16" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D16" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E16" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F16" t="n">
-        <v>709.52</v>
+        <v>21.48258321</v>
       </c>
       <c r="G16" t="n">
-        <v>-29660.26239999999</v>
+        <v>262.6666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -970,10 +990,10 @@
         <v>260</v>
       </c>
       <c r="F17" t="n">
-        <v>970</v>
+        <v>2373.9847</v>
       </c>
       <c r="G17" t="n">
-        <v>-29660.26239999999</v>
+        <v>262</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D18" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E18" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" t="n">
-        <v>1285</v>
+        <v>1866</v>
       </c>
       <c r="G18" t="n">
-        <v>-28375.26239999999</v>
+        <v>260.6666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D19" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E19" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" t="n">
-        <v>937</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>-29312.26239999999</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1066,19 +1089,19 @@
         <v>260</v>
       </c>
       <c r="C20" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D20" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E20" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F20" t="n">
-        <v>743.5</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>-30055.76239999999</v>
+        <v>260</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1110,10 +1134,10 @@
         <v>262</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>6893.5928</v>
       </c>
       <c r="G21" t="n">
-        <v>-30054.76239999999</v>
+        <v>261</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1145,10 +1170,10 @@
         <v>262</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>-30054.76239999999</v>
+        <v>262</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C23" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D23" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E23" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F23" t="n">
-        <v>736.434</v>
+        <v>16032.0776</v>
       </c>
       <c r="G23" t="n">
-        <v>-30791.19639999999</v>
+        <v>262.6666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C24" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D24" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E24" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>4757.3336</v>
       </c>
       <c r="G24" t="n">
-        <v>-30691.19639999999</v>
+        <v>263</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C25" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D25" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E25" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>678</v>
       </c>
       <c r="G25" t="n">
-        <v>-30691.19639999999</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C26" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D26" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E26" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F26" t="n">
-        <v>1326.1</v>
+        <v>120.4</v>
       </c>
       <c r="G26" t="n">
-        <v>-32017.29639999999</v>
+        <v>263</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C27" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D27" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E27" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>203.0684</v>
       </c>
       <c r="G27" t="n">
-        <v>-32018.29639999999</v>
+        <v>263</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C28" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D28" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E28" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F28" t="n">
-        <v>658.1134</v>
+        <v>70.3175</v>
       </c>
       <c r="G28" t="n">
-        <v>-32018.29639999999</v>
+        <v>262.6666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C29" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D29" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E29" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>140.6349</v>
       </c>
       <c r="G29" t="n">
-        <v>-32017.29639999999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F30" t="n">
-        <v>162</v>
+        <v>2439.4587</v>
       </c>
       <c r="G30" t="n">
-        <v>-32017.29639999999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C31" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E31" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F31" t="n">
-        <v>14464.83</v>
+        <v>174.1693</v>
       </c>
       <c r="G31" t="n">
-        <v>-17552.46639999999</v>
+        <v>262.6666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E32" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F32" t="n">
-        <v>1119.5855</v>
+        <v>1980.315</v>
       </c>
       <c r="G32" t="n">
-        <v>-16432.88089999999</v>
+        <v>262.6666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C33" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E33" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F33" t="n">
-        <v>8154.0499</v>
+        <v>2327.1854</v>
       </c>
       <c r="G33" t="n">
-        <v>-24586.93079999999</v>
+        <v>262</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C34" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D34" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E34" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F34" t="n">
-        <v>1017.57</v>
+        <v>574.2662</v>
       </c>
       <c r="G34" t="n">
-        <v>-24586.93079999999</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C35" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D35" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E35" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-24576.93079999999</v>
+        <v>262</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1635,10 +1674,10 @@
         <v>262</v>
       </c>
       <c r="F36" t="n">
-        <v>114.50381679</v>
+        <v>314</v>
       </c>
       <c r="G36" t="n">
-        <v>-24576.93079999999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1661,19 +1701,19 @@
         <v>262</v>
       </c>
       <c r="C37" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E37" t="n">
         <v>262</v>
       </c>
       <c r="F37" t="n">
-        <v>572.52818321</v>
+        <v>2.2469</v>
       </c>
       <c r="G37" t="n">
-        <v>-24004.40261678999</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D38" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E38" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" t="n">
-        <v>500</v>
+        <v>1781</v>
       </c>
       <c r="G38" t="n">
-        <v>-24504.40261678999</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C39" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D39" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E39" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>263.6</v>
       </c>
       <c r="G39" t="n">
-        <v>-24504.40261678999</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E40" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F40" t="n">
-        <v>41.11751679</v>
+        <v>432.7619</v>
       </c>
       <c r="G40" t="n">
-        <v>-24504.40261678999</v>
+        <v>261</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C41" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D41" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E41" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F41" t="n">
-        <v>848.7306</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-25353.13321678999</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D42" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E42" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F42" t="n">
-        <v>1000</v>
+        <v>1606.6307</v>
       </c>
       <c r="G42" t="n">
-        <v>-24353.13321678999</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C43" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D43" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E43" t="n">
         <v>260</v>
       </c>
       <c r="F43" t="n">
-        <v>853.2283</v>
+        <v>2525.8</v>
       </c>
       <c r="G43" t="n">
-        <v>-25206.36151678998</v>
+        <v>262</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C44" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D44" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E44" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F44" t="n">
-        <v>574.2536</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-25206.36151678998</v>
+        <v>262</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1941,19 +1989,19 @@
         <v>260</v>
       </c>
       <c r="C45" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D45" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E45" t="n">
         <v>260</v>
       </c>
       <c r="F45" t="n">
-        <v>298.1259</v>
+        <v>2970.9384</v>
       </c>
       <c r="G45" t="n">
-        <v>-25206.36151678998</v>
+        <v>262</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1976,19 +2025,19 @@
         <v>260</v>
       </c>
       <c r="C46" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D46" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E46" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F46" t="n">
-        <v>928.558</v>
+        <v>2229.9132</v>
       </c>
       <c r="G46" t="n">
-        <v>-26134.91951678999</v>
+        <v>262</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C47" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D47" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E47" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F47" t="n">
-        <v>5491.5811</v>
+        <v>1770.9603</v>
       </c>
       <c r="G47" t="n">
-        <v>-31626.50061678998</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C48" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D48" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E48" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>4629.1599</v>
       </c>
       <c r="G48" t="n">
-        <v>-31586.50061678998</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C49" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D49" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E49" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F49" t="n">
-        <v>301</v>
+        <v>3095.5515</v>
       </c>
       <c r="G49" t="n">
-        <v>-31285.50061678998</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C50" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D50" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E50" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" t="n">
-        <v>1811</v>
+        <v>344</v>
       </c>
       <c r="G50" t="n">
-        <v>-29474.50061678998</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D51" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F51" t="n">
-        <v>140.6</v>
+        <v>1327.1</v>
       </c>
       <c r="G51" t="n">
-        <v>-29474.50061678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C52" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D52" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E52" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F52" t="n">
-        <v>1329.7625</v>
+        <v>172.9</v>
       </c>
       <c r="G52" t="n">
-        <v>-29474.50061678998</v>
+        <v>261</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C53" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D53" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E53" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>900.4392</v>
       </c>
       <c r="G53" t="n">
-        <v>-29473.50061678998</v>
+        <v>261</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C54" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D54" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E54" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F54" t="n">
-        <v>293.6</v>
+        <v>547.9617</v>
       </c>
       <c r="G54" t="n">
-        <v>-29767.10061678998</v>
+        <v>261</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,13 +2339,14 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C55" t="n">
         <v>262</v>
@@ -2297,13 +2355,13 @@
         <v>262</v>
       </c>
       <c r="E55" t="n">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F55" t="n">
-        <v>1368.104</v>
+        <v>1085.2576</v>
       </c>
       <c r="G55" t="n">
-        <v>-29767.10061678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C56" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D56" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E56" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F56" t="n">
-        <v>800</v>
+        <v>12.6553</v>
       </c>
       <c r="G56" t="n">
-        <v>-29767.10061678998</v>
+        <v>260.3333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C57" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D57" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E57" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F57" t="n">
-        <v>2348.787</v>
+        <v>44.5052</v>
       </c>
       <c r="G57" t="n">
-        <v>-27418.31361678998</v>
+        <v>259.6666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,273 +2447,333 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C58" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D58" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E58" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F58" t="n">
-        <v>21.48258321</v>
+        <v>6387.4787</v>
       </c>
       <c r="G58" t="n">
-        <v>-27418.31361678998</v>
+        <v>258.6666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>259</v>
+      </c>
+      <c r="K58" t="n">
+        <v>259</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D59" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E59" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59" t="n">
-        <v>2373.9847</v>
+        <v>1694</v>
       </c>
       <c r="G59" t="n">
-        <v>-29792.29831678998</v>
+        <v>259</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>259</v>
+      </c>
+      <c r="K59" t="n">
+        <v>259</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C60" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D60" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E60" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F60" t="n">
-        <v>1866</v>
+        <v>1389.4563</v>
       </c>
       <c r="G60" t="n">
-        <v>-31658.29831678998</v>
+        <v>258</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>259</v>
+      </c>
+      <c r="K60" t="n">
+        <v>259</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C61" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D61" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E61" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>1723</v>
       </c>
       <c r="G61" t="n">
-        <v>-31658.29831678998</v>
+        <v>257.3333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>256</v>
+      </c>
+      <c r="K61" t="n">
+        <v>259</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C62" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D62" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E62" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>558.1</v>
       </c>
       <c r="G62" t="n">
-        <v>-31656.29831678998</v>
+        <v>257</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>257</v>
+      </c>
+      <c r="K62" t="n">
+        <v>259</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C63" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D63" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E63" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F63" t="n">
-        <v>6893.5928</v>
+        <v>1140.6</v>
       </c>
       <c r="G63" t="n">
-        <v>-31656.29831678998</v>
+        <v>257.6666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>258</v>
+      </c>
+      <c r="K63" t="n">
+        <v>259</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C64" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D64" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E64" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F64" t="n">
-        <v>27</v>
+        <v>867.5</v>
       </c>
       <c r="G64" t="n">
-        <v>-31656.29831678998</v>
+        <v>258</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>258</v>
+      </c>
+      <c r="K64" t="n">
+        <v>259</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C65" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D65" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E65" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F65" t="n">
-        <v>16032.0776</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
-        <v>-15624.22071678998</v>
+        <v>258</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,243 +2782,304 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>259</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C66" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D66" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E66" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F66" t="n">
-        <v>4757.3336</v>
+        <v>80</v>
       </c>
       <c r="G66" t="n">
-        <v>-20381.55431678998</v>
+        <v>257</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>258</v>
+      </c>
+      <c r="K66" t="n">
+        <v>259</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C67" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D67" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E67" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F67" t="n">
-        <v>678</v>
+        <v>197.7078</v>
       </c>
       <c r="G67" t="n">
-        <v>-20381.55431678998</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>255</v>
+      </c>
+      <c r="K67" t="n">
+        <v>259</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C68" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D68" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E68" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F68" t="n">
-        <v>120.4</v>
+        <v>75.5626</v>
       </c>
       <c r="G68" t="n">
-        <v>-20381.55431678998</v>
+        <v>256</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>257</v>
+      </c>
+      <c r="K68" t="n">
+        <v>259</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C69" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D69" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E69" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F69" t="n">
-        <v>203.0684</v>
+        <v>820.8083</v>
       </c>
       <c r="G69" t="n">
-        <v>-20381.55431678998</v>
+        <v>256.3333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>256</v>
+      </c>
+      <c r="K69" t="n">
+        <v>259</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C70" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D70" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E70" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F70" t="n">
-        <v>70.3175</v>
+        <v>1015.3827</v>
       </c>
       <c r="G70" t="n">
-        <v>-20451.87181678998</v>
+        <v>256</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>256</v>
+      </c>
+      <c r="K70" t="n">
+        <v>259</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C71" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D71" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E71" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F71" t="n">
-        <v>140.6349</v>
+        <v>116.7201</v>
       </c>
       <c r="G71" t="n">
-        <v>-20451.87181678998</v>
+        <v>257</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>256</v>
+      </c>
+      <c r="K71" t="n">
+        <v>259</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C72" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D72" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E72" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F72" t="n">
-        <v>2439.4587</v>
+        <v>1813.8783</v>
       </c>
       <c r="G72" t="n">
-        <v>-18012.41311678998</v>
+        <v>258</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3088,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>259</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C73" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D73" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E73" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F73" t="n">
-        <v>174.1693</v>
+        <v>188.4843</v>
       </c>
       <c r="G73" t="n">
-        <v>-18012.41311678998</v>
+        <v>259</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,186 +3130,238 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>259</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C74" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D74" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E74" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F74" t="n">
-        <v>1980.315</v>
+        <v>186.7</v>
       </c>
       <c r="G74" t="n">
-        <v>-19992.72811678998</v>
+        <v>258.6666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>259</v>
+      </c>
+      <c r="K74" t="n">
+        <v>259</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C75" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D75" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E75" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F75" t="n">
-        <v>2327.1854</v>
+        <v>2835.3233</v>
       </c>
       <c r="G75" t="n">
-        <v>-22319.91351678998</v>
+        <v>258.6666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>258</v>
+      </c>
+      <c r="K75" t="n">
+        <v>259</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D76" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E76" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F76" t="n">
-        <v>574.2662</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>-21745.64731678998</v>
+        <v>259</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>259</v>
+      </c>
+      <c r="K76" t="n">
+        <v>259</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C77" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D77" t="n">
         <v>263</v>
       </c>
       <c r="E77" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>5524.6355</v>
       </c>
       <c r="G77" t="n">
-        <v>-21744.64731678998</v>
+        <v>259.6666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>260</v>
+      </c>
+      <c r="K77" t="n">
+        <v>259</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C78" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D78" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E78" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F78" t="n">
-        <v>314</v>
+        <v>1694.2656</v>
       </c>
       <c r="G78" t="n">
-        <v>-22058.64731678998</v>
+        <v>260</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>260</v>
+      </c>
+      <c r="K78" t="n">
+        <v>259</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3140,45 +3380,54 @@
         <v>262</v>
       </c>
       <c r="F79" t="n">
-        <v>2.2469</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>-22058.64731678998</v>
+        <v>260.6666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>260</v>
+      </c>
+      <c r="K79" t="n">
+        <v>259</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C80" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D80" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E80" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F80" t="n">
-        <v>1781</v>
+        <v>1.5</v>
       </c>
       <c r="G80" t="n">
-        <v>-23839.64731678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3436,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>259</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D81" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F81" t="n">
-        <v>263.6</v>
+        <v>1676.896</v>
       </c>
       <c r="G81" t="n">
-        <v>-23839.64731678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3478,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>259</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C82" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D82" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E82" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F82" t="n">
-        <v>432.7619</v>
+        <v>918</v>
       </c>
       <c r="G82" t="n">
-        <v>-23839.64731678998</v>
+        <v>260.6666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3520,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>259</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C83" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D83" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E83" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>865.4525</v>
       </c>
       <c r="G83" t="n">
-        <v>-23838.64731678998</v>
+        <v>261</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,11 +3562,18 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>259</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3306,19 +3583,19 @@
         <v>260</v>
       </c>
       <c r="C84" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D84" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E84" t="n">
         <v>260</v>
       </c>
       <c r="F84" t="n">
-        <v>1606.6307</v>
+        <v>837.3985</v>
       </c>
       <c r="G84" t="n">
-        <v>-23838.64731678998</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,11 +3604,18 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>259</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3341,19 +3625,19 @@
         <v>260</v>
       </c>
       <c r="C85" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D85" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E85" t="n">
         <v>260</v>
       </c>
       <c r="F85" t="n">
-        <v>2525.8</v>
+        <v>3360.2414</v>
       </c>
       <c r="G85" t="n">
-        <v>-23838.64731678998</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +3646,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>259</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C86" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D86" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E86" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>301.2336</v>
       </c>
       <c r="G86" t="n">
-        <v>-23838.64731678998</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3688,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>259</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C87" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D87" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E87" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F87" t="n">
-        <v>2970.9384</v>
+        <v>1987.6692</v>
       </c>
       <c r="G87" t="n">
-        <v>-23838.64731678998</v>
+        <v>263</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3730,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>259</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C88" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E88" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F88" t="n">
-        <v>2229.9132</v>
+        <v>175.6255</v>
       </c>
       <c r="G88" t="n">
-        <v>-23838.64731678998</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,33 +3772,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>259</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C89" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D89" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E89" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F89" t="n">
-        <v>1770.9603</v>
+        <v>927.7839</v>
       </c>
       <c r="G89" t="n">
-        <v>-22067.68701678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,33 +3814,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>259</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C90" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E90" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F90" t="n">
-        <v>4629.1599</v>
+        <v>927.7839</v>
       </c>
       <c r="G90" t="n">
-        <v>-26696.84691678998</v>
+        <v>260.3333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,33 +3856,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>259</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F91" t="n">
-        <v>3095.5515</v>
+        <v>123</v>
       </c>
       <c r="G91" t="n">
-        <v>-26696.84691678998</v>
+        <v>260.3333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3898,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>259</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C92" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E92" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F92" t="n">
-        <v>344</v>
+        <v>2130.3937</v>
       </c>
       <c r="G92" t="n">
-        <v>-27040.84691678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +3940,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>259</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C93" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D93" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E93" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F93" t="n">
-        <v>1327.1</v>
+        <v>2429.952</v>
       </c>
       <c r="G93" t="n">
-        <v>-27040.84691678998</v>
+        <v>263</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +3982,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>259</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C94" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D94" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E94" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F94" t="n">
-        <v>172.9</v>
+        <v>1169.4924</v>
       </c>
       <c r="G94" t="n">
-        <v>-27040.84691678998</v>
+        <v>264.6666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,72 +4024,82 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>259</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C95" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D95" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E95" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F95" t="n">
-        <v>900.4392</v>
+        <v>927.4</v>
       </c>
       <c r="G95" t="n">
-        <v>-27040.84691678998</v>
+        <v>265</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>261</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>261</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C96" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E96" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F96" t="n">
-        <v>547.9617</v>
+        <v>197.5922</v>
       </c>
       <c r="G96" t="n">
-        <v>-27040.84691678998</v>
+        <v>264.3333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,38 +4109,39 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C97" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D97" t="n">
         <v>262</v>
       </c>
       <c r="E97" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F97" t="n">
-        <v>1085.2576</v>
+        <v>1653.9367</v>
       </c>
       <c r="G97" t="n">
-        <v>-25955.58931678998</v>
+        <v>262</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,38 +4151,39 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C98" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D98" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E98" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F98" t="n">
-        <v>12.6553</v>
+        <v>743.295</v>
       </c>
       <c r="G98" t="n">
-        <v>-25968.24461678998</v>
+        <v>261</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3834,7 +4193,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3844,28 +4203,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C99" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D99" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E99" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F99" t="n">
-        <v>44.5052</v>
+        <v>3646.9734</v>
       </c>
       <c r="G99" t="n">
-        <v>-25923.73941678998</v>
+        <v>260</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,7 +4235,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -3885,28 +4245,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C100" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D100" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E100" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F100" t="n">
-        <v>6387.4787</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-25923.73941678998</v>
+        <v>261</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,7 +4277,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -3926,28 +4287,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C101" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D101" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E101" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F101" t="n">
-        <v>1694</v>
+        <v>234.1279</v>
       </c>
       <c r="G101" t="n">
-        <v>-25923.73941678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3957,7 +4319,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -3967,28 +4329,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C102" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D102" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E102" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F102" t="n">
-        <v>1389.4563</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>-27313.19571678998</v>
+        <v>263</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3998,7 +4361,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4008,28 +4371,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C103" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D103" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E103" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F103" t="n">
-        <v>1723</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>-25590.19571678998</v>
+        <v>264</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4039,7 +4403,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4049,40 +4413,39 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C104" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D104" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E104" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F104" t="n">
-        <v>558.1</v>
+        <v>39</v>
       </c>
       <c r="G104" t="n">
-        <v>-25032.09571678998</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>257</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4092,40 +4455,39 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C105" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D105" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E105" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F105" t="n">
-        <v>1140.6</v>
+        <v>1430</v>
       </c>
       <c r="G105" t="n">
-        <v>-25032.09571678998</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>258</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4135,40 +4497,39 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C106" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D106" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E106" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F106" t="n">
-        <v>867.5</v>
+        <v>1843.7</v>
       </c>
       <c r="G106" t="n">
-        <v>-25032.09571678998</v>
+        <v>266</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>258</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4178,28 +4539,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C107" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D107" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E107" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F107" t="n">
-        <v>120</v>
+        <v>1762.4585</v>
       </c>
       <c r="G107" t="n">
-        <v>-25032.09571678998</v>
+        <v>266</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4209,7 +4571,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4219,28 +4581,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C108" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D108" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E108" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F108" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>-25112.09571678998</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4250,7 +4613,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4260,28 +4623,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C109" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D109" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E109" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F109" t="n">
-        <v>197.7078</v>
+        <v>3200</v>
       </c>
       <c r="G109" t="n">
-        <v>-24914.38791678998</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4291,7 +4655,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4301,28 +4665,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C110" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D110" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E110" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F110" t="n">
-        <v>75.5626</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-24989.95051678998</v>
+        <v>267.3333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4332,7 +4697,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4342,28 +4707,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C111" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D111" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E111" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F111" t="n">
-        <v>820.8083</v>
+        <v>1042.5697</v>
       </c>
       <c r="G111" t="n">
-        <v>-24989.95051678998</v>
+        <v>267</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4373,7 +4739,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4383,28 +4749,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C112" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D112" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E112" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F112" t="n">
-        <v>1015.3827</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>-24989.95051678998</v>
+        <v>267.3333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4414,7 +4781,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4424,28 +4791,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C113" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D113" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E113" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F113" t="n">
-        <v>116.7201</v>
+        <v>2304.0846</v>
       </c>
       <c r="G113" t="n">
-        <v>-24873.23041678999</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4455,7 +4823,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4465,28 +4833,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C114" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D114" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E114" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F114" t="n">
-        <v>1813.8783</v>
+        <v>1971.4673</v>
       </c>
       <c r="G114" t="n">
-        <v>-24873.23041678999</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4496,7 +4865,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4506,28 +4875,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C115" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D115" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E115" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F115" t="n">
-        <v>188.4843</v>
+        <v>2608.1588</v>
       </c>
       <c r="G115" t="n">
-        <v>-24873.23041678999</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4537,7 +4907,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4547,28 +4917,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C116" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D116" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E116" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F116" t="n">
-        <v>186.7</v>
+        <v>67.8627</v>
       </c>
       <c r="G116" t="n">
-        <v>-25059.93041678999</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,7 +4949,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4588,28 +4959,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C117" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D117" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E117" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F117" t="n">
-        <v>2835.3233</v>
+        <v>28037.4581</v>
       </c>
       <c r="G117" t="n">
-        <v>-22224.60711678999</v>
+        <v>267.3333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4619,7 +4991,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4629,192 +5001,179 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C118" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D118" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E118" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>14178.5985</v>
       </c>
       <c r="G118" t="n">
-        <v>-22222.60711678999</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
-      </c>
+        <v>1.010444015444016</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C119" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D119" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E119" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F119" t="n">
-        <v>5524.6355</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>-22222.60711678999</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>261</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C120" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D120" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E120" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F120" t="n">
-        <v>1694.2656</v>
+        <v>1728.2187</v>
       </c>
       <c r="G120" t="n">
-        <v>-22222.60711678999</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>261</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C121" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D121" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E121" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>-22218.60711678999</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>261</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C122" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D122" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E122" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F122" t="n">
-        <v>1.5</v>
+        <v>1681</v>
       </c>
       <c r="G122" t="n">
-        <v>-22218.60711678999</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4823,162 +5182,142 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>261</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C123" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D123" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E123" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F123" t="n">
-        <v>1676.896</v>
+        <v>1751</v>
       </c>
       <c r="G123" t="n">
-        <v>-23895.50311678999</v>
+        <v>267</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>261</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C124" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D124" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E124" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F124" t="n">
-        <v>918</v>
+        <v>11782.3984</v>
       </c>
       <c r="G124" t="n">
-        <v>-23895.50311678999</v>
+        <v>267</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>261</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C125" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D125" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E125" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F125" t="n">
-        <v>865.4525</v>
+        <v>3879.072</v>
       </c>
       <c r="G125" t="n">
-        <v>-23030.05061678999</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>261</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C126" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D126" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E126" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F126" t="n">
-        <v>837.3985</v>
+        <v>300</v>
       </c>
       <c r="G126" t="n">
-        <v>-22192.65211678999</v>
+        <v>267.3333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4987,39 +5326,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>261</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C127" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D127" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E127" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F127" t="n">
-        <v>3360.2414</v>
+        <v>1000</v>
       </c>
       <c r="G127" t="n">
-        <v>-25552.89351678999</v>
+        <v>267.3333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5028,39 +5362,34 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>261</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C128" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D128" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E128" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F128" t="n">
-        <v>301.2336</v>
+        <v>2694</v>
       </c>
       <c r="G128" t="n">
-        <v>-25552.89351678999</v>
+        <v>268</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5069,39 +5398,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>261</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C129" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D129" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E129" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F129" t="n">
-        <v>1987.6692</v>
+        <v>150.9869</v>
       </c>
       <c r="G129" t="n">
-        <v>-25552.89351678999</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5110,39 +5434,34 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>261</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C130" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D130" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E130" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F130" t="n">
-        <v>175.6255</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>-25728.51901678999</v>
+        <v>267</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5151,39 +5470,34 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>261</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C131" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D131" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E131" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F131" t="n">
-        <v>927.7839</v>
+        <v>1029.2759</v>
       </c>
       <c r="G131" t="n">
-        <v>-26656.30291678998</v>
+        <v>267</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5192,263 +5506,228 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>261</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C132" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D132" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E132" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F132" t="n">
-        <v>927.7839</v>
+        <v>12135.9284</v>
       </c>
       <c r="G132" t="n">
-        <v>-26656.30291678998</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>261</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C133" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D133" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E133" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F133" t="n">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="G133" t="n">
-        <v>-26533.30291678998</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>261</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C134" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D134" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E134" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F134" t="n">
-        <v>2130.3937</v>
+        <v>745.8395</v>
       </c>
       <c r="G134" t="n">
-        <v>-24402.90921678998</v>
+        <v>267</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>261</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C135" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D135" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E135" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F135" t="n">
-        <v>2429.952</v>
+        <v>697.6625</v>
       </c>
       <c r="G135" t="n">
-        <v>-21972.95721678998</v>
+        <v>269.3333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>261</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C136" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D136" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E136" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F136" t="n">
-        <v>1169.4924</v>
+        <v>3827.1653</v>
       </c>
       <c r="G136" t="n">
-        <v>-20803.46481678998</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>261</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C137" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D137" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E137" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F137" t="n">
-        <v>927.4</v>
+        <v>4.8796</v>
       </c>
       <c r="G137" t="n">
-        <v>-21730.86481678998</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>261</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5458,19 +5737,19 @@
         <v>264</v>
       </c>
       <c r="C138" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D138" t="n">
+        <v>265</v>
+      </c>
+      <c r="E138" t="n">
         <v>264</v>
       </c>
-      <c r="E138" t="n">
-        <v>263</v>
-      </c>
       <c r="F138" t="n">
-        <v>197.5922</v>
+        <v>312.5956</v>
       </c>
       <c r="G138" t="n">
-        <v>-21928.45701678998</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5479,39 +5758,34 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>261</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C139" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D139" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E139" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F139" t="n">
-        <v>1653.9367</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>-23582.39371678998</v>
+        <v>264.6666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5520,39 +5794,34 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>261</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C140" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D140" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E140" t="n">
         <v>261</v>
       </c>
       <c r="F140" t="n">
-        <v>743.295</v>
+        <v>1979.931</v>
       </c>
       <c r="G140" t="n">
-        <v>-22839.09871678998</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5561,39 +5830,34 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>261</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C141" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D141" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E141" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F141" t="n">
-        <v>3646.9734</v>
+        <v>5.6849</v>
       </c>
       <c r="G141" t="n">
-        <v>-26486.07211678998</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5602,121 +5866,106 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>261</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C142" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D142" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E142" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>958.8871</v>
       </c>
       <c r="G142" t="n">
-        <v>-26485.07211678998</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>261</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C143" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D143" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E143" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F143" t="n">
-        <v>234.1279</v>
+        <v>1930.8084</v>
       </c>
       <c r="G143" t="n">
-        <v>-26485.07211678998</v>
+        <v>263.6666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>261</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C144" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D144" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E144" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G144" t="n">
-        <v>-26484.07211678998</v>
+        <v>262.6666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5725,39 +5974,34 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>261</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C145" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D145" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E145" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>1868.3888</v>
       </c>
       <c r="G145" t="n">
-        <v>-26484.07211678998</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5766,39 +6010,34 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>261</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C146" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D146" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E146" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F146" t="n">
-        <v>39</v>
+        <v>7683.5835</v>
       </c>
       <c r="G146" t="n">
-        <v>-26445.07211678998</v>
+        <v>261</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5807,39 +6046,34 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>261</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C147" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D147" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E147" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F147" t="n">
-        <v>1430</v>
+        <v>6476.9999</v>
       </c>
       <c r="G147" t="n">
-        <v>-26445.07211678998</v>
+        <v>259.6666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5848,39 +6082,34 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>261</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C148" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D148" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E148" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F148" t="n">
-        <v>1843.7</v>
+        <v>370.2273</v>
       </c>
       <c r="G148" t="n">
-        <v>-26445.07211678998</v>
+        <v>258.6666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5889,39 +6118,34 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>261</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C149" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D149" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E149" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F149" t="n">
-        <v>1762.4585</v>
+        <v>2355.1114</v>
       </c>
       <c r="G149" t="n">
-        <v>-26445.07211678998</v>
+        <v>258</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5930,39 +6154,34 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>261</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C150" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D150" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E150" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>207.8118</v>
       </c>
       <c r="G150" t="n">
-        <v>-26444.07211678998</v>
+        <v>258</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5971,39 +6190,34 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>261</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C151" t="n">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D151" t="n">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E151" t="n">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F151" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="G151" t="n">
-        <v>-26444.07211678998</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6012,1637 +6226,12 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>261</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>268</v>
-      </c>
-      <c r="C152" t="n">
-        <v>268</v>
-      </c>
-      <c r="D152" t="n">
-        <v>268</v>
-      </c>
-      <c r="E152" t="n">
-        <v>268</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-26443.07211678998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>261</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>266</v>
-      </c>
-      <c r="C153" t="n">
-        <v>266</v>
-      </c>
-      <c r="D153" t="n">
-        <v>266</v>
-      </c>
-      <c r="E153" t="n">
-        <v>266</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1042.5697</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-27485.64181678998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>261</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>268</v>
-      </c>
-      <c r="C154" t="n">
-        <v>268</v>
-      </c>
-      <c r="D154" t="n">
-        <v>268</v>
-      </c>
-      <c r="E154" t="n">
-        <v>268</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-27484.64181678998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>261</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>265</v>
-      </c>
-      <c r="C155" t="n">
-        <v>265</v>
-      </c>
-      <c r="D155" t="n">
-        <v>265</v>
-      </c>
-      <c r="E155" t="n">
-        <v>265</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2304.0846</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-29788.72641678998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>261</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>264</v>
-      </c>
-      <c r="C156" t="n">
-        <v>263</v>
-      </c>
-      <c r="D156" t="n">
-        <v>264</v>
-      </c>
-      <c r="E156" t="n">
-        <v>263</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1971.4673</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-31760.19371678999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>261</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>265</v>
-      </c>
-      <c r="C157" t="n">
-        <v>268</v>
-      </c>
-      <c r="D157" t="n">
-        <v>268</v>
-      </c>
-      <c r="E157" t="n">
-        <v>265</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2608.1588</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-29152.03491678998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>261</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>265</v>
-      </c>
-      <c r="C158" t="n">
-        <v>265</v>
-      </c>
-      <c r="D158" t="n">
-        <v>265</v>
-      </c>
-      <c r="E158" t="n">
-        <v>265</v>
-      </c>
-      <c r="F158" t="n">
-        <v>67.8627</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-29219.89761678999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>261</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>268</v>
-      </c>
-      <c r="C159" t="n">
-        <v>269</v>
-      </c>
-      <c r="D159" t="n">
-        <v>269</v>
-      </c>
-      <c r="E159" t="n">
-        <v>265</v>
-      </c>
-      <c r="F159" t="n">
-        <v>28037.4581</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1182.439516789986</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>261</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>265</v>
-      </c>
-      <c r="C160" t="n">
-        <v>263</v>
-      </c>
-      <c r="D160" t="n">
-        <v>265</v>
-      </c>
-      <c r="E160" t="n">
-        <v>263</v>
-      </c>
-      <c r="F160" t="n">
-        <v>14178.5985</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-15361.03801678999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>261</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>268</v>
-      </c>
-      <c r="C161" t="n">
-        <v>268</v>
-      </c>
-      <c r="D161" t="n">
-        <v>268</v>
-      </c>
-      <c r="E161" t="n">
-        <v>268</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-15360.03801678999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>261</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>266</v>
-      </c>
-      <c r="C162" t="n">
-        <v>266</v>
-      </c>
-      <c r="D162" t="n">
-        <v>266</v>
-      </c>
-      <c r="E162" t="n">
-        <v>266</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1728.2187</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-17088.25671678999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>261</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>266</v>
-      </c>
-      <c r="C163" t="n">
-        <v>266</v>
-      </c>
-      <c r="D163" t="n">
-        <v>266</v>
-      </c>
-      <c r="E163" t="n">
-        <v>266</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-17088.25671678999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>261</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>267</v>
-      </c>
-      <c r="C164" t="n">
-        <v>268</v>
-      </c>
-      <c r="D164" t="n">
-        <v>268</v>
-      </c>
-      <c r="E164" t="n">
-        <v>267</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1681</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-15407.25671678999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>261</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>267</v>
-      </c>
-      <c r="C165" t="n">
-        <v>267</v>
-      </c>
-      <c r="D165" t="n">
-        <v>267</v>
-      </c>
-      <c r="E165" t="n">
-        <v>267</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1751</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-17158.25671678999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>261</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>267</v>
-      </c>
-      <c r="C166" t="n">
-        <v>266</v>
-      </c>
-      <c r="D166" t="n">
-        <v>267</v>
-      </c>
-      <c r="E166" t="n">
-        <v>263</v>
-      </c>
-      <c r="F166" t="n">
-        <v>11782.3984</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-28940.65511678999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>261</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>263</v>
-      </c>
-      <c r="C167" t="n">
-        <v>266</v>
-      </c>
-      <c r="D167" t="n">
-        <v>266</v>
-      </c>
-      <c r="E167" t="n">
-        <v>263</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3879.072</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-28940.65511678999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>261</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>266</v>
-      </c>
-      <c r="C168" t="n">
-        <v>270</v>
-      </c>
-      <c r="D168" t="n">
-        <v>270</v>
-      </c>
-      <c r="E168" t="n">
-        <v>266</v>
-      </c>
-      <c r="F168" t="n">
-        <v>300</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-28640.65511678999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>261</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>266</v>
-      </c>
-      <c r="C169" t="n">
-        <v>266</v>
-      </c>
-      <c r="D169" t="n">
-        <v>266</v>
-      </c>
-      <c r="E169" t="n">
-        <v>266</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-29640.65511678999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>261</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>266</v>
-      </c>
-      <c r="C170" t="n">
-        <v>268</v>
-      </c>
-      <c r="D170" t="n">
-        <v>268</v>
-      </c>
-      <c r="E170" t="n">
-        <v>266</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2694</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-26946.65511678999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>261</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>265</v>
-      </c>
-      <c r="C171" t="n">
-        <v>265</v>
-      </c>
-      <c r="D171" t="n">
-        <v>265</v>
-      </c>
-      <c r="E171" t="n">
-        <v>265</v>
-      </c>
-      <c r="F171" t="n">
-        <v>150.9869</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-27097.64201678999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>261</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>268</v>
-      </c>
-      <c r="C172" t="n">
-        <v>268</v>
-      </c>
-      <c r="D172" t="n">
-        <v>268</v>
-      </c>
-      <c r="E172" t="n">
-        <v>268</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-27096.64201678999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>261</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>268</v>
-      </c>
-      <c r="C173" t="n">
-        <v>268</v>
-      </c>
-      <c r="D173" t="n">
-        <v>268</v>
-      </c>
-      <c r="E173" t="n">
-        <v>268</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1029.2759</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-27096.64201678999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>261</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>267</v>
-      </c>
-      <c r="C174" t="n">
-        <v>263</v>
-      </c>
-      <c r="D174" t="n">
-        <v>267</v>
-      </c>
-      <c r="E174" t="n">
-        <v>263</v>
-      </c>
-      <c r="F174" t="n">
-        <v>12135.9284</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-39232.57041678999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>261</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>265</v>
-      </c>
-      <c r="C175" t="n">
-        <v>269</v>
-      </c>
-      <c r="D175" t="n">
-        <v>269</v>
-      </c>
-      <c r="E175" t="n">
-        <v>265</v>
-      </c>
-      <c r="F175" t="n">
-        <v>15</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-39217.57041678999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>261</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>269</v>
-      </c>
-      <c r="C176" t="n">
-        <v>269</v>
-      </c>
-      <c r="D176" t="n">
-        <v>270</v>
-      </c>
-      <c r="E176" t="n">
-        <v>268</v>
-      </c>
-      <c r="F176" t="n">
-        <v>745.8395</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-39217.57041678999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>261</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1.025651340996169</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>270</v>
-      </c>
-      <c r="C177" t="n">
-        <v>270</v>
-      </c>
-      <c r="D177" t="n">
-        <v>270</v>
-      </c>
-      <c r="E177" t="n">
-        <v>270</v>
-      </c>
-      <c r="F177" t="n">
-        <v>697.6625</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-38519.90791678999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>267</v>
-      </c>
-      <c r="C178" t="n">
-        <v>261</v>
-      </c>
-      <c r="D178" t="n">
-        <v>267</v>
-      </c>
-      <c r="E178" t="n">
-        <v>261</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3827.1653</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-42347.07321678999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>265</v>
-      </c>
-      <c r="C179" t="n">
-        <v>265</v>
-      </c>
-      <c r="D179" t="n">
-        <v>265</v>
-      </c>
-      <c r="E179" t="n">
-        <v>265</v>
-      </c>
-      <c r="F179" t="n">
-        <v>4.8796</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-42342.19361678999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>264</v>
-      </c>
-      <c r="C180" t="n">
-        <v>264</v>
-      </c>
-      <c r="D180" t="n">
-        <v>265</v>
-      </c>
-      <c r="E180" t="n">
-        <v>264</v>
-      </c>
-      <c r="F180" t="n">
-        <v>312.5956</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-42654.78921678999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>265</v>
-      </c>
-      <c r="C181" t="n">
-        <v>265</v>
-      </c>
-      <c r="D181" t="n">
-        <v>265</v>
-      </c>
-      <c r="E181" t="n">
-        <v>265</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-42653.78921678999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>263</v>
-      </c>
-      <c r="C182" t="n">
-        <v>267</v>
-      </c>
-      <c r="D182" t="n">
-        <v>267</v>
-      </c>
-      <c r="E182" t="n">
-        <v>261</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1979.931</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-40673.85821678999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>265</v>
-      </c>
-      <c r="C183" t="n">
-        <v>265</v>
-      </c>
-      <c r="D183" t="n">
-        <v>265</v>
-      </c>
-      <c r="E183" t="n">
-        <v>265</v>
-      </c>
-      <c r="F183" t="n">
-        <v>5.6849</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-40679.54311679</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>265</v>
-      </c>
-      <c r="C184" t="n">
-        <v>265</v>
-      </c>
-      <c r="D184" t="n">
-        <v>265</v>
-      </c>
-      <c r="E184" t="n">
-        <v>265</v>
-      </c>
-      <c r="F184" t="n">
-        <v>958.8871</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-40679.54311679</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>264</v>
-      </c>
-      <c r="C185" t="n">
-        <v>261</v>
-      </c>
-      <c r="D185" t="n">
-        <v>264</v>
-      </c>
-      <c r="E185" t="n">
-        <v>261</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1930.8084</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-42610.35151679</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>263</v>
-      </c>
-      <c r="C186" t="n">
-        <v>262</v>
-      </c>
-      <c r="D186" t="n">
-        <v>263</v>
-      </c>
-      <c r="E186" t="n">
-        <v>262</v>
-      </c>
-      <c r="F186" t="n">
-        <v>200</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-42410.35151679</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>261</v>
-      </c>
-      <c r="C187" t="n">
-        <v>261</v>
-      </c>
-      <c r="D187" t="n">
-        <v>261</v>
-      </c>
-      <c r="E187" t="n">
-        <v>261</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1868.3888</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-44278.74031679</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>261</v>
-      </c>
-      <c r="C188" t="n">
-        <v>260</v>
-      </c>
-      <c r="D188" t="n">
-        <v>261</v>
-      </c>
-      <c r="E188" t="n">
-        <v>260</v>
-      </c>
-      <c r="F188" t="n">
-        <v>7683.5835</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-51962.32381679</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>260</v>
-      </c>
-      <c r="C189" t="n">
-        <v>258</v>
-      </c>
-      <c r="D189" t="n">
-        <v>260</v>
-      </c>
-      <c r="E189" t="n">
-        <v>258</v>
-      </c>
-      <c r="F189" t="n">
-        <v>6476.9999</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-58439.32371679</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>258</v>
-      </c>
-      <c r="C190" t="n">
-        <v>258</v>
-      </c>
-      <c r="D190" t="n">
-        <v>258</v>
-      </c>
-      <c r="E190" t="n">
-        <v>258</v>
-      </c>
-      <c r="F190" t="n">
-        <v>370.2273</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-58439.32371679</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>258</v>
-      </c>
-      <c r="C191" t="n">
-        <v>258</v>
-      </c>
-      <c r="D191" t="n">
-        <v>258</v>
-      </c>
-      <c r="E191" t="n">
-        <v>257</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2355.1114</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-58439.32371679</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>258</v>
-      </c>
-      <c r="C192" t="n">
-        <v>258</v>
-      </c>
-      <c r="D192" t="n">
-        <v>258</v>
-      </c>
-      <c r="E192" t="n">
-        <v>258</v>
-      </c>
-      <c r="F192" t="n">
-        <v>207.8118</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-58439.32371679</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>259</v>
-      </c>
-      <c r="C193" t="n">
-        <v>259</v>
-      </c>
-      <c r="D193" t="n">
-        <v>259</v>
-      </c>
-      <c r="E193" t="n">
-        <v>259</v>
-      </c>
-      <c r="F193" t="n">
-        <v>950</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-57489.32371679</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" t="n">
-        <v>574.2536</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>260.3333333333333</v>
+        <v>-5777.196599999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -477,19 +477,19 @@
         <v>260</v>
       </c>
       <c r="C3" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E3" t="n">
         <v>260</v>
       </c>
       <c r="F3" t="n">
-        <v>298.1259</v>
+        <v>24.3867</v>
       </c>
       <c r="G3" t="n">
-        <v>260</v>
+        <v>-5752.809899999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C4" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D4" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E4" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F4" t="n">
-        <v>928.558</v>
+        <v>24.5649</v>
       </c>
       <c r="G4" t="n">
-        <v>259.3333333333333</v>
+        <v>-5728.244999999996</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C5" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D5" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E5" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F5" t="n">
-        <v>5491.5811</v>
+        <v>0.6133</v>
       </c>
       <c r="G5" t="n">
-        <v>257.3333333333333</v>
+        <v>-5728.858299999996</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>260</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>37.1421</v>
       </c>
       <c r="G6" t="n">
-        <v>257.3333333333333</v>
+        <v>-5766.000399999996</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C7" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D7" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E7" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F7" t="n">
-        <v>301</v>
+        <v>22.8927</v>
       </c>
       <c r="G7" t="n">
-        <v>258.3333333333333</v>
+        <v>-5743.107699999996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D8" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E8" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8" t="n">
-        <v>1811</v>
+        <v>14.9505</v>
       </c>
       <c r="G8" t="n">
-        <v>261</v>
+        <v>-5758.058199999996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F9" t="n">
-        <v>140.6</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>261.6666666666667</v>
+        <v>-5757.058199999996</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>262</v>
       </c>
       <c r="F10" t="n">
-        <v>1329.7625</v>
+        <v>2209.3435</v>
       </c>
       <c r="G10" t="n">
-        <v>262</v>
+        <v>-7966.401699999996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -765,19 +765,19 @@
         <v>262</v>
       </c>
       <c r="C11" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D11" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1194.1437</v>
       </c>
       <c r="G11" t="n">
-        <v>262.3333333333333</v>
+        <v>-9160.545399999995</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C12" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E12" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F12" t="n">
-        <v>293.6</v>
+        <v>1506</v>
       </c>
       <c r="G12" t="n">
-        <v>262.3333333333333</v>
+        <v>-9160.545399999995</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C13" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D13" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E13" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F13" t="n">
-        <v>1368.104</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>262.3333333333333</v>
+        <v>-9159.545399999995</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F14" t="n">
-        <v>800</v>
+        <v>235</v>
       </c>
       <c r="G14" t="n">
-        <v>262</v>
+        <v>-9394.545399999995</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D15" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E15" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F15" t="n">
-        <v>2348.787</v>
+        <v>1189.9731</v>
       </c>
       <c r="G15" t="n">
-        <v>262.3333333333333</v>
+        <v>-8204.572299999996</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C16" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E16" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F16" t="n">
-        <v>21.48258321</v>
+        <v>1193.9352</v>
       </c>
       <c r="G16" t="n">
-        <v>262.6666666666667</v>
+        <v>-9398.507499999996</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C17" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D17" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E17" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F17" t="n">
-        <v>2373.9847</v>
+        <v>2.8847</v>
       </c>
       <c r="G17" t="n">
-        <v>262</v>
+        <v>-9395.622799999996</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C18" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D18" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E18" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F18" t="n">
-        <v>1866</v>
+        <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>260.6666666666667</v>
+        <v>-9595.622799999996</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C19" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D19" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E19" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>539.2982</v>
       </c>
       <c r="G19" t="n">
-        <v>259.3333333333333</v>
+        <v>-10134.92099999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C20" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>102.6944</v>
       </c>
       <c r="G20" t="n">
-        <v>260</v>
+        <v>-10032.22659999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D21" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E21" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F21" t="n">
-        <v>6893.5928</v>
+        <v>114.4157</v>
       </c>
       <c r="G21" t="n">
-        <v>261</v>
+        <v>-10032.22659999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E22" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F22" t="n">
-        <v>27</v>
+        <v>580.8899</v>
       </c>
       <c r="G22" t="n">
-        <v>262</v>
+        <v>-10032.22659999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>263</v>
       </c>
       <c r="C23" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" t="n">
         <v>263</v>
       </c>
       <c r="F23" t="n">
-        <v>16032.0776</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>262.6666666666667</v>
+        <v>-10022.22659999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D24" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E24" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F24" t="n">
-        <v>4757.3336</v>
+        <v>110.0969</v>
       </c>
       <c r="G24" t="n">
-        <v>263</v>
+        <v>-10132.32349999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C25" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D25" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E25" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F25" t="n">
-        <v>678</v>
+        <v>777.2727</v>
       </c>
       <c r="G25" t="n">
-        <v>263.3333333333333</v>
+        <v>-10909.59619999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C26" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D26" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E26" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F26" t="n">
-        <v>120.4</v>
+        <v>363</v>
       </c>
       <c r="G26" t="n">
-        <v>263</v>
+        <v>-10909.59619999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>263</v>
       </c>
       <c r="F27" t="n">
-        <v>203.0684</v>
+        <v>2452.4714</v>
       </c>
       <c r="G27" t="n">
-        <v>263</v>
+        <v>-8457.124799999994</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C28" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D28" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E28" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F28" t="n">
-        <v>70.3175</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>262.6666666666667</v>
+        <v>-8456.124799999994</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1413,19 +1413,19 @@
         <v>262</v>
       </c>
       <c r="C29" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D29" t="n">
         <v>262</v>
       </c>
       <c r="E29" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F29" t="n">
-        <v>140.6349</v>
+        <v>192</v>
       </c>
       <c r="G29" t="n">
-        <v>262.3333333333333</v>
+        <v>-8648.124799999994</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D30" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E30" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F30" t="n">
-        <v>2439.4587</v>
+        <v>300</v>
       </c>
       <c r="G30" t="n">
-        <v>262.3333333333333</v>
+        <v>-8648.124799999994</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>263</v>
       </c>
       <c r="F31" t="n">
-        <v>174.1693</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>262.6666666666667</v>
+        <v>-8647.124799999994</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C32" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D32" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E32" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F32" t="n">
-        <v>1980.315</v>
+        <v>1022.658</v>
       </c>
       <c r="G32" t="n">
-        <v>262.6666666666667</v>
+        <v>-9669.782799999994</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C33" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D33" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E33" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F33" t="n">
-        <v>2327.1854</v>
+        <v>579.1</v>
       </c>
       <c r="G33" t="n">
-        <v>262</v>
+        <v>-10248.88279999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C34" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D34" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E34" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F34" t="n">
-        <v>574.2662</v>
+        <v>12268</v>
       </c>
       <c r="G34" t="n">
-        <v>261.6666666666667</v>
+        <v>-22516.88279999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C35" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D35" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E35" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>3663.9691</v>
       </c>
       <c r="G35" t="n">
-        <v>262</v>
+        <v>-22516.88279999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C36" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D36" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E36" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F36" t="n">
-        <v>314</v>
+        <v>704.5404</v>
       </c>
       <c r="G36" t="n">
-        <v>262.3333333333333</v>
+        <v>-21812.34239999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C37" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D37" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E37" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F37" t="n">
-        <v>2.2469</v>
+        <v>8277</v>
       </c>
       <c r="G37" t="n">
-        <v>262.3333333333333</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C38" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D38" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E38" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F38" t="n">
-        <v>1781</v>
+        <v>13071.7977</v>
       </c>
       <c r="G38" t="n">
-        <v>261.6666666666667</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C39" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D39" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E39" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F39" t="n">
-        <v>263.6</v>
+        <v>10209.802</v>
       </c>
       <c r="G39" t="n">
-        <v>261.3333333333333</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C40" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D40" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E40" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F40" t="n">
-        <v>432.7619</v>
+        <v>2657.8399</v>
       </c>
       <c r="G40" t="n">
-        <v>261</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C41" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D41" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E41" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>160.18</v>
       </c>
       <c r="G41" t="n">
-        <v>261.3333333333333</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D42" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E42" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F42" t="n">
-        <v>1606.6307</v>
+        <v>32</v>
       </c>
       <c r="G42" t="n">
-        <v>261.6666666666667</v>
+        <v>-30089.34239999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C43" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D43" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E43" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F43" t="n">
-        <v>2525.8</v>
+        <v>1138.6</v>
       </c>
       <c r="G43" t="n">
-        <v>262</v>
+        <v>-28950.74239999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C44" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D44" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E44" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>1167.4179</v>
       </c>
       <c r="G44" t="n">
-        <v>262</v>
+        <v>-28950.74239999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C45" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E45" t="n">
         <v>260</v>
       </c>
       <c r="F45" t="n">
-        <v>2970.9384</v>
+        <v>709.52</v>
       </c>
       <c r="G45" t="n">
-        <v>262</v>
+        <v>-29660.26239999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2025,19 +2025,19 @@
         <v>260</v>
       </c>
       <c r="C46" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D46" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E46" t="n">
         <v>260</v>
       </c>
       <c r="F46" t="n">
-        <v>2229.9132</v>
+        <v>970</v>
       </c>
       <c r="G46" t="n">
-        <v>262</v>
+        <v>-29660.26239999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C47" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E47" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F47" t="n">
-        <v>1770.9603</v>
+        <v>1285</v>
       </c>
       <c r="G47" t="n">
-        <v>262.3333333333333</v>
+        <v>-28375.26239999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C48" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D48" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E48" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F48" t="n">
-        <v>4629.1599</v>
+        <v>937</v>
       </c>
       <c r="G48" t="n">
-        <v>262.3333333333333</v>
+        <v>-29312.26239999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C49" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D49" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E49" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F49" t="n">
-        <v>3095.5515</v>
+        <v>743.5</v>
       </c>
       <c r="G49" t="n">
-        <v>262.3333333333333</v>
+        <v>-30055.76239999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E50" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F50" t="n">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>261.6666666666667</v>
+        <v>-30054.76239999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F51" t="n">
-        <v>1327.1</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>261.3333333333333</v>
+        <v>-30054.76239999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C52" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D52" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E52" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F52" t="n">
-        <v>172.9</v>
+        <v>736.434</v>
       </c>
       <c r="G52" t="n">
-        <v>261</v>
+        <v>-30791.19639999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C53" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F53" t="n">
-        <v>900.4392</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>261</v>
+        <v>-30691.19639999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C54" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E54" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F54" t="n">
-        <v>547.9617</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>261</v>
+        <v>-30691.19639999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D55" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E55" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F55" t="n">
-        <v>1085.2576</v>
+        <v>1326.1</v>
       </c>
       <c r="G55" t="n">
-        <v>261.3333333333333</v>
+        <v>-32017.29639999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C56" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D56" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E56" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F56" t="n">
-        <v>12.6553</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>260.3333333333333</v>
+        <v>-32018.29639999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C57" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D57" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E57" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57" t="n">
-        <v>44.5052</v>
+        <v>658.1134</v>
       </c>
       <c r="G57" t="n">
-        <v>259.6666666666667</v>
+        <v>-32018.29639999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,35 +2454,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C58" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D58" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E58" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" t="n">
-        <v>6387.4787</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>258.6666666666667</v>
+        <v>-32017.29639999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>259</v>
-      </c>
-      <c r="K58" t="n">
-        <v>259</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2494,1460 +2490,1230 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D59" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E59" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" t="n">
-        <v>1694</v>
+        <v>162</v>
       </c>
       <c r="G59" t="n">
-        <v>259</v>
+        <v>-32017.29639999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>259</v>
-      </c>
-      <c r="K59" t="n">
-        <v>259</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>259</v>
+      </c>
+      <c r="C60" t="n">
+        <v>262</v>
+      </c>
+      <c r="D60" t="n">
+        <v>262</v>
+      </c>
+      <c r="E60" t="n">
+        <v>259</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14464.83</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-17552.46639999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>263</v>
+      </c>
+      <c r="C61" t="n">
+        <v>263</v>
+      </c>
+      <c r="D61" t="n">
+        <v>263</v>
+      </c>
+      <c r="E61" t="n">
+        <v>263</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1119.5855</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-16432.88089999999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>260</v>
+      </c>
+      <c r="C62" t="n">
+        <v>260</v>
+      </c>
+      <c r="D62" t="n">
+        <v>260</v>
+      </c>
+      <c r="E62" t="n">
+        <v>260</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8154.0499</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-24586.93079999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>259</v>
+      </c>
+      <c r="C63" t="n">
+        <v>260</v>
+      </c>
+      <c r="D63" t="n">
+        <v>260</v>
+      </c>
+      <c r="E63" t="n">
+        <v>259</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1017.57</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-24586.93079999999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>261</v>
+      </c>
+      <c r="C64" t="n">
+        <v>262</v>
+      </c>
+      <c r="D64" t="n">
+        <v>262</v>
+      </c>
+      <c r="E64" t="n">
+        <v>261</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-24576.93079999999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>262</v>
+      </c>
+      <c r="C65" t="n">
+        <v>262</v>
+      </c>
+      <c r="D65" t="n">
+        <v>262</v>
+      </c>
+      <c r="E65" t="n">
+        <v>262</v>
+      </c>
+      <c r="F65" t="n">
+        <v>114.50381679</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-24576.93079999999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>262</v>
+      </c>
+      <c r="C66" t="n">
+        <v>263</v>
+      </c>
+      <c r="D66" t="n">
+        <v>263</v>
+      </c>
+      <c r="E66" t="n">
+        <v>262</v>
+      </c>
+      <c r="F66" t="n">
+        <v>572.52818321</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-24004.40261678999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>262</v>
+      </c>
+      <c r="C67" t="n">
+        <v>262</v>
+      </c>
+      <c r="D67" t="n">
+        <v>262</v>
+      </c>
+      <c r="E67" t="n">
+        <v>262</v>
+      </c>
+      <c r="F67" t="n">
+        <v>500</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-24504.40261678999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>262</v>
+      </c>
+      <c r="C68" t="n">
+        <v>262</v>
+      </c>
+      <c r="D68" t="n">
+        <v>262</v>
+      </c>
+      <c r="E68" t="n">
+        <v>262</v>
+      </c>
+      <c r="F68" t="n">
+        <v>500</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-24504.40261678999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>262</v>
+      </c>
+      <c r="C69" t="n">
+        <v>262</v>
+      </c>
+      <c r="D69" t="n">
+        <v>262</v>
+      </c>
+      <c r="E69" t="n">
+        <v>262</v>
+      </c>
+      <c r="F69" t="n">
+        <v>41.11751679</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-24504.40261678999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>261</v>
+      </c>
+      <c r="C70" t="n">
+        <v>260</v>
+      </c>
+      <c r="D70" t="n">
+        <v>261</v>
+      </c>
+      <c r="E70" t="n">
+        <v>260</v>
+      </c>
+      <c r="F70" t="n">
+        <v>848.7306</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-25353.13321678999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>261</v>
+      </c>
+      <c r="C71" t="n">
+        <v>261</v>
+      </c>
+      <c r="D71" t="n">
+        <v>261</v>
+      </c>
+      <c r="E71" t="n">
+        <v>261</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-24353.13321678999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>261</v>
+      </c>
+      <c r="C72" t="n">
+        <v>260</v>
+      </c>
+      <c r="D72" t="n">
+        <v>261</v>
+      </c>
+      <c r="E72" t="n">
+        <v>260</v>
+      </c>
+      <c r="F72" t="n">
+        <v>853.2283</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-25206.36151678998</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>260</v>
+      </c>
+      <c r="C73" t="n">
+        <v>260</v>
+      </c>
+      <c r="D73" t="n">
+        <v>260</v>
+      </c>
+      <c r="E73" t="n">
+        <v>260</v>
+      </c>
+      <c r="F73" t="n">
+        <v>574.2536</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-25206.36151678998</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>260</v>
+      </c>
+      <c r="C74" t="n">
+        <v>260</v>
+      </c>
+      <c r="D74" t="n">
+        <v>260</v>
+      </c>
+      <c r="E74" t="n">
+        <v>260</v>
+      </c>
+      <c r="F74" t="n">
+        <v>298.1259</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-25206.36151678998</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>260</v>
+      </c>
+      <c r="C75" t="n">
+        <v>258</v>
+      </c>
+      <c r="D75" t="n">
+        <v>260</v>
+      </c>
+      <c r="E75" t="n">
+        <v>258</v>
+      </c>
+      <c r="F75" t="n">
+        <v>928.558</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-26134.91951678999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>258</v>
+      </c>
+      <c r="C76" t="n">
+        <v>254</v>
+      </c>
+      <c r="D76" t="n">
+        <v>258</v>
+      </c>
+      <c r="E76" t="n">
+        <v>254</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5491.5811</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-31626.50061678998</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>260</v>
+      </c>
+      <c r="C77" t="n">
+        <v>260</v>
+      </c>
+      <c r="D77" t="n">
+        <v>260</v>
+      </c>
+      <c r="E77" t="n">
+        <v>260</v>
+      </c>
+      <c r="F77" t="n">
+        <v>40</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-31586.50061678998</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>260</v>
+      </c>
+      <c r="C78" t="n">
+        <v>261</v>
+      </c>
+      <c r="D78" t="n">
+        <v>261</v>
+      </c>
+      <c r="E78" t="n">
+        <v>260</v>
+      </c>
+      <c r="F78" t="n">
+        <v>301</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-31285.50061678998</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>262</v>
+      </c>
+      <c r="C79" t="n">
+        <v>262</v>
+      </c>
+      <c r="D79" t="n">
+        <v>262</v>
+      </c>
+      <c r="E79" t="n">
+        <v>262</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1811</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-29474.50061678998</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>262</v>
+      </c>
+      <c r="C80" t="n">
+        <v>262</v>
+      </c>
+      <c r="D80" t="n">
+        <v>262</v>
+      </c>
+      <c r="E80" t="n">
+        <v>262</v>
+      </c>
+      <c r="F80" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-29474.50061678998</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>262</v>
+      </c>
+      <c r="C81" t="n">
+        <v>262</v>
+      </c>
+      <c r="D81" t="n">
+        <v>262</v>
+      </c>
+      <c r="E81" t="n">
+        <v>262</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1329.7625</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-29474.50061678998</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>262</v>
+      </c>
+      <c r="C82" t="n">
+        <v>263</v>
+      </c>
+      <c r="D82" t="n">
+        <v>263</v>
+      </c>
+      <c r="E82" t="n">
+        <v>262</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-29473.50061678998</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>262</v>
+      </c>
+      <c r="C83" t="n">
+        <v>262</v>
+      </c>
+      <c r="D83" t="n">
+        <v>262</v>
+      </c>
+      <c r="E83" t="n">
+        <v>262</v>
+      </c>
+      <c r="F83" t="n">
+        <v>293.6</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-29767.10061678998</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>262</v>
+      </c>
+      <c r="C84" t="n">
+        <v>262</v>
+      </c>
+      <c r="D84" t="n">
+        <v>262</v>
+      </c>
+      <c r="E84" t="n">
+        <v>262</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1368.104</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-29767.10061678998</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>262</v>
+      </c>
+      <c r="C85" t="n">
+        <v>262</v>
+      </c>
+      <c r="D85" t="n">
+        <v>262</v>
+      </c>
+      <c r="E85" t="n">
+        <v>262</v>
+      </c>
+      <c r="F85" t="n">
+        <v>800</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-29767.10061678998</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>263</v>
+      </c>
+      <c r="C86" t="n">
+        <v>263</v>
+      </c>
+      <c r="D86" t="n">
+        <v>263</v>
+      </c>
+      <c r="E86" t="n">
+        <v>263</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2348.787</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-27418.31361678998</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>263</v>
+      </c>
+      <c r="C87" t="n">
+        <v>263</v>
+      </c>
+      <c r="D87" t="n">
+        <v>263</v>
+      </c>
+      <c r="E87" t="n">
+        <v>263</v>
+      </c>
+      <c r="F87" t="n">
+        <v>21.48258321</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-27418.31361678998</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>260</v>
+      </c>
+      <c r="C88" t="n">
+        <v>260</v>
+      </c>
+      <c r="D88" t="n">
+        <v>260</v>
+      </c>
+      <c r="E88" t="n">
+        <v>260</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2373.9847</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-29792.29831678998</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>259</v>
+      </c>
+      <c r="C89" t="n">
+        <v>259</v>
+      </c>
+      <c r="D89" t="n">
+        <v>259</v>
+      </c>
+      <c r="E89" t="n">
+        <v>259</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1866</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-31658.29831678998</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>259</v>
+      </c>
+      <c r="C90" t="n">
+        <v>259</v>
+      </c>
+      <c r="D90" t="n">
+        <v>259</v>
+      </c>
+      <c r="E90" t="n">
+        <v>259</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-31658.29831678998</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>260</v>
+      </c>
+      <c r="C91" t="n">
+        <v>262</v>
+      </c>
+      <c r="D91" t="n">
+        <v>262</v>
+      </c>
+      <c r="E91" t="n">
+        <v>260</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-31656.29831678998</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>259</v>
+      </c>
+      <c r="K91" t="n">
+        <v>259</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>262</v>
+      </c>
+      <c r="C92" t="n">
+        <v>262</v>
+      </c>
+      <c r="D92" t="n">
+        <v>262</v>
+      </c>
+      <c r="E92" t="n">
+        <v>262</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6893.5928</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-31656.29831678998</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>259</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>257</v>
-      </c>
-      <c r="C60" t="n">
-        <v>256</v>
-      </c>
-      <c r="D60" t="n">
-        <v>257</v>
-      </c>
-      <c r="E60" t="n">
-        <v>256</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1389.4563</v>
-      </c>
-      <c r="G60" t="n">
-        <v>258</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>259</v>
-      </c>
-      <c r="K60" t="n">
-        <v>259</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>257</v>
-      </c>
-      <c r="C61" t="n">
-        <v>257</v>
-      </c>
-      <c r="D61" t="n">
-        <v>257</v>
-      </c>
-      <c r="E61" t="n">
-        <v>257</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1723</v>
-      </c>
-      <c r="G61" t="n">
-        <v>257.3333333333333</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>256</v>
-      </c>
-      <c r="K61" t="n">
-        <v>259</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>258</v>
-      </c>
-      <c r="C62" t="n">
-        <v>258</v>
-      </c>
-      <c r="D62" t="n">
-        <v>258</v>
-      </c>
-      <c r="E62" t="n">
-        <v>258</v>
-      </c>
-      <c r="F62" t="n">
-        <v>558.1</v>
-      </c>
-      <c r="G62" t="n">
-        <v>257</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>257</v>
-      </c>
-      <c r="K62" t="n">
-        <v>259</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>258</v>
-      </c>
-      <c r="C63" t="n">
-        <v>258</v>
-      </c>
-      <c r="D63" t="n">
-        <v>258</v>
-      </c>
-      <c r="E63" t="n">
-        <v>258</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1140.6</v>
-      </c>
-      <c r="G63" t="n">
-        <v>257.6666666666667</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>258</v>
-      </c>
-      <c r="K63" t="n">
-        <v>259</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>258</v>
-      </c>
-      <c r="C64" t="n">
-        <v>258</v>
-      </c>
-      <c r="D64" t="n">
-        <v>258</v>
-      </c>
-      <c r="E64" t="n">
-        <v>258</v>
-      </c>
-      <c r="F64" t="n">
-        <v>867.5</v>
-      </c>
-      <c r="G64" t="n">
-        <v>258</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>258</v>
-      </c>
-      <c r="K64" t="n">
-        <v>259</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>258</v>
-      </c>
-      <c r="C65" t="n">
-        <v>258</v>
-      </c>
-      <c r="D65" t="n">
-        <v>258</v>
-      </c>
-      <c r="E65" t="n">
-        <v>258</v>
-      </c>
-      <c r="F65" t="n">
-        <v>120</v>
-      </c>
-      <c r="G65" t="n">
-        <v>258</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>259</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>255</v>
-      </c>
-      <c r="C66" t="n">
-        <v>255</v>
-      </c>
-      <c r="D66" t="n">
-        <v>255</v>
-      </c>
-      <c r="E66" t="n">
-        <v>255</v>
-      </c>
-      <c r="F66" t="n">
-        <v>80</v>
-      </c>
-      <c r="G66" t="n">
-        <v>257</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>258</v>
-      </c>
-      <c r="K66" t="n">
-        <v>259</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>257</v>
-      </c>
-      <c r="C67" t="n">
-        <v>257</v>
-      </c>
-      <c r="D67" t="n">
-        <v>257</v>
-      </c>
-      <c r="E67" t="n">
-        <v>257</v>
-      </c>
-      <c r="F67" t="n">
-        <v>197.7078</v>
-      </c>
-      <c r="G67" t="n">
-        <v>256.6666666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>255</v>
-      </c>
-      <c r="K67" t="n">
-        <v>259</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>256</v>
-      </c>
-      <c r="C68" t="n">
-        <v>256</v>
-      </c>
-      <c r="D68" t="n">
-        <v>256</v>
-      </c>
-      <c r="E68" t="n">
-        <v>256</v>
-      </c>
-      <c r="F68" t="n">
-        <v>75.5626</v>
-      </c>
-      <c r="G68" t="n">
-        <v>256</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>257</v>
-      </c>
-      <c r="K68" t="n">
-        <v>259</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>256</v>
-      </c>
-      <c r="C69" t="n">
-        <v>256</v>
-      </c>
-      <c r="D69" t="n">
-        <v>256</v>
-      </c>
-      <c r="E69" t="n">
-        <v>256</v>
-      </c>
-      <c r="F69" t="n">
-        <v>820.8083</v>
-      </c>
-      <c r="G69" t="n">
-        <v>256.3333333333333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>256</v>
-      </c>
-      <c r="K69" t="n">
-        <v>259</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>257</v>
-      </c>
-      <c r="C70" t="n">
-        <v>256</v>
-      </c>
-      <c r="D70" t="n">
-        <v>257</v>
-      </c>
-      <c r="E70" t="n">
-        <v>256</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1015.3827</v>
-      </c>
-      <c r="G70" t="n">
-        <v>256</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>256</v>
-      </c>
-      <c r="K70" t="n">
-        <v>259</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>258</v>
-      </c>
-      <c r="C71" t="n">
-        <v>259</v>
-      </c>
-      <c r="D71" t="n">
-        <v>259</v>
-      </c>
-      <c r="E71" t="n">
-        <v>258</v>
-      </c>
-      <c r="F71" t="n">
-        <v>116.7201</v>
-      </c>
-      <c r="G71" t="n">
-        <v>257</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>256</v>
-      </c>
-      <c r="K71" t="n">
-        <v>259</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>259</v>
-      </c>
-      <c r="C72" t="n">
-        <v>259</v>
-      </c>
-      <c r="D72" t="n">
-        <v>259</v>
-      </c>
-      <c r="E72" t="n">
-        <v>259</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1813.8783</v>
-      </c>
-      <c r="G72" t="n">
-        <v>258</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>259</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>259</v>
-      </c>
-      <c r="C73" t="n">
-        <v>259</v>
-      </c>
-      <c r="D73" t="n">
-        <v>259</v>
-      </c>
-      <c r="E73" t="n">
-        <v>259</v>
-      </c>
-      <c r="F73" t="n">
-        <v>188.4843</v>
-      </c>
-      <c r="G73" t="n">
-        <v>259</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>259</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>258</v>
-      </c>
-      <c r="C74" t="n">
-        <v>258</v>
-      </c>
-      <c r="D74" t="n">
-        <v>258</v>
-      </c>
-      <c r="E74" t="n">
-        <v>258</v>
-      </c>
-      <c r="F74" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="G74" t="n">
-        <v>258.6666666666667</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>259</v>
-      </c>
-      <c r="K74" t="n">
-        <v>259</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>259</v>
-      </c>
-      <c r="C75" t="n">
-        <v>259</v>
-      </c>
-      <c r="D75" t="n">
-        <v>259</v>
-      </c>
-      <c r="E75" t="n">
-        <v>259</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2835.3233</v>
-      </c>
-      <c r="G75" t="n">
-        <v>258.6666666666667</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>258</v>
-      </c>
-      <c r="K75" t="n">
-        <v>259</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>260</v>
-      </c>
-      <c r="C76" t="n">
-        <v>260</v>
-      </c>
-      <c r="D76" t="n">
-        <v>260</v>
-      </c>
-      <c r="E76" t="n">
-        <v>260</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G76" t="n">
-        <v>259</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>259</v>
-      </c>
-      <c r="K76" t="n">
-        <v>259</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>260</v>
-      </c>
-      <c r="C77" t="n">
-        <v>260</v>
-      </c>
-      <c r="D77" t="n">
-        <v>263</v>
-      </c>
-      <c r="E77" t="n">
-        <v>260</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5524.6355</v>
-      </c>
-      <c r="G77" t="n">
-        <v>259.6666666666667</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>260</v>
-      </c>
-      <c r="K77" t="n">
-        <v>259</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>260</v>
-      </c>
-      <c r="C78" t="n">
-        <v>260</v>
-      </c>
-      <c r="D78" t="n">
-        <v>260</v>
-      </c>
-      <c r="E78" t="n">
-        <v>260</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1694.2656</v>
-      </c>
-      <c r="G78" t="n">
-        <v>260</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>260</v>
-      </c>
-      <c r="K78" t="n">
-        <v>259</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>262</v>
-      </c>
-      <c r="C79" t="n">
-        <v>262</v>
-      </c>
-      <c r="D79" t="n">
-        <v>262</v>
-      </c>
-      <c r="E79" t="n">
-        <v>262</v>
-      </c>
-      <c r="F79" t="n">
-        <v>4</v>
-      </c>
-      <c r="G79" t="n">
-        <v>260.6666666666667</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>260</v>
-      </c>
-      <c r="K79" t="n">
-        <v>259</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>262</v>
-      </c>
-      <c r="C80" t="n">
-        <v>262</v>
-      </c>
-      <c r="D80" t="n">
-        <v>262</v>
-      </c>
-      <c r="E80" t="n">
-        <v>262</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G80" t="n">
-        <v>261.3333333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>259</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>262</v>
-      </c>
-      <c r="C81" t="n">
-        <v>260</v>
-      </c>
-      <c r="D81" t="n">
-        <v>262</v>
-      </c>
-      <c r="E81" t="n">
-        <v>260</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1676.896</v>
-      </c>
-      <c r="G81" t="n">
-        <v>261.3333333333333</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>259</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>260</v>
-      </c>
-      <c r="C82" t="n">
-        <v>260</v>
-      </c>
-      <c r="D82" t="n">
-        <v>260</v>
-      </c>
-      <c r="E82" t="n">
-        <v>260</v>
-      </c>
-      <c r="F82" t="n">
-        <v>918</v>
-      </c>
-      <c r="G82" t="n">
-        <v>260.6666666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>259</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>260</v>
-      </c>
-      <c r="C83" t="n">
-        <v>263</v>
-      </c>
-      <c r="D83" t="n">
-        <v>263</v>
-      </c>
-      <c r="E83" t="n">
-        <v>260</v>
-      </c>
-      <c r="F83" t="n">
-        <v>865.4525</v>
-      </c>
-      <c r="G83" t="n">
-        <v>261</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>259</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>260</v>
-      </c>
-      <c r="C84" t="n">
-        <v>264</v>
-      </c>
-      <c r="D84" t="n">
-        <v>264</v>
-      </c>
-      <c r="E84" t="n">
-        <v>260</v>
-      </c>
-      <c r="F84" t="n">
-        <v>837.3985</v>
-      </c>
-      <c r="G84" t="n">
-        <v>262.3333333333333</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>259</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>260</v>
-      </c>
-      <c r="C85" t="n">
-        <v>263</v>
-      </c>
-      <c r="D85" t="n">
-        <v>263</v>
-      </c>
-      <c r="E85" t="n">
-        <v>260</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3360.2414</v>
-      </c>
-      <c r="G85" t="n">
-        <v>263.3333333333333</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>259</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>260</v>
-      </c>
-      <c r="C86" t="n">
-        <v>263</v>
-      </c>
-      <c r="D86" t="n">
-        <v>263</v>
-      </c>
-      <c r="E86" t="n">
-        <v>260</v>
-      </c>
-      <c r="F86" t="n">
-        <v>301.2336</v>
-      </c>
-      <c r="G86" t="n">
-        <v>263.3333333333333</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>259</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>262</v>
-      </c>
-      <c r="C87" t="n">
-        <v>263</v>
-      </c>
-      <c r="D87" t="n">
-        <v>263</v>
-      </c>
-      <c r="E87" t="n">
-        <v>262</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1987.6692</v>
-      </c>
-      <c r="G87" t="n">
-        <v>263</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>259</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>261</v>
-      </c>
-      <c r="C88" t="n">
-        <v>261</v>
-      </c>
-      <c r="D88" t="n">
-        <v>261</v>
-      </c>
-      <c r="E88" t="n">
-        <v>261</v>
-      </c>
-      <c r="F88" t="n">
-        <v>175.6255</v>
-      </c>
-      <c r="G88" t="n">
-        <v>262.3333333333333</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>259</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>260</v>
-      </c>
-      <c r="C89" t="n">
-        <v>260</v>
-      </c>
-      <c r="D89" t="n">
-        <v>260</v>
-      </c>
-      <c r="E89" t="n">
-        <v>260</v>
-      </c>
-      <c r="F89" t="n">
-        <v>927.7839</v>
-      </c>
-      <c r="G89" t="n">
-        <v>261.3333333333333</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>259</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>260</v>
-      </c>
-      <c r="C90" t="n">
-        <v>260</v>
-      </c>
-      <c r="D90" t="n">
-        <v>260</v>
-      </c>
-      <c r="E90" t="n">
-        <v>260</v>
-      </c>
-      <c r="F90" t="n">
-        <v>927.7839</v>
-      </c>
-      <c r="G90" t="n">
-        <v>260.3333333333333</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>259</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>261</v>
-      </c>
-      <c r="C91" t="n">
-        <v>261</v>
-      </c>
-      <c r="D91" t="n">
-        <v>261</v>
-      </c>
-      <c r="E91" t="n">
-        <v>261</v>
-      </c>
-      <c r="F91" t="n">
-        <v>123</v>
-      </c>
-      <c r="G91" t="n">
-        <v>260.3333333333333</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>259</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>263</v>
-      </c>
-      <c r="C92" t="n">
-        <v>263</v>
-      </c>
-      <c r="D92" t="n">
-        <v>263</v>
-      </c>
-      <c r="E92" t="n">
-        <v>263</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2130.3937</v>
-      </c>
-      <c r="G92" t="n">
-        <v>261.3333333333333</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>259</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3958,22 +3724,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C93" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E93" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F93" t="n">
-        <v>2429.952</v>
+        <v>27</v>
       </c>
       <c r="G93" t="n">
-        <v>263</v>
+        <v>-31656.29831678998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3987,7 +3753,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -4000,22 +3766,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C94" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E94" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F94" t="n">
-        <v>1169.4924</v>
+        <v>16032.0776</v>
       </c>
       <c r="G94" t="n">
-        <v>264.6666666666667</v>
+        <v>-15624.22071678998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4024,14 +3790,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>259</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4042,22 +3802,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C95" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E95" t="n">
         <v>263</v>
       </c>
       <c r="F95" t="n">
-        <v>927.4</v>
+        <v>4757.3336</v>
       </c>
       <c r="G95" t="n">
-        <v>265</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4066,14 +3826,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>259</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4084,22 +3838,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96" t="n">
         <v>263</v>
       </c>
       <c r="D96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E96" t="n">
         <v>263</v>
       </c>
       <c r="F96" t="n">
-        <v>197.5922</v>
+        <v>678</v>
       </c>
       <c r="G96" t="n">
-        <v>264.3333333333333</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4108,14 +3862,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>259</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4126,22 +3874,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C97" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D97" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E97" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F97" t="n">
-        <v>1653.9367</v>
+        <v>120.4</v>
       </c>
       <c r="G97" t="n">
-        <v>262</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4150,14 +3898,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>259</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4168,22 +3910,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C98" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D98" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E98" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F98" t="n">
-        <v>743.295</v>
+        <v>203.0684</v>
       </c>
       <c r="G98" t="n">
-        <v>261</v>
+        <v>-20381.55431678998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4192,14 +3934,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>259</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4213,19 +3949,19 @@
         <v>262</v>
       </c>
       <c r="C99" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D99" t="n">
         <v>262</v>
       </c>
       <c r="E99" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F99" t="n">
-        <v>3646.9734</v>
+        <v>70.3175</v>
       </c>
       <c r="G99" t="n">
-        <v>260</v>
+        <v>-20451.87181678998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4234,14 +3970,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>259</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4264,10 +3994,10 @@
         <v>262</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>140.6349</v>
       </c>
       <c r="G100" t="n">
-        <v>261</v>
+        <v>-20451.87181678998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4276,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>259</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4294,22 +4018,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C101" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D101" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E101" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F101" t="n">
-        <v>234.1279</v>
+        <v>2439.4587</v>
       </c>
       <c r="G101" t="n">
-        <v>261.3333333333333</v>
+        <v>-18012.41311678998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4318,14 +4042,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>259</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4054,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C102" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D102" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E102" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>174.1693</v>
       </c>
       <c r="G102" t="n">
-        <v>263</v>
+        <v>-18012.41311678998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4360,14 +4078,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>259</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4378,22 +4090,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C103" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D103" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E103" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>1980.315</v>
       </c>
       <c r="G103" t="n">
-        <v>264</v>
+        <v>-19992.72811678998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4402,14 +4114,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>259</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4420,22 +4126,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C104" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D104" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E104" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F104" t="n">
-        <v>39</v>
+        <v>2327.1854</v>
       </c>
       <c r="G104" t="n">
-        <v>265.3333333333333</v>
+        <v>-22319.91351678998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4444,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>259</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4462,22 +4162,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C105" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D105" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E105" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F105" t="n">
-        <v>1430</v>
+        <v>574.2662</v>
       </c>
       <c r="G105" t="n">
-        <v>265.6666666666667</v>
+        <v>-21745.64731678998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4486,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>259</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4504,22 +4198,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C106" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D106" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E106" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F106" t="n">
-        <v>1843.7</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>266</v>
+        <v>-21744.64731678998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4528,14 +4222,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>259</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4546,22 +4234,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C107" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D107" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E107" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F107" t="n">
-        <v>1762.4585</v>
+        <v>314</v>
       </c>
       <c r="G107" t="n">
-        <v>266</v>
+        <v>-22058.64731678998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4570,14 +4258,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>259</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4588,22 +4270,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C108" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D108" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E108" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2.2469</v>
       </c>
       <c r="G108" t="n">
-        <v>266.3333333333333</v>
+        <v>-22058.64731678998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4612,14 +4294,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>259</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4630,22 +4306,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C109" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D109" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E109" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F109" t="n">
-        <v>3200</v>
+        <v>1781</v>
       </c>
       <c r="G109" t="n">
-        <v>266.6666666666667</v>
+        <v>-23839.64731678998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4654,14 +4330,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>259</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4672,22 +4342,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C110" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D110" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E110" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>263.6</v>
       </c>
       <c r="G110" t="n">
-        <v>267.3333333333333</v>
+        <v>-23839.64731678998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4696,14 +4366,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>259</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4714,22 +4378,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C111" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D111" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E111" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F111" t="n">
-        <v>1042.5697</v>
+        <v>432.7619</v>
       </c>
       <c r="G111" t="n">
-        <v>267</v>
+        <v>-23839.64731678998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4738,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>259</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +4414,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C112" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D112" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E112" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>267.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4780,14 +4438,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>259</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4798,22 +4450,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C113" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D113" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E113" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F113" t="n">
-        <v>2304.0846</v>
+        <v>1606.6307</v>
       </c>
       <c r="G113" t="n">
-        <v>266.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4822,14 +4474,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>259</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4840,22 +4486,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C114" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D114" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E114" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F114" t="n">
-        <v>1971.4673</v>
+        <v>2525.8</v>
       </c>
       <c r="G114" t="n">
-        <v>265.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4864,14 +4510,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>259</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4882,22 +4522,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C115" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D115" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E115" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F115" t="n">
-        <v>2608.1588</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>265.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4906,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>259</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4924,22 +4558,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C116" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D116" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E116" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F116" t="n">
-        <v>67.8627</v>
+        <v>2970.9384</v>
       </c>
       <c r="G116" t="n">
-        <v>265.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4948,14 +4582,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>259</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4966,22 +4594,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C117" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D117" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E117" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F117" t="n">
-        <v>28037.4581</v>
+        <v>2229.9132</v>
       </c>
       <c r="G117" t="n">
-        <v>267.3333333333333</v>
+        <v>-23838.64731678998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4990,14 +4618,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>259</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5008,40 +4630,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C118" t="n">
         <v>263</v>
       </c>
       <c r="D118" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E118" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F118" t="n">
-        <v>14178.5985</v>
+        <v>1770.9603</v>
       </c>
       <c r="G118" t="n">
-        <v>265.6666666666667</v>
+        <v>-22067.68701678998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>259</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>1.010444015444016</v>
+        <v>1</v>
       </c>
       <c r="N118" t="inlineStr"/>
     </row>
@@ -5050,28 +4666,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C119" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D119" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E119" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>4629.1599</v>
       </c>
       <c r="G119" t="n">
-        <v>266.6666666666667</v>
+        <v>-26696.84691678998</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5086,28 +4702,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C120" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D120" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E120" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F120" t="n">
-        <v>1728.2187</v>
+        <v>3095.5515</v>
       </c>
       <c r="G120" t="n">
-        <v>265.6666666666667</v>
+        <v>-26696.84691678998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5122,28 +4738,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C121" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D121" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E121" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="G121" t="n">
-        <v>266.6666666666667</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5158,22 +4774,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C122" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D122" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E122" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F122" t="n">
-        <v>1681</v>
+        <v>1327.1</v>
       </c>
       <c r="G122" t="n">
-        <v>266.6666666666667</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5194,28 +4810,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C123" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D123" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E123" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F123" t="n">
-        <v>1751</v>
+        <v>172.9</v>
       </c>
       <c r="G123" t="n">
-        <v>267</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5230,28 +4846,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C124" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D124" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E124" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F124" t="n">
-        <v>11782.3984</v>
+        <v>900.4392</v>
       </c>
       <c r="G124" t="n">
-        <v>267</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5266,28 +4882,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C125" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D125" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E125" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F125" t="n">
-        <v>3879.072</v>
+        <v>547.9617</v>
       </c>
       <c r="G125" t="n">
-        <v>266.3333333333333</v>
+        <v>-27040.84691678998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5302,22 +4918,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C126" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D126" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E126" t="n">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F126" t="n">
-        <v>300</v>
+        <v>1085.2576</v>
       </c>
       <c r="G126" t="n">
-        <v>267.3333333333333</v>
+        <v>-25955.58931678998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5338,22 +4954,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C127" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D127" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E127" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>12.6553</v>
       </c>
       <c r="G127" t="n">
-        <v>267.3333333333333</v>
+        <v>-25968.24461678998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5374,22 +4990,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C128" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D128" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E128" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F128" t="n">
-        <v>2694</v>
+        <v>44.5052</v>
       </c>
       <c r="G128" t="n">
-        <v>268</v>
+        <v>-25923.73941678998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5410,31 +5026,35 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C129" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D129" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E129" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F129" t="n">
-        <v>150.9869</v>
+        <v>6387.4787</v>
       </c>
       <c r="G129" t="n">
-        <v>266.3333333333333</v>
+        <v>-25923.73941678998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>259</v>
+      </c>
+      <c r="K129" t="n">
+        <v>259</v>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -5446,32 +5066,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C130" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D130" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E130" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>1694</v>
       </c>
       <c r="G130" t="n">
-        <v>267</v>
+        <v>-25923.73941678998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>259</v>
+      </c>
+      <c r="K130" t="n">
+        <v>259</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5482,32 +5110,40 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C131" t="n">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D131" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E131" t="n">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F131" t="n">
-        <v>1029.2759</v>
+        <v>1389.4563</v>
       </c>
       <c r="G131" t="n">
-        <v>267</v>
+        <v>-27313.19571678998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>259</v>
+      </c>
+      <c r="K131" t="n">
+        <v>259</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5518,32 +5154,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C132" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D132" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E132" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F132" t="n">
-        <v>12135.9284</v>
+        <v>1723</v>
       </c>
       <c r="G132" t="n">
-        <v>266.3333333333333</v>
+        <v>-25590.19571678998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>256</v>
+      </c>
+      <c r="K132" t="n">
+        <v>259</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5554,32 +5198,40 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C133" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D133" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E133" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F133" t="n">
-        <v>15</v>
+        <v>558.1</v>
       </c>
       <c r="G133" t="n">
-        <v>266.6666666666667</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>257</v>
+      </c>
+      <c r="K133" t="n">
+        <v>259</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5590,32 +5242,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C134" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D134" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E134" t="n">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F134" t="n">
-        <v>745.8395</v>
+        <v>1140.6</v>
       </c>
       <c r="G134" t="n">
-        <v>267</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>259</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5626,32 +5284,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C135" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D135" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E135" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F135" t="n">
-        <v>697.6625</v>
+        <v>867.5</v>
       </c>
       <c r="G135" t="n">
-        <v>269.3333333333333</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>259</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5662,32 +5326,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C136" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D136" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E136" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="n">
-        <v>3827.1653</v>
+        <v>120</v>
       </c>
       <c r="G136" t="n">
-        <v>266.6666666666667</v>
+        <v>-25032.09571678998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>259</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5698,32 +5368,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C137" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D137" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E137" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F137" t="n">
-        <v>4.8796</v>
+        <v>80</v>
       </c>
       <c r="G137" t="n">
-        <v>265.3333333333333</v>
+        <v>-25112.09571678998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>259</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5734,22 +5410,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C138" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D138" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E138" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F138" t="n">
-        <v>312.5956</v>
+        <v>197.7078</v>
       </c>
       <c r="G138" t="n">
-        <v>263.3333333333333</v>
+        <v>-24914.38791678998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5758,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>259</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5770,32 +5452,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C139" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D139" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E139" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>75.5626</v>
       </c>
       <c r="G139" t="n">
-        <v>264.6666666666667</v>
+        <v>-24989.95051678998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>257</v>
+      </c>
+      <c r="K139" t="n">
+        <v>259</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5806,32 +5496,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C140" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D140" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E140" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F140" t="n">
-        <v>1979.931</v>
+        <v>820.8083</v>
       </c>
       <c r="G140" t="n">
-        <v>265.3333333333333</v>
+        <v>-24989.95051678998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>256</v>
+      </c>
+      <c r="K140" t="n">
+        <v>259</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5842,32 +5540,40 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C141" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D141" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E141" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F141" t="n">
-        <v>5.6849</v>
+        <v>1015.3827</v>
       </c>
       <c r="G141" t="n">
-        <v>265.6666666666667</v>
+        <v>-24989.95051678998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>256</v>
+      </c>
+      <c r="K141" t="n">
+        <v>259</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5878,32 +5584,40 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C142" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D142" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E142" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F142" t="n">
-        <v>958.8871</v>
+        <v>116.7201</v>
       </c>
       <c r="G142" t="n">
-        <v>265.6666666666667</v>
+        <v>-24873.23041678999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>256</v>
+      </c>
+      <c r="K142" t="n">
+        <v>259</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5914,32 +5628,40 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C143" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D143" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E143" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F143" t="n">
-        <v>1930.8084</v>
+        <v>1813.8783</v>
       </c>
       <c r="G143" t="n">
-        <v>263.6666666666667</v>
+        <v>-24873.23041678999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>259</v>
+      </c>
+      <c r="K143" t="n">
+        <v>259</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5950,32 +5672,40 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C144" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D144" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E144" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>188.4843</v>
       </c>
       <c r="G144" t="n">
-        <v>262.6666666666667</v>
+        <v>-24873.23041678999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>259</v>
+      </c>
+      <c r="K144" t="n">
+        <v>259</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5986,22 +5716,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C145" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D145" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E145" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F145" t="n">
-        <v>1868.3888</v>
+        <v>186.7</v>
       </c>
       <c r="G145" t="n">
-        <v>261.3333333333333</v>
+        <v>-25059.93041678999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6010,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>259</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6022,32 +5758,40 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C146" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D146" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E146" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F146" t="n">
-        <v>7683.5835</v>
+        <v>2835.3233</v>
       </c>
       <c r="G146" t="n">
-        <v>261</v>
+        <v>-22224.60711678999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>258</v>
+      </c>
+      <c r="K146" t="n">
+        <v>259</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6061,19 +5805,19 @@
         <v>260</v>
       </c>
       <c r="C147" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D147" t="n">
         <v>260</v>
       </c>
       <c r="E147" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F147" t="n">
-        <v>6476.9999</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>259.6666666666667</v>
+        <v>-22222.60711678999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6082,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>259</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6094,22 +5844,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C148" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D148" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E148" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F148" t="n">
-        <v>370.2273</v>
+        <v>5524.6355</v>
       </c>
       <c r="G148" t="n">
-        <v>258.6666666666667</v>
+        <v>-22222.60711678999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6118,8 +5868,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>259</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6130,22 +5886,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C149" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D149" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E149" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F149" t="n">
-        <v>2355.1114</v>
+        <v>1694.2656</v>
       </c>
       <c r="G149" t="n">
-        <v>258</v>
+        <v>-22222.60711678999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6154,8 +5910,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>259</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6166,22 +5928,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C150" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D150" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E150" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F150" t="n">
-        <v>207.8118</v>
+        <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>258</v>
+        <v>-22218.60711678999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6190,8 +5952,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>259</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6202,36 +5970,2772 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C151" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D151" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E151" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-22218.60711678999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>259</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>262</v>
+      </c>
+      <c r="C152" t="n">
+        <v>260</v>
+      </c>
+      <c r="D152" t="n">
+        <v>262</v>
+      </c>
+      <c r="E152" t="n">
+        <v>260</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1676.896</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-23895.50311678999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>259</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>260</v>
+      </c>
+      <c r="C153" t="n">
+        <v>260</v>
+      </c>
+      <c r="D153" t="n">
+        <v>260</v>
+      </c>
+      <c r="E153" t="n">
+        <v>260</v>
+      </c>
+      <c r="F153" t="n">
+        <v>918</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-23895.50311678999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>259</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>260</v>
+      </c>
+      <c r="C154" t="n">
+        <v>263</v>
+      </c>
+      <c r="D154" t="n">
+        <v>263</v>
+      </c>
+      <c r="E154" t="n">
+        <v>260</v>
+      </c>
+      <c r="F154" t="n">
+        <v>865.4525</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-23030.05061678999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>259</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>260</v>
+      </c>
+      <c r="C155" t="n">
+        <v>264</v>
+      </c>
+      <c r="D155" t="n">
+        <v>264</v>
+      </c>
+      <c r="E155" t="n">
+        <v>260</v>
+      </c>
+      <c r="F155" t="n">
+        <v>837.3985</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-22192.65211678999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>259</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>260</v>
+      </c>
+      <c r="C156" t="n">
+        <v>263</v>
+      </c>
+      <c r="D156" t="n">
+        <v>263</v>
+      </c>
+      <c r="E156" t="n">
+        <v>260</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3360.2414</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-25552.89351678999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>259</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>260</v>
+      </c>
+      <c r="C157" t="n">
+        <v>263</v>
+      </c>
+      <c r="D157" t="n">
+        <v>263</v>
+      </c>
+      <c r="E157" t="n">
+        <v>260</v>
+      </c>
+      <c r="F157" t="n">
+        <v>301.2336</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-25552.89351678999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>259</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>262</v>
+      </c>
+      <c r="C158" t="n">
+        <v>263</v>
+      </c>
+      <c r="D158" t="n">
+        <v>263</v>
+      </c>
+      <c r="E158" t="n">
+        <v>262</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1987.6692</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-25552.89351678999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>259</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>261</v>
+      </c>
+      <c r="C159" t="n">
+        <v>261</v>
+      </c>
+      <c r="D159" t="n">
+        <v>261</v>
+      </c>
+      <c r="E159" t="n">
+        <v>261</v>
+      </c>
+      <c r="F159" t="n">
+        <v>175.6255</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-25728.51901678999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>259</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>260</v>
+      </c>
+      <c r="C160" t="n">
+        <v>260</v>
+      </c>
+      <c r="D160" t="n">
+        <v>260</v>
+      </c>
+      <c r="E160" t="n">
+        <v>260</v>
+      </c>
+      <c r="F160" t="n">
+        <v>927.7839</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-26656.30291678998</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>259</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>260</v>
+      </c>
+      <c r="C161" t="n">
+        <v>260</v>
+      </c>
+      <c r="D161" t="n">
+        <v>260</v>
+      </c>
+      <c r="E161" t="n">
+        <v>260</v>
+      </c>
+      <c r="F161" t="n">
+        <v>927.7839</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-26656.30291678998</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>259</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>261</v>
+      </c>
+      <c r="C162" t="n">
+        <v>261</v>
+      </c>
+      <c r="D162" t="n">
+        <v>261</v>
+      </c>
+      <c r="E162" t="n">
+        <v>261</v>
+      </c>
+      <c r="F162" t="n">
+        <v>123</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-26533.30291678998</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>259</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>263</v>
+      </c>
+      <c r="C163" t="n">
+        <v>263</v>
+      </c>
+      <c r="D163" t="n">
+        <v>263</v>
+      </c>
+      <c r="E163" t="n">
+        <v>263</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2130.3937</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-24402.90921678998</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>259</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>264</v>
+      </c>
+      <c r="C164" t="n">
+        <v>265</v>
+      </c>
+      <c r="D164" t="n">
+        <v>265</v>
+      </c>
+      <c r="E164" t="n">
+        <v>264</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2429.952</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-21972.95721678998</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>259</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>265</v>
+      </c>
+      <c r="C165" t="n">
+        <v>266</v>
+      </c>
+      <c r="D165" t="n">
+        <v>266</v>
+      </c>
+      <c r="E165" t="n">
+        <v>265</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1169.4924</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-20803.46481678998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>259</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>264</v>
+      </c>
+      <c r="C166" t="n">
+        <v>264</v>
+      </c>
+      <c r="D166" t="n">
+        <v>264</v>
+      </c>
+      <c r="E166" t="n">
+        <v>263</v>
+      </c>
+      <c r="F166" t="n">
+        <v>927.4</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-21730.86481678998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>259</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>264</v>
+      </c>
+      <c r="C167" t="n">
+        <v>263</v>
+      </c>
+      <c r="D167" t="n">
+        <v>264</v>
+      </c>
+      <c r="E167" t="n">
+        <v>263</v>
+      </c>
+      <c r="F167" t="n">
+        <v>197.5922</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-21928.45701678998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>259</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>262</v>
+      </c>
+      <c r="C168" t="n">
+        <v>259</v>
+      </c>
+      <c r="D168" t="n">
+        <v>262</v>
+      </c>
+      <c r="E168" t="n">
+        <v>259</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1653.9367</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-23582.39371678998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>259</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>261</v>
+      </c>
+      <c r="C169" t="n">
+        <v>261</v>
+      </c>
+      <c r="D169" t="n">
+        <v>261</v>
+      </c>
+      <c r="E169" t="n">
+        <v>261</v>
+      </c>
+      <c r="F169" t="n">
+        <v>743.295</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-22839.09871678998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>259</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>262</v>
+      </c>
+      <c r="C170" t="n">
+        <v>260</v>
+      </c>
+      <c r="D170" t="n">
+        <v>262</v>
+      </c>
+      <c r="E170" t="n">
+        <v>260</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3646.9734</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-26486.07211678998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>259</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>262</v>
+      </c>
+      <c r="C171" t="n">
+        <v>262</v>
+      </c>
+      <c r="D171" t="n">
+        <v>262</v>
+      </c>
+      <c r="E171" t="n">
+        <v>262</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-26485.07211678998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>259</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>262</v>
+      </c>
+      <c r="C172" t="n">
+        <v>262</v>
+      </c>
+      <c r="D172" t="n">
+        <v>262</v>
+      </c>
+      <c r="E172" t="n">
+        <v>262</v>
+      </c>
+      <c r="F172" t="n">
+        <v>234.1279</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-26485.07211678998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>259</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>265</v>
+      </c>
+      <c r="C173" t="n">
+        <v>265</v>
+      </c>
+      <c r="D173" t="n">
+        <v>265</v>
+      </c>
+      <c r="E173" t="n">
+        <v>265</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-26484.07211678998</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>259</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>265</v>
+      </c>
+      <c r="C174" t="n">
+        <v>265</v>
+      </c>
+      <c r="D174" t="n">
+        <v>265</v>
+      </c>
+      <c r="E174" t="n">
+        <v>265</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-26484.07211678998</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>259</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>265</v>
+      </c>
+      <c r="C175" t="n">
+        <v>266</v>
+      </c>
+      <c r="D175" t="n">
+        <v>266</v>
+      </c>
+      <c r="E175" t="n">
+        <v>265</v>
+      </c>
+      <c r="F175" t="n">
+        <v>39</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-26445.07211678998</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>259</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>266</v>
+      </c>
+      <c r="C176" t="n">
+        <v>266</v>
+      </c>
+      <c r="D176" t="n">
+        <v>266</v>
+      </c>
+      <c r="E176" t="n">
+        <v>266</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-26445.07211678998</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>259</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>265</v>
+      </c>
+      <c r="C177" t="n">
+        <v>266</v>
+      </c>
+      <c r="D177" t="n">
+        <v>266</v>
+      </c>
+      <c r="E177" t="n">
+        <v>265</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1843.7</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-26445.07211678998</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>259</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>266</v>
+      </c>
+      <c r="C178" t="n">
+        <v>266</v>
+      </c>
+      <c r="D178" t="n">
+        <v>266</v>
+      </c>
+      <c r="E178" t="n">
+        <v>266</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1762.4585</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-26445.07211678998</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>259</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>267</v>
+      </c>
+      <c r="C179" t="n">
+        <v>267</v>
+      </c>
+      <c r="D179" t="n">
+        <v>267</v>
+      </c>
+      <c r="E179" t="n">
+        <v>267</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-26444.07211678998</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>259</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>267</v>
+      </c>
+      <c r="C180" t="n">
+        <v>267</v>
+      </c>
+      <c r="D180" t="n">
+        <v>267</v>
+      </c>
+      <c r="E180" t="n">
+        <v>267</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-26444.07211678998</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>259</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1.025888030888031</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>268</v>
+      </c>
+      <c r="C181" t="n">
+        <v>268</v>
+      </c>
+      <c r="D181" t="n">
+        <v>268</v>
+      </c>
+      <c r="E181" t="n">
+        <v>268</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-26443.07211678998</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>266</v>
+      </c>
+      <c r="C182" t="n">
+        <v>266</v>
+      </c>
+      <c r="D182" t="n">
+        <v>266</v>
+      </c>
+      <c r="E182" t="n">
+        <v>266</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1042.5697</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-27485.64181678998</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>268</v>
+      </c>
+      <c r="C183" t="n">
+        <v>268</v>
+      </c>
+      <c r="D183" t="n">
+        <v>268</v>
+      </c>
+      <c r="E183" t="n">
+        <v>268</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-27484.64181678998</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>265</v>
+      </c>
+      <c r="C184" t="n">
+        <v>265</v>
+      </c>
+      <c r="D184" t="n">
+        <v>265</v>
+      </c>
+      <c r="E184" t="n">
+        <v>265</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2304.0846</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-29788.72641678998</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>264</v>
+      </c>
+      <c r="C185" t="n">
+        <v>263</v>
+      </c>
+      <c r="D185" t="n">
+        <v>264</v>
+      </c>
+      <c r="E185" t="n">
+        <v>263</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1971.4673</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-31760.19371678999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>265</v>
+      </c>
+      <c r="C186" t="n">
+        <v>268</v>
+      </c>
+      <c r="D186" t="n">
+        <v>268</v>
+      </c>
+      <c r="E186" t="n">
+        <v>265</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2608.1588</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-29152.03491678998</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>265</v>
+      </c>
+      <c r="C187" t="n">
+        <v>265</v>
+      </c>
+      <c r="D187" t="n">
+        <v>265</v>
+      </c>
+      <c r="E187" t="n">
+        <v>265</v>
+      </c>
+      <c r="F187" t="n">
+        <v>67.8627</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-29219.89761678999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>268</v>
+      </c>
+      <c r="C188" t="n">
+        <v>269</v>
+      </c>
+      <c r="D188" t="n">
+        <v>269</v>
+      </c>
+      <c r="E188" t="n">
+        <v>265</v>
+      </c>
+      <c r="F188" t="n">
+        <v>28037.4581</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1182.439516789986</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>265</v>
+      </c>
+      <c r="C189" t="n">
+        <v>263</v>
+      </c>
+      <c r="D189" t="n">
+        <v>265</v>
+      </c>
+      <c r="E189" t="n">
+        <v>263</v>
+      </c>
+      <c r="F189" t="n">
+        <v>14178.5985</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-15361.03801678999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>268</v>
+      </c>
+      <c r="C190" t="n">
+        <v>268</v>
+      </c>
+      <c r="D190" t="n">
+        <v>268</v>
+      </c>
+      <c r="E190" t="n">
+        <v>268</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-15360.03801678999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>266</v>
+      </c>
+      <c r="C191" t="n">
+        <v>266</v>
+      </c>
+      <c r="D191" t="n">
+        <v>266</v>
+      </c>
+      <c r="E191" t="n">
+        <v>266</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1728.2187</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-17088.25671678999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>266</v>
+      </c>
+      <c r="C192" t="n">
+        <v>266</v>
+      </c>
+      <c r="D192" t="n">
+        <v>266</v>
+      </c>
+      <c r="E192" t="n">
+        <v>266</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-17088.25671678999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>267</v>
+      </c>
+      <c r="C193" t="n">
+        <v>268</v>
+      </c>
+      <c r="D193" t="n">
+        <v>268</v>
+      </c>
+      <c r="E193" t="n">
+        <v>267</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1681</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-15407.25671678999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>267</v>
+      </c>
+      <c r="C194" t="n">
+        <v>267</v>
+      </c>
+      <c r="D194" t="n">
+        <v>267</v>
+      </c>
+      <c r="E194" t="n">
+        <v>267</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1751</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-17158.25671678999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>267</v>
+      </c>
+      <c r="C195" t="n">
+        <v>266</v>
+      </c>
+      <c r="D195" t="n">
+        <v>267</v>
+      </c>
+      <c r="E195" t="n">
+        <v>263</v>
+      </c>
+      <c r="F195" t="n">
+        <v>11782.3984</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-28940.65511678999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>263</v>
+      </c>
+      <c r="C196" t="n">
+        <v>266</v>
+      </c>
+      <c r="D196" t="n">
+        <v>266</v>
+      </c>
+      <c r="E196" t="n">
+        <v>263</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3879.072</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-28940.65511678999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>266</v>
+      </c>
+      <c r="C197" t="n">
+        <v>270</v>
+      </c>
+      <c r="D197" t="n">
+        <v>270</v>
+      </c>
+      <c r="E197" t="n">
+        <v>266</v>
+      </c>
+      <c r="F197" t="n">
+        <v>300</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-28640.65511678999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>266</v>
+      </c>
+      <c r="C198" t="n">
+        <v>266</v>
+      </c>
+      <c r="D198" t="n">
+        <v>266</v>
+      </c>
+      <c r="E198" t="n">
+        <v>266</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-29640.65511678999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>266</v>
+      </c>
+      <c r="C199" t="n">
+        <v>268</v>
+      </c>
+      <c r="D199" t="n">
+        <v>268</v>
+      </c>
+      <c r="E199" t="n">
+        <v>266</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2694</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-26946.65511678999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>265</v>
+      </c>
+      <c r="C200" t="n">
+        <v>265</v>
+      </c>
+      <c r="D200" t="n">
+        <v>265</v>
+      </c>
+      <c r="E200" t="n">
+        <v>265</v>
+      </c>
+      <c r="F200" t="n">
+        <v>150.9869</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-27097.64201678999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>268</v>
+      </c>
+      <c r="C201" t="n">
+        <v>268</v>
+      </c>
+      <c r="D201" t="n">
+        <v>268</v>
+      </c>
+      <c r="E201" t="n">
+        <v>268</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-27096.64201678999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>268</v>
+      </c>
+      <c r="C202" t="n">
+        <v>268</v>
+      </c>
+      <c r="D202" t="n">
+        <v>268</v>
+      </c>
+      <c r="E202" t="n">
+        <v>268</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1029.2759</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-27096.64201678999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>267</v>
+      </c>
+      <c r="C203" t="n">
+        <v>263</v>
+      </c>
+      <c r="D203" t="n">
+        <v>267</v>
+      </c>
+      <c r="E203" t="n">
+        <v>263</v>
+      </c>
+      <c r="F203" t="n">
+        <v>12135.9284</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-39232.57041678999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>265</v>
+      </c>
+      <c r="C204" t="n">
+        <v>269</v>
+      </c>
+      <c r="D204" t="n">
+        <v>269</v>
+      </c>
+      <c r="E204" t="n">
+        <v>265</v>
+      </c>
+      <c r="F204" t="n">
+        <v>15</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-39217.57041678999</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>269</v>
+      </c>
+      <c r="C205" t="n">
+        <v>269</v>
+      </c>
+      <c r="D205" t="n">
+        <v>270</v>
+      </c>
+      <c r="E205" t="n">
+        <v>268</v>
+      </c>
+      <c r="F205" t="n">
+        <v>745.8395</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-39217.57041678999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>270</v>
+      </c>
+      <c r="C206" t="n">
+        <v>270</v>
+      </c>
+      <c r="D206" t="n">
+        <v>270</v>
+      </c>
+      <c r="E206" t="n">
+        <v>270</v>
+      </c>
+      <c r="F206" t="n">
+        <v>697.6625</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-38519.90791678999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>267</v>
+      </c>
+      <c r="C207" t="n">
+        <v>261</v>
+      </c>
+      <c r="D207" t="n">
+        <v>267</v>
+      </c>
+      <c r="E207" t="n">
+        <v>261</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3827.1653</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-42347.07321678999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>265</v>
+      </c>
+      <c r="C208" t="n">
+        <v>265</v>
+      </c>
+      <c r="D208" t="n">
+        <v>265</v>
+      </c>
+      <c r="E208" t="n">
+        <v>265</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4.8796</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-42342.19361678999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>264</v>
+      </c>
+      <c r="C209" t="n">
+        <v>264</v>
+      </c>
+      <c r="D209" t="n">
+        <v>265</v>
+      </c>
+      <c r="E209" t="n">
+        <v>264</v>
+      </c>
+      <c r="F209" t="n">
+        <v>312.5956</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-42654.78921678999</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>265</v>
+      </c>
+      <c r="C210" t="n">
+        <v>265</v>
+      </c>
+      <c r="D210" t="n">
+        <v>265</v>
+      </c>
+      <c r="E210" t="n">
+        <v>265</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-42653.78921678999</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>263</v>
+      </c>
+      <c r="C211" t="n">
+        <v>267</v>
+      </c>
+      <c r="D211" t="n">
+        <v>267</v>
+      </c>
+      <c r="E211" t="n">
+        <v>261</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1979.931</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-40673.85821678999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>265</v>
+      </c>
+      <c r="C212" t="n">
+        <v>265</v>
+      </c>
+      <c r="D212" t="n">
+        <v>265</v>
+      </c>
+      <c r="E212" t="n">
+        <v>265</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5.6849</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-40679.54311679</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>265</v>
+      </c>
+      <c r="C213" t="n">
+        <v>265</v>
+      </c>
+      <c r="D213" t="n">
+        <v>265</v>
+      </c>
+      <c r="E213" t="n">
+        <v>265</v>
+      </c>
+      <c r="F213" t="n">
+        <v>958.8871</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-40679.54311679</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>264</v>
+      </c>
+      <c r="C214" t="n">
+        <v>261</v>
+      </c>
+      <c r="D214" t="n">
+        <v>264</v>
+      </c>
+      <c r="E214" t="n">
+        <v>261</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1930.8084</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-42610.35151679</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>263</v>
+      </c>
+      <c r="C215" t="n">
+        <v>262</v>
+      </c>
+      <c r="D215" t="n">
+        <v>263</v>
+      </c>
+      <c r="E215" t="n">
+        <v>262</v>
+      </c>
+      <c r="F215" t="n">
+        <v>200</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-42410.35151679</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>261</v>
+      </c>
+      <c r="C216" t="n">
+        <v>261</v>
+      </c>
+      <c r="D216" t="n">
+        <v>261</v>
+      </c>
+      <c r="E216" t="n">
+        <v>261</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1868.3888</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-44278.74031679</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>261</v>
+      </c>
+      <c r="C217" t="n">
+        <v>260</v>
+      </c>
+      <c r="D217" t="n">
+        <v>261</v>
+      </c>
+      <c r="E217" t="n">
+        <v>260</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7683.5835</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-51962.32381679</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>260</v>
+      </c>
+      <c r="C218" t="n">
+        <v>258</v>
+      </c>
+      <c r="D218" t="n">
+        <v>260</v>
+      </c>
+      <c r="E218" t="n">
+        <v>258</v>
+      </c>
+      <c r="F218" t="n">
+        <v>6476.9999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>258</v>
+      </c>
+      <c r="C219" t="n">
+        <v>258</v>
+      </c>
+      <c r="D219" t="n">
+        <v>258</v>
+      </c>
+      <c r="E219" t="n">
+        <v>258</v>
+      </c>
+      <c r="F219" t="n">
+        <v>370.2273</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>258</v>
+      </c>
+      <c r="C220" t="n">
+        <v>258</v>
+      </c>
+      <c r="D220" t="n">
+        <v>258</v>
+      </c>
+      <c r="E220" t="n">
+        <v>257</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2355.1114</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>258</v>
+      </c>
+      <c r="C221" t="n">
+        <v>258</v>
+      </c>
+      <c r="D221" t="n">
+        <v>258</v>
+      </c>
+      <c r="E221" t="n">
+        <v>258</v>
+      </c>
+      <c r="F221" t="n">
+        <v>207.8118</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-58439.32371679</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>259</v>
+      </c>
+      <c r="C222" t="n">
+        <v>259</v>
+      </c>
+      <c r="D222" t="n">
+        <v>259</v>
+      </c>
+      <c r="E222" t="n">
+        <v>259</v>
+      </c>
+      <c r="F222" t="n">
         <v>950</v>
       </c>
-      <c r="G151" t="n">
-        <v>258.3333333333333</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="G222" t="n">
+        <v>-57489.32371679</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N222"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-5777.196599999997</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,19 @@
         <v>-30089.34239999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J38" t="n">
+        <v>258</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1678,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>258</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1715,23 @@
         <v>-30089.34239999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J40" t="n">
+        <v>258</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1758,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1789,19 @@
         <v>-30089.34239999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J42" t="n">
+        <v>258</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1828,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>258</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1865,23 @@
         <v>-28950.74239999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="J44" t="n">
+        <v>258</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1908,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>258</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1947,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>258</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1986,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>258</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2025,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>258</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2064,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>258</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2101,23 @@
         <v>-30054.76239999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="J50" t="n">
+        <v>258</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2144,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>258</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2183,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>258</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2222,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>258</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2261,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>258</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2300,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>258</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2337,23 @@
         <v>-32018.29639999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J56" t="n">
+        <v>258</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2378,23 @@
         <v>-32018.29639999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="J57" t="n">
+        <v>258</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2419,23 @@
         <v>-32017.29639999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="J58" t="n">
+        <v>258</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2460,23 @@
         <v>-32017.29639999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J59" t="n">
+        <v>258</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2501,23 @@
         <v>-17552.46639999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J60" t="n">
+        <v>258</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2542,23 @@
         <v>-16432.88089999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="J61" t="n">
+        <v>258</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2585,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>258</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2624,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>258</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2663,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>258</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2702,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>258</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2741,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>258</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2780,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2819,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>258</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2858,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>258</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2897,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>258</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2936,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>258</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2973,23 @@
         <v>-25206.36151678998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="J72" t="n">
+        <v>258</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +3014,23 @@
         <v>-25206.36151678998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="J73" t="n">
+        <v>258</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +3055,23 @@
         <v>-25206.36151678998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="J74" t="n">
+        <v>258</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +3096,23 @@
         <v>-26134.91951678999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="J75" t="n">
+        <v>258</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3139,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>258</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3178,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>258</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3217,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>258</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3256,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>258</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3295,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>258</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3334,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>258</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3373,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>258</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3412,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>258</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3451,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>258</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3490,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>258</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3529,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>258</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3568,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>258</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3607,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>258</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3646,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3685,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>258</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,22 +3722,23 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J91" t="n">
-        <v>259</v>
-      </c>
-      <c r="K91" t="n">
-        <v>259</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,24 +3763,23 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>259</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="J92" t="n">
+        <v>258</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3744,22 +3806,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>259</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>258</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3784,18 +3843,23 @@
         <v>-15624.22071678998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="J94" t="n">
+        <v>258</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3822,16 +3886,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>258</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,16 +3925,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>258</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3894,16 +3964,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>258</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,16 +4003,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>258</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3966,16 +4042,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>258</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4002,16 +4081,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>258</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4038,16 +4120,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>258</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,16 +4159,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>258</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4110,16 +4198,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>258</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,16 +4237,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>258</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4182,16 +4276,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>258</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4218,16 +4315,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>258</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4254,16 +4354,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>258</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4290,16 +4393,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>258</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4326,16 +4432,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>258</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4362,16 +4471,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>258</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4398,16 +4510,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>258</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4434,16 +4549,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>258</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4470,16 +4588,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>258</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4506,16 +4627,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>258</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4542,16 +4666,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>258</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4578,16 +4705,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>258</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4614,16 +4744,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>258</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4650,16 +4783,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>258</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4686,16 +4822,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>258</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4722,16 +4861,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>258</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4758,16 +4900,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>258</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4794,16 +4939,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>258</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4830,16 +4978,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>258</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4866,16 +5017,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>258</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4900,18 +5054,23 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="J125" t="n">
+        <v>258</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4936,18 +5095,23 @@
         <v>-25955.58931678998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="J126" t="n">
+        <v>258</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4972,18 +5136,23 @@
         <v>-25968.24461678998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="J127" t="n">
+        <v>258</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5008,18 +5177,23 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J128" t="n">
+        <v>258</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5044,22 +5218,23 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J129" t="n">
-        <v>259</v>
-      </c>
-      <c r="K129" t="n">
-        <v>259</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5084,26 +5259,21 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>259</v>
-      </c>
-      <c r="K130" t="n">
-        <v>259</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5128,26 +5298,23 @@
         <v>-27313.19571678998</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J131" t="n">
-        <v>259</v>
-      </c>
-      <c r="K131" t="n">
-        <v>259</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5172,26 +5339,23 @@
         <v>-25590.19571678998</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="J132" t="n">
-        <v>256</v>
-      </c>
-      <c r="K132" t="n">
-        <v>259</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5216,26 +5380,23 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="J133" t="n">
-        <v>257</v>
-      </c>
-      <c r="K133" t="n">
-        <v>259</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5260,24 +5421,23 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>259</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J134" t="n">
+        <v>258</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5302,24 +5462,23 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>259</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J135" t="n">
+        <v>258</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5344,24 +5503,23 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>259</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J136" t="n">
+        <v>258</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5386,24 +5544,23 @@
         <v>-25112.09571678998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>259</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J137" t="n">
+        <v>258</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5428,24 +5585,23 @@
         <v>-24914.38791678998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>259</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="J138" t="n">
+        <v>258</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5470,26 +5626,23 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="J139" t="n">
-        <v>257</v>
-      </c>
-      <c r="K139" t="n">
-        <v>259</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5514,26 +5667,23 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="J140" t="n">
-        <v>256</v>
-      </c>
-      <c r="K140" t="n">
-        <v>259</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5558,26 +5708,23 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="J141" t="n">
-        <v>256</v>
-      </c>
-      <c r="K141" t="n">
-        <v>259</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5602,26 +5749,23 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="J142" t="n">
-        <v>256</v>
-      </c>
-      <c r="K142" t="n">
-        <v>259</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5646,26 +5790,23 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J143" t="n">
-        <v>259</v>
-      </c>
-      <c r="K143" t="n">
-        <v>259</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5690,26 +5831,23 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J144" t="n">
-        <v>259</v>
-      </c>
-      <c r="K144" t="n">
-        <v>259</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5736,22 +5874,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>259</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>258</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5776,26 +5911,23 @@
         <v>-22224.60711678999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="J146" t="n">
         <v>258</v>
       </c>
-      <c r="K146" t="n">
-        <v>259</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5822,22 +5954,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>259</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>258</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5862,24 +5991,23 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>259</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="J148" t="n">
+        <v>258</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5906,22 +6034,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>259</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>258</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5948,22 +6073,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>259</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>258</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5990,22 +6112,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>259</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>258</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6032,22 +6151,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>259</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>258</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6074,22 +6190,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>259</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>258</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6116,22 +6229,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>259</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>258</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6158,22 +6268,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>259</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>258</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6200,22 +6307,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>259</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>258</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6242,22 +6346,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>259</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>258</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6284,22 +6385,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>259</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>258</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6326,22 +6424,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>259</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>258</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6368,22 +6463,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>259</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>258</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6410,22 +6502,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>259</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>258</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6452,22 +6541,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>259</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>258</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6494,22 +6580,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>259</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>258</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6536,22 +6619,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>259</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>258</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6578,22 +6658,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>259</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>258</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6618,24 +6695,21 @@
         <v>-21730.86481678998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>259</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>258</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1.018255813953489</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6660,24 +6734,15 @@
         <v>-21928.45701678998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>259</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6702,24 +6767,15 @@
         <v>-23582.39371678998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>259</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6746,22 +6802,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>259</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6788,22 +6835,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>259</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6830,22 +6868,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>259</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6872,22 +6901,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>259</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6914,22 +6934,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>259</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6954,24 +6965,15 @@
         <v>-26484.07211678998</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>259</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6996,24 +6998,15 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>259</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7038,24 +7031,15 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>259</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7080,24 +7064,15 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>259</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7122,24 +7097,15 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>259</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7166,22 +7132,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>259</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7206,24 +7163,15 @@
         <v>-26444.07211678998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>259</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1.025888030888031</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7248,18 +7196,15 @@
         <v>-26443.07211678998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7284,18 +7229,15 @@
         <v>-27485.64181678998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7322,16 +7264,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7356,18 +7295,15 @@
         <v>-29788.72641678998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7394,16 +7330,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7430,16 +7363,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7466,16 +7396,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7502,16 +7429,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7536,18 +7460,15 @@
         <v>-15361.03801678999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7574,16 +7495,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7608,18 +7526,15 @@
         <v>-17088.25671678999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7646,16 +7561,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7682,16 +7594,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7718,16 +7627,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7754,16 +7660,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7790,16 +7693,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7826,16 +7726,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7862,16 +7759,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7898,16 +7792,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7934,16 +7825,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7970,16 +7858,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8004,18 +7889,15 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8042,16 +7924,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8076,18 +7955,15 @@
         <v>-39217.57041678999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8114,16 +7990,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8150,16 +8023,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8184,18 +8054,15 @@
         <v>-42347.07321678999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8222,16 +8089,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8258,16 +8122,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8294,16 +8155,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8330,16 +8188,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8366,16 +8221,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8402,16 +8254,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8438,16 +8287,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8474,16 +8320,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8510,16 +8353,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8546,16 +8386,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8582,16 +8419,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8618,16 +8452,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8654,16 +8485,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8690,16 +8518,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8726,18 +8551,15 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5777.196599999997</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5752.809899999997</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5728.244999999996</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-5728.858299999996</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-9159.545399999995</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9394.545399999995</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8204.572299999996</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9398.507499999996</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-9395.622799999996</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-9595.622799999996</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10134.92099999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-10022.22659999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10132.32349999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-10909.59619999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1639,14 +1639,10 @@
         <v>-30089.34239999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>258</v>
-      </c>
-      <c r="J38" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1679,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>258</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1715,19 +1705,11 @@
         <v>-30089.34239999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>258</v>
-      </c>
-      <c r="J40" t="n">
-        <v>258</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1789,14 +1771,10 @@
         <v>-30089.34239999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>258</v>
-      </c>
-      <c r="J42" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1829,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>258</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1865,19 +1837,11 @@
         <v>-28950.74239999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>261</v>
-      </c>
-      <c r="J44" t="n">
-        <v>258</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1909,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>258</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1948,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>258</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1987,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>258</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2026,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>258</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2065,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>258</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2101,19 +2035,11 @@
         <v>-30054.76239999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>259</v>
-      </c>
-      <c r="J50" t="n">
-        <v>258</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2145,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>258</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2184,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>258</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2223,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>258</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>258</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>258</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2337,19 +2233,11 @@
         <v>-32018.29639999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>258</v>
-      </c>
-      <c r="J56" t="n">
-        <v>258</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2378,19 +2266,11 @@
         <v>-32018.29639999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>257</v>
-      </c>
-      <c r="J57" t="n">
-        <v>258</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2419,19 +2299,11 @@
         <v>-32017.29639999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>257</v>
-      </c>
-      <c r="J58" t="n">
-        <v>258</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2460,19 +2332,11 @@
         <v>-32017.29639999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>258</v>
-      </c>
-      <c r="J59" t="n">
-        <v>258</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2501,19 +2365,11 @@
         <v>-17552.46639999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>258</v>
-      </c>
-      <c r="J60" t="n">
-        <v>258</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2542,19 +2398,11 @@
         <v>-16432.88089999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>262</v>
-      </c>
-      <c r="J61" t="n">
-        <v>258</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>258</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>258</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2664,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>258</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>258</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2742,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>258</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>258</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>258</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>258</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>258</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>258</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2973,19 +2761,11 @@
         <v>-25206.36151678998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>261</v>
-      </c>
-      <c r="J72" t="n">
-        <v>258</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3014,19 +2794,11 @@
         <v>-25206.36151678998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>260</v>
-      </c>
-      <c r="J73" t="n">
-        <v>258</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3055,19 +2827,11 @@
         <v>-25206.36151678998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>260</v>
-      </c>
-      <c r="J74" t="n">
-        <v>258</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +2860,11 @@
         <v>-26134.91951678999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>260</v>
-      </c>
-      <c r="J75" t="n">
-        <v>258</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3140,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>258</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3179,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>258</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3218,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>258</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3257,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>258</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3296,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>258</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3335,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>258</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3374,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>258</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3413,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>258</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3452,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>258</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3491,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>258</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3530,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>258</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3569,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>258</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3608,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>258</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3644,17 +3322,15 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>260</v>
+      </c>
       <c r="J89" t="n">
-        <v>258</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3683,15 +3359,17 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>259</v>
+      </c>
       <c r="J90" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3722,17 +3400,17 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>259</v>
       </c>
       <c r="J91" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3763,13 +3441,11 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3808,7 +3484,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3843,13 +3519,11 @@
         <v>-15624.22071678998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3888,7 +3562,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3927,7 +3601,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3966,7 +3640,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4005,7 +3679,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4044,7 +3718,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4083,7 +3757,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4122,7 +3796,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4161,7 +3835,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4200,7 +3874,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4239,7 +3913,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4278,7 +3952,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4317,7 +3991,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4356,7 +4030,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4395,7 +4069,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4434,7 +4108,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4473,7 +4147,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4512,7 +4186,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4551,7 +4225,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4590,7 +4264,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4629,7 +4303,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4668,7 +4342,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4707,7 +4381,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4746,7 +4420,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4785,7 +4459,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4824,7 +4498,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4863,7 +4537,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4902,7 +4576,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4941,7 +4615,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4980,7 +4654,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5019,7 +4693,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5054,13 +4728,11 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5095,13 +4767,11 @@
         <v>-25955.58931678998</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5136,13 +4806,11 @@
         <v>-25968.24461678998</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5177,13 +4845,11 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5218,13 +4884,11 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5263,7 +4927,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5298,13 +4962,11 @@
         <v>-27313.19571678998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5339,13 +5001,11 @@
         <v>-25590.19571678998</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5380,13 +5040,11 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5421,13 +5079,11 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5462,13 +5118,11 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5503,13 +5157,11 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5544,13 +5196,11 @@
         <v>-25112.09571678998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5585,13 +5235,11 @@
         <v>-24914.38791678998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5626,13 +5274,11 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5667,13 +5313,13 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>256</v>
       </c>
       <c r="J140" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5708,13 +5354,13 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>256</v>
       </c>
       <c r="J141" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5749,13 +5395,13 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>256</v>
       </c>
       <c r="J142" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5790,13 +5436,13 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>259</v>
       </c>
       <c r="J143" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5831,13 +5477,13 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>259</v>
       </c>
       <c r="J144" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5876,7 +5522,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5911,13 +5557,13 @@
         <v>-22224.60711678999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>258</v>
       </c>
       <c r="J146" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5956,7 +5602,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5991,13 +5637,11 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6036,7 +5680,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6075,7 +5719,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6114,7 +5758,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6153,7 +5797,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6192,7 +5836,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6231,7 +5875,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6270,7 +5914,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6309,7 +5953,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6348,7 +5992,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6387,7 +6031,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6426,7 +6070,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6465,7 +6109,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6504,7 +6148,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6543,7 +6187,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6582,7 +6226,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6621,7 +6265,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6660,7 +6304,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6695,19 +6339,19 @@
         <v>-21730.86481678998</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.018255813953489</v>
+        <v>1</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -6734,11 +6378,17 @@
         <v>-21928.45701678998</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>260</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6767,11 +6417,17 @@
         <v>-23582.39371678998</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>260</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6803,8 +6459,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>260</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6836,8 +6498,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>260</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6869,8 +6537,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>260</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6902,8 +6576,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>260</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6935,8 +6615,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>260</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6965,11 +6651,17 @@
         <v>-26484.07211678998</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>260</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6998,11 +6690,17 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>260</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +6729,17 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>260</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7064,11 +6768,17 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>260</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +6807,17 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>260</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7133,8 +6849,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>260</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +6885,17 @@
         <v>-26444.07211678998</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>260</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7196,11 +6924,17 @@
         <v>-26443.07211678998</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>260</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +6963,17 @@
         <v>-27485.64181678998</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>260</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7265,8 +7005,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>260</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7295,11 +7041,17 @@
         <v>-29788.72641678998</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>260</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7331,8 +7083,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>260</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7364,8 +7122,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>260</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7397,8 +7161,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>260</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7430,8 +7200,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>260</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7460,13 +7236,19 @@
         <v>-15361.03801678999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>260</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>1.006538461538462</v>
       </c>
       <c r="M189" t="inlineStr"/>
     </row>
@@ -7493,7 +7275,7 @@
         <v>-15360.03801678999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7526,7 +7308,7 @@
         <v>-17088.25671678999</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7559,7 +7341,7 @@
         <v>-17088.25671678999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7592,7 +7374,7 @@
         <v>-15407.25671678999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7625,7 +7407,7 @@
         <v>-17158.25671678999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7658,7 +7440,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7691,7 +7473,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7724,7 +7506,7 @@
         <v>-28640.65511678999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7757,7 +7539,7 @@
         <v>-29640.65511678999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7790,7 +7572,7 @@
         <v>-26946.65511678999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7823,7 +7605,7 @@
         <v>-27097.64201678999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7856,7 +7638,7 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7889,7 +7671,7 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7922,7 +7704,7 @@
         <v>-39232.57041678999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7955,7 +7737,7 @@
         <v>-39217.57041678999</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7988,7 +7770,7 @@
         <v>-39217.57041678999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8021,7 +7803,7 @@
         <v>-38519.90791678999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8054,7 +7836,7 @@
         <v>-42347.07321678999</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8087,7 +7869,7 @@
         <v>-42342.19361678999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8120,7 +7902,7 @@
         <v>-42654.78921678999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8153,7 +7935,7 @@
         <v>-42653.78921678999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8186,7 +7968,7 @@
         <v>-40673.85821678999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8219,7 +8001,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8252,7 +8034,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8285,7 +8067,7 @@
         <v>-42610.35151679</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8318,7 +8100,7 @@
         <v>-42410.35151679</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8351,7 +8133,7 @@
         <v>-44278.74031679</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8384,7 +8166,7 @@
         <v>-51962.32381679</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8560,6 +8342,6 @@
       <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5777.196599999997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5752.809899999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5728.244999999996</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-5728.858299999996</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-9159.545399999995</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9394.545399999995</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8204.572299999996</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9398.507499999996</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-9595.622799999996</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-10022.22659999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10132.32349999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-10909.59619999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-27418.31361678998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-29792.29831678998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,14 +3322,10 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>260</v>
-      </c>
-      <c r="J89" t="n">
-        <v>260</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3359,2014 +3355,1724 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>260</v>
+      </c>
+      <c r="C91" t="n">
+        <v>262</v>
+      </c>
+      <c r="D91" t="n">
+        <v>262</v>
+      </c>
+      <c r="E91" t="n">
+        <v>260</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-31656.29831678998</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>262</v>
+      </c>
+      <c r="C92" t="n">
+        <v>262</v>
+      </c>
+      <c r="D92" t="n">
+        <v>262</v>
+      </c>
+      <c r="E92" t="n">
+        <v>262</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6893.5928</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-31656.29831678998</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>262</v>
+      </c>
+      <c r="C93" t="n">
+        <v>262</v>
+      </c>
+      <c r="D93" t="n">
+        <v>262</v>
+      </c>
+      <c r="E93" t="n">
+        <v>262</v>
+      </c>
+      <c r="F93" t="n">
+        <v>27</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-31656.29831678998</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>263</v>
+      </c>
+      <c r="C94" t="n">
+        <v>264</v>
+      </c>
+      <c r="D94" t="n">
+        <v>264</v>
+      </c>
+      <c r="E94" t="n">
+        <v>263</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16032.0776</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-15624.22071678998</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>263</v>
+      </c>
+      <c r="C95" t="n">
+        <v>263</v>
+      </c>
+      <c r="D95" t="n">
+        <v>263</v>
+      </c>
+      <c r="E95" t="n">
+        <v>263</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4757.3336</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-20381.55431678998</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>263</v>
+      </c>
+      <c r="C96" t="n">
+        <v>263</v>
+      </c>
+      <c r="D96" t="n">
+        <v>263</v>
+      </c>
+      <c r="E96" t="n">
+        <v>263</v>
+      </c>
+      <c r="F96" t="n">
+        <v>678</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-20381.55431678998</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>263</v>
+      </c>
+      <c r="C97" t="n">
+        <v>263</v>
+      </c>
+      <c r="D97" t="n">
+        <v>263</v>
+      </c>
+      <c r="E97" t="n">
+        <v>263</v>
+      </c>
+      <c r="F97" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-20381.55431678998</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>263</v>
+      </c>
+      <c r="C98" t="n">
+        <v>263</v>
+      </c>
+      <c r="D98" t="n">
+        <v>263</v>
+      </c>
+      <c r="E98" t="n">
+        <v>263</v>
+      </c>
+      <c r="F98" t="n">
+        <v>203.0684</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-20381.55431678998</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>262</v>
+      </c>
+      <c r="C99" t="n">
+        <v>262</v>
+      </c>
+      <c r="D99" t="n">
+        <v>262</v>
+      </c>
+      <c r="E99" t="n">
+        <v>262</v>
+      </c>
+      <c r="F99" t="n">
+        <v>70.3175</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-20451.87181678998</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>262</v>
+      </c>
+      <c r="C100" t="n">
+        <v>262</v>
+      </c>
+      <c r="D100" t="n">
+        <v>262</v>
+      </c>
+      <c r="E100" t="n">
+        <v>262</v>
+      </c>
+      <c r="F100" t="n">
+        <v>140.6349</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-20451.87181678998</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>263</v>
+      </c>
+      <c r="C101" t="n">
+        <v>263</v>
+      </c>
+      <c r="D101" t="n">
+        <v>263</v>
+      </c>
+      <c r="E101" t="n">
+        <v>263</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2439.4587</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-18012.41311678998</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>263</v>
+      </c>
+      <c r="C102" t="n">
+        <v>263</v>
+      </c>
+      <c r="D102" t="n">
+        <v>263</v>
+      </c>
+      <c r="E102" t="n">
+        <v>263</v>
+      </c>
+      <c r="F102" t="n">
+        <v>174.1693</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-18012.41311678998</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>262</v>
+      </c>
+      <c r="C103" t="n">
+        <v>262</v>
+      </c>
+      <c r="D103" t="n">
+        <v>262</v>
+      </c>
+      <c r="E103" t="n">
+        <v>262</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1980.315</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-19992.72811678998</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>261</v>
+      </c>
+      <c r="C104" t="n">
+        <v>261</v>
+      </c>
+      <c r="D104" t="n">
+        <v>261</v>
+      </c>
+      <c r="E104" t="n">
+        <v>261</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2327.1854</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-22319.91351678998</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>261</v>
+      </c>
+      <c r="C105" t="n">
+        <v>262</v>
+      </c>
+      <c r="D105" t="n">
+        <v>262</v>
+      </c>
+      <c r="E105" t="n">
+        <v>261</v>
+      </c>
+      <c r="F105" t="n">
+        <v>574.2662</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-21745.64731678998</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>263</v>
+      </c>
+      <c r="C106" t="n">
+        <v>263</v>
+      </c>
+      <c r="D106" t="n">
+        <v>263</v>
+      </c>
+      <c r="E106" t="n">
+        <v>263</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-21744.64731678998</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>262</v>
+      </c>
+      <c r="C107" t="n">
+        <v>262</v>
+      </c>
+      <c r="D107" t="n">
+        <v>262</v>
+      </c>
+      <c r="E107" t="n">
+        <v>262</v>
+      </c>
+      <c r="F107" t="n">
+        <v>314</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-22058.64731678998</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>262</v>
+      </c>
+      <c r="C108" t="n">
+        <v>262</v>
+      </c>
+      <c r="D108" t="n">
+        <v>262</v>
+      </c>
+      <c r="E108" t="n">
+        <v>262</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.2469</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-22058.64731678998</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>261</v>
+      </c>
+      <c r="C109" t="n">
+        <v>261</v>
+      </c>
+      <c r="D109" t="n">
+        <v>261</v>
+      </c>
+      <c r="E109" t="n">
+        <v>261</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-23839.64731678998</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>261</v>
+      </c>
+      <c r="C110" t="n">
+        <v>261</v>
+      </c>
+      <c r="D110" t="n">
+        <v>261</v>
+      </c>
+      <c r="E110" t="n">
+        <v>261</v>
+      </c>
+      <c r="F110" t="n">
+        <v>263.6</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-23839.64731678998</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>261</v>
+      </c>
+      <c r="C111" t="n">
+        <v>261</v>
+      </c>
+      <c r="D111" t="n">
+        <v>261</v>
+      </c>
+      <c r="E111" t="n">
+        <v>261</v>
+      </c>
+      <c r="F111" t="n">
+        <v>432.7619</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-23839.64731678998</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>262</v>
+      </c>
+      <c r="C112" t="n">
+        <v>262</v>
+      </c>
+      <c r="D112" t="n">
+        <v>262</v>
+      </c>
+      <c r="E112" t="n">
+        <v>262</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-23838.64731678998</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>260</v>
+      </c>
+      <c r="C113" t="n">
+        <v>262</v>
+      </c>
+      <c r="D113" t="n">
+        <v>262</v>
+      </c>
+      <c r="E113" t="n">
+        <v>260</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1606.6307</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-23838.64731678998</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>260</v>
+      </c>
+      <c r="C114" t="n">
+        <v>262</v>
+      </c>
+      <c r="D114" t="n">
+        <v>262</v>
+      </c>
+      <c r="E114" t="n">
+        <v>260</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2525.8</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-23838.64731678998</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>262</v>
+      </c>
+      <c r="C115" t="n">
+        <v>262</v>
+      </c>
+      <c r="D115" t="n">
+        <v>262</v>
+      </c>
+      <c r="E115" t="n">
+        <v>262</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-23838.64731678998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>260</v>
+      </c>
+      <c r="C116" t="n">
+        <v>262</v>
+      </c>
+      <c r="D116" t="n">
+        <v>262</v>
+      </c>
+      <c r="E116" t="n">
+        <v>260</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2970.9384</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-23838.64731678998</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>260</v>
+      </c>
+      <c r="C117" t="n">
+        <v>262</v>
+      </c>
+      <c r="D117" t="n">
+        <v>262</v>
+      </c>
+      <c r="E117" t="n">
+        <v>260</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2229.9132</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-23838.64731678998</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>262</v>
+      </c>
+      <c r="C118" t="n">
+        <v>263</v>
+      </c>
+      <c r="D118" t="n">
+        <v>263</v>
+      </c>
+      <c r="E118" t="n">
+        <v>262</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1770.9603</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-22067.68701678998</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>262</v>
+      </c>
+      <c r="C119" t="n">
+        <v>262</v>
+      </c>
+      <c r="D119" t="n">
+        <v>262</v>
+      </c>
+      <c r="E119" t="n">
+        <v>262</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4629.1599</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-26696.84691678998</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>262</v>
+      </c>
+      <c r="C120" t="n">
+        <v>262</v>
+      </c>
+      <c r="D120" t="n">
+        <v>262</v>
+      </c>
+      <c r="E120" t="n">
+        <v>262</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3095.5515</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-26696.84691678998</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>261</v>
+      </c>
+      <c r="C121" t="n">
+        <v>261</v>
+      </c>
+      <c r="D121" t="n">
+        <v>261</v>
+      </c>
+      <c r="E121" t="n">
+        <v>261</v>
+      </c>
+      <c r="F121" t="n">
+        <v>344</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-27040.84691678998</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>261</v>
+      </c>
+      <c r="C122" t="n">
+        <v>261</v>
+      </c>
+      <c r="D122" t="n">
+        <v>261</v>
+      </c>
+      <c r="E122" t="n">
+        <v>261</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1327.1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-27040.84691678998</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>261</v>
+      </c>
+      <c r="C123" t="n">
+        <v>261</v>
+      </c>
+      <c r="D123" t="n">
+        <v>261</v>
+      </c>
+      <c r="E123" t="n">
+        <v>261</v>
+      </c>
+      <c r="F123" t="n">
+        <v>172.9</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-27040.84691678998</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>261</v>
+      </c>
+      <c r="C124" t="n">
+        <v>261</v>
+      </c>
+      <c r="D124" t="n">
+        <v>261</v>
+      </c>
+      <c r="E124" t="n">
+        <v>261</v>
+      </c>
+      <c r="F124" t="n">
+        <v>900.4392</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-27040.84691678998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>261</v>
+      </c>
+      <c r="C125" t="n">
+        <v>261</v>
+      </c>
+      <c r="D125" t="n">
+        <v>261</v>
+      </c>
+      <c r="E125" t="n">
+        <v>261</v>
+      </c>
+      <c r="F125" t="n">
+        <v>547.9617</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-27040.84691678998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>259</v>
       </c>
-      <c r="J90" t="n">
-        <v>260</v>
-      </c>
-      <c r="K90" t="inlineStr">
+      <c r="C126" t="n">
+        <v>262</v>
+      </c>
+      <c r="D126" t="n">
+        <v>262</v>
+      </c>
+      <c r="E126" t="n">
+        <v>255</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1085.2576</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-25955.58931678998</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>258</v>
+      </c>
+      <c r="C127" t="n">
+        <v>258</v>
+      </c>
+      <c r="D127" t="n">
+        <v>258</v>
+      </c>
+      <c r="E127" t="n">
+        <v>258</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12.6553</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-25968.24461678998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>258</v>
+      </c>
+      <c r="C128" t="n">
+        <v>259</v>
+      </c>
+      <c r="D128" t="n">
+        <v>259</v>
+      </c>
+      <c r="E128" t="n">
+        <v>258</v>
+      </c>
+      <c r="F128" t="n">
+        <v>44.5052</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-25923.73941678998</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>259</v>
+      </c>
+      <c r="C129" t="n">
+        <v>259</v>
+      </c>
+      <c r="D129" t="n">
+        <v>259</v>
+      </c>
+      <c r="E129" t="n">
+        <v>259</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6387.4787</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-25923.73941678998</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>259</v>
+      </c>
+      <c r="C130" t="n">
+        <v>259</v>
+      </c>
+      <c r="D130" t="n">
+        <v>259</v>
+      </c>
+      <c r="E130" t="n">
+        <v>259</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1694</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-25923.73941678998</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>257</v>
+      </c>
+      <c r="C131" t="n">
+        <v>256</v>
+      </c>
+      <c r="D131" t="n">
+        <v>257</v>
+      </c>
+      <c r="E131" t="n">
+        <v>256</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1389.4563</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-27313.19571678998</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>257</v>
+      </c>
+      <c r="C132" t="n">
+        <v>257</v>
+      </c>
+      <c r="D132" t="n">
+        <v>257</v>
+      </c>
+      <c r="E132" t="n">
+        <v>257</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1723</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-25590.19571678998</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>258</v>
+      </c>
+      <c r="C133" t="n">
+        <v>258</v>
+      </c>
+      <c r="D133" t="n">
+        <v>258</v>
+      </c>
+      <c r="E133" t="n">
+        <v>258</v>
+      </c>
+      <c r="F133" t="n">
+        <v>558.1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-25032.09571678998</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>258</v>
+      </c>
+      <c r="C134" t="n">
+        <v>258</v>
+      </c>
+      <c r="D134" t="n">
+        <v>258</v>
+      </c>
+      <c r="E134" t="n">
+        <v>258</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1140.6</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-25032.09571678998</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>258</v>
+      </c>
+      <c r="C135" t="n">
+        <v>258</v>
+      </c>
+      <c r="D135" t="n">
+        <v>258</v>
+      </c>
+      <c r="E135" t="n">
+        <v>258</v>
+      </c>
+      <c r="F135" t="n">
+        <v>867.5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-25032.09571678998</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>258</v>
+      </c>
+      <c r="C136" t="n">
+        <v>258</v>
+      </c>
+      <c r="D136" t="n">
+        <v>258</v>
+      </c>
+      <c r="E136" t="n">
+        <v>258</v>
+      </c>
+      <c r="F136" t="n">
+        <v>120</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-25032.09571678998</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>258</v>
+      </c>
+      <c r="J136" t="n">
+        <v>258</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>255</v>
+      </c>
+      <c r="C137" t="n">
+        <v>255</v>
+      </c>
+      <c r="D137" t="n">
+        <v>255</v>
+      </c>
+      <c r="E137" t="n">
+        <v>255</v>
+      </c>
+      <c r="F137" t="n">
+        <v>80</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-25112.09571678998</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>258</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>260</v>
-      </c>
-      <c r="C91" t="n">
-        <v>262</v>
-      </c>
-      <c r="D91" t="n">
-        <v>262</v>
-      </c>
-      <c r="E91" t="n">
-        <v>260</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-31656.29831678998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>259</v>
-      </c>
-      <c r="J91" t="n">
-        <v>260</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>257</v>
+      </c>
+      <c r="C138" t="n">
+        <v>257</v>
+      </c>
+      <c r="D138" t="n">
+        <v>257</v>
+      </c>
+      <c r="E138" t="n">
+        <v>257</v>
+      </c>
+      <c r="F138" t="n">
+        <v>197.7078</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-24914.38791678998</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>255</v>
+      </c>
+      <c r="J138" t="n">
+        <v>258</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>256</v>
+      </c>
+      <c r="C139" t="n">
+        <v>256</v>
+      </c>
+      <c r="D139" t="n">
+        <v>256</v>
+      </c>
+      <c r="E139" t="n">
+        <v>256</v>
+      </c>
+      <c r="F139" t="n">
+        <v>75.5626</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-24989.95051678998</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>256</v>
+      </c>
+      <c r="C140" t="n">
+        <v>256</v>
+      </c>
+      <c r="D140" t="n">
+        <v>256</v>
+      </c>
+      <c r="E140" t="n">
+        <v>256</v>
+      </c>
+      <c r="F140" t="n">
+        <v>820.8083</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-24989.95051678998</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>256</v>
+      </c>
+      <c r="J140" t="n">
+        <v>256</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>257</v>
+      </c>
+      <c r="C141" t="n">
+        <v>256</v>
+      </c>
+      <c r="D141" t="n">
+        <v>257</v>
+      </c>
+      <c r="E141" t="n">
+        <v>256</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1015.3827</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-24989.95051678998</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>256</v>
+      </c>
+      <c r="J141" t="n">
+        <v>256</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>262</v>
-      </c>
-      <c r="C92" t="n">
-        <v>262</v>
-      </c>
-      <c r="D92" t="n">
-        <v>262</v>
-      </c>
-      <c r="E92" t="n">
-        <v>262</v>
-      </c>
-      <c r="F92" t="n">
-        <v>6893.5928</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-31656.29831678998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>260</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>262</v>
-      </c>
-      <c r="C93" t="n">
-        <v>262</v>
-      </c>
-      <c r="D93" t="n">
-        <v>262</v>
-      </c>
-      <c r="E93" t="n">
-        <v>262</v>
-      </c>
-      <c r="F93" t="n">
-        <v>27</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-31656.29831678998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>260</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>263</v>
-      </c>
-      <c r="C94" t="n">
-        <v>264</v>
-      </c>
-      <c r="D94" t="n">
-        <v>264</v>
-      </c>
-      <c r="E94" t="n">
-        <v>263</v>
-      </c>
-      <c r="F94" t="n">
-        <v>16032.0776</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-15624.22071678998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>260</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>263</v>
-      </c>
-      <c r="C95" t="n">
-        <v>263</v>
-      </c>
-      <c r="D95" t="n">
-        <v>263</v>
-      </c>
-      <c r="E95" t="n">
-        <v>263</v>
-      </c>
-      <c r="F95" t="n">
-        <v>4757.3336</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-20381.55431678998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>260</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>263</v>
-      </c>
-      <c r="C96" t="n">
-        <v>263</v>
-      </c>
-      <c r="D96" t="n">
-        <v>263</v>
-      </c>
-      <c r="E96" t="n">
-        <v>263</v>
-      </c>
-      <c r="F96" t="n">
-        <v>678</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-20381.55431678998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>260</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>263</v>
-      </c>
-      <c r="C97" t="n">
-        <v>263</v>
-      </c>
-      <c r="D97" t="n">
-        <v>263</v>
-      </c>
-      <c r="E97" t="n">
-        <v>263</v>
-      </c>
-      <c r="F97" t="n">
-        <v>120.4</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-20381.55431678998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>260</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>263</v>
-      </c>
-      <c r="C98" t="n">
-        <v>263</v>
-      </c>
-      <c r="D98" t="n">
-        <v>263</v>
-      </c>
-      <c r="E98" t="n">
-        <v>263</v>
-      </c>
-      <c r="F98" t="n">
-        <v>203.0684</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-20381.55431678998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>260</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>262</v>
-      </c>
-      <c r="C99" t="n">
-        <v>262</v>
-      </c>
-      <c r="D99" t="n">
-        <v>262</v>
-      </c>
-      <c r="E99" t="n">
-        <v>262</v>
-      </c>
-      <c r="F99" t="n">
-        <v>70.3175</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-20451.87181678998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>260</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>262</v>
-      </c>
-      <c r="C100" t="n">
-        <v>262</v>
-      </c>
-      <c r="D100" t="n">
-        <v>262</v>
-      </c>
-      <c r="E100" t="n">
-        <v>262</v>
-      </c>
-      <c r="F100" t="n">
-        <v>140.6349</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-20451.87181678998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>260</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>263</v>
-      </c>
-      <c r="C101" t="n">
-        <v>263</v>
-      </c>
-      <c r="D101" t="n">
-        <v>263</v>
-      </c>
-      <c r="E101" t="n">
-        <v>263</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2439.4587</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-18012.41311678998</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>260</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>263</v>
-      </c>
-      <c r="C102" t="n">
-        <v>263</v>
-      </c>
-      <c r="D102" t="n">
-        <v>263</v>
-      </c>
-      <c r="E102" t="n">
-        <v>263</v>
-      </c>
-      <c r="F102" t="n">
-        <v>174.1693</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-18012.41311678998</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>260</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>262</v>
-      </c>
-      <c r="C103" t="n">
-        <v>262</v>
-      </c>
-      <c r="D103" t="n">
-        <v>262</v>
-      </c>
-      <c r="E103" t="n">
-        <v>262</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1980.315</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-19992.72811678998</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>260</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>261</v>
-      </c>
-      <c r="C104" t="n">
-        <v>261</v>
-      </c>
-      <c r="D104" t="n">
-        <v>261</v>
-      </c>
-      <c r="E104" t="n">
-        <v>261</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2327.1854</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-22319.91351678998</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>260</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>261</v>
-      </c>
-      <c r="C105" t="n">
-        <v>262</v>
-      </c>
-      <c r="D105" t="n">
-        <v>262</v>
-      </c>
-      <c r="E105" t="n">
-        <v>261</v>
-      </c>
-      <c r="F105" t="n">
-        <v>574.2662</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-21745.64731678998</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>260</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>263</v>
-      </c>
-      <c r="C106" t="n">
-        <v>263</v>
-      </c>
-      <c r="D106" t="n">
-        <v>263</v>
-      </c>
-      <c r="E106" t="n">
-        <v>263</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-21744.64731678998</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>260</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>262</v>
-      </c>
-      <c r="C107" t="n">
-        <v>262</v>
-      </c>
-      <c r="D107" t="n">
-        <v>262</v>
-      </c>
-      <c r="E107" t="n">
-        <v>262</v>
-      </c>
-      <c r="F107" t="n">
-        <v>314</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-22058.64731678998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>260</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>262</v>
-      </c>
-      <c r="C108" t="n">
-        <v>262</v>
-      </c>
-      <c r="D108" t="n">
-        <v>262</v>
-      </c>
-      <c r="E108" t="n">
-        <v>262</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2.2469</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-22058.64731678998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>260</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>261</v>
-      </c>
-      <c r="C109" t="n">
-        <v>261</v>
-      </c>
-      <c r="D109" t="n">
-        <v>261</v>
-      </c>
-      <c r="E109" t="n">
-        <v>261</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1781</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-23839.64731678998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>260</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>261</v>
-      </c>
-      <c r="C110" t="n">
-        <v>261</v>
-      </c>
-      <c r="D110" t="n">
-        <v>261</v>
-      </c>
-      <c r="E110" t="n">
-        <v>261</v>
-      </c>
-      <c r="F110" t="n">
-        <v>263.6</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-23839.64731678998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>260</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>261</v>
-      </c>
-      <c r="C111" t="n">
-        <v>261</v>
-      </c>
-      <c r="D111" t="n">
-        <v>261</v>
-      </c>
-      <c r="E111" t="n">
-        <v>261</v>
-      </c>
-      <c r="F111" t="n">
-        <v>432.7619</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-23839.64731678998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>260</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>262</v>
-      </c>
-      <c r="C112" t="n">
-        <v>262</v>
-      </c>
-      <c r="D112" t="n">
-        <v>262</v>
-      </c>
-      <c r="E112" t="n">
-        <v>262</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-23838.64731678998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>260</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>260</v>
-      </c>
-      <c r="C113" t="n">
-        <v>262</v>
-      </c>
-      <c r="D113" t="n">
-        <v>262</v>
-      </c>
-      <c r="E113" t="n">
-        <v>260</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1606.6307</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-23838.64731678998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>260</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>260</v>
-      </c>
-      <c r="C114" t="n">
-        <v>262</v>
-      </c>
-      <c r="D114" t="n">
-        <v>262</v>
-      </c>
-      <c r="E114" t="n">
-        <v>260</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2525.8</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-23838.64731678998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>260</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>262</v>
-      </c>
-      <c r="C115" t="n">
-        <v>262</v>
-      </c>
-      <c r="D115" t="n">
-        <v>262</v>
-      </c>
-      <c r="E115" t="n">
-        <v>262</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-23838.64731678998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>260</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>260</v>
-      </c>
-      <c r="C116" t="n">
-        <v>262</v>
-      </c>
-      <c r="D116" t="n">
-        <v>262</v>
-      </c>
-      <c r="E116" t="n">
-        <v>260</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2970.9384</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-23838.64731678998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>260</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>260</v>
-      </c>
-      <c r="C117" t="n">
-        <v>262</v>
-      </c>
-      <c r="D117" t="n">
-        <v>262</v>
-      </c>
-      <c r="E117" t="n">
-        <v>260</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2229.9132</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-23838.64731678998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>260</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>262</v>
-      </c>
-      <c r="C118" t="n">
-        <v>263</v>
-      </c>
-      <c r="D118" t="n">
-        <v>263</v>
-      </c>
-      <c r="E118" t="n">
-        <v>262</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1770.9603</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-22067.68701678998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>260</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>262</v>
-      </c>
-      <c r="C119" t="n">
-        <v>262</v>
-      </c>
-      <c r="D119" t="n">
-        <v>262</v>
-      </c>
-      <c r="E119" t="n">
-        <v>262</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4629.1599</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-26696.84691678998</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>260</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>262</v>
-      </c>
-      <c r="C120" t="n">
-        <v>262</v>
-      </c>
-      <c r="D120" t="n">
-        <v>262</v>
-      </c>
-      <c r="E120" t="n">
-        <v>262</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3095.5515</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-26696.84691678998</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>260</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>261</v>
-      </c>
-      <c r="C121" t="n">
-        <v>261</v>
-      </c>
-      <c r="D121" t="n">
-        <v>261</v>
-      </c>
-      <c r="E121" t="n">
-        <v>261</v>
-      </c>
-      <c r="F121" t="n">
-        <v>344</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-27040.84691678998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>260</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>261</v>
-      </c>
-      <c r="C122" t="n">
-        <v>261</v>
-      </c>
-      <c r="D122" t="n">
-        <v>261</v>
-      </c>
-      <c r="E122" t="n">
-        <v>261</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1327.1</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-27040.84691678998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>260</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>261</v>
-      </c>
-      <c r="C123" t="n">
-        <v>261</v>
-      </c>
-      <c r="D123" t="n">
-        <v>261</v>
-      </c>
-      <c r="E123" t="n">
-        <v>261</v>
-      </c>
-      <c r="F123" t="n">
-        <v>172.9</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-27040.84691678998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>260</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>261</v>
-      </c>
-      <c r="C124" t="n">
-        <v>261</v>
-      </c>
-      <c r="D124" t="n">
-        <v>261</v>
-      </c>
-      <c r="E124" t="n">
-        <v>261</v>
-      </c>
-      <c r="F124" t="n">
-        <v>900.4392</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-27040.84691678998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>260</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>261</v>
-      </c>
-      <c r="C125" t="n">
-        <v>261</v>
-      </c>
-      <c r="D125" t="n">
-        <v>261</v>
-      </c>
-      <c r="E125" t="n">
-        <v>261</v>
-      </c>
-      <c r="F125" t="n">
-        <v>547.9617</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-27040.84691678998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>260</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>259</v>
-      </c>
-      <c r="C126" t="n">
-        <v>262</v>
-      </c>
-      <c r="D126" t="n">
-        <v>262</v>
-      </c>
-      <c r="E126" t="n">
-        <v>255</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1085.2576</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-25955.58931678998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>260</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>258</v>
-      </c>
-      <c r="C127" t="n">
-        <v>258</v>
-      </c>
-      <c r="D127" t="n">
-        <v>258</v>
-      </c>
-      <c r="E127" t="n">
-        <v>258</v>
-      </c>
-      <c r="F127" t="n">
-        <v>12.6553</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-25968.24461678998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>260</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>258</v>
-      </c>
-      <c r="C128" t="n">
-        <v>259</v>
-      </c>
-      <c r="D128" t="n">
-        <v>259</v>
-      </c>
-      <c r="E128" t="n">
-        <v>258</v>
-      </c>
-      <c r="F128" t="n">
-        <v>44.5052</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-25923.73941678998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>260</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>259</v>
-      </c>
-      <c r="C129" t="n">
-        <v>259</v>
-      </c>
-      <c r="D129" t="n">
-        <v>259</v>
-      </c>
-      <c r="E129" t="n">
-        <v>259</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6387.4787</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-25923.73941678998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>260</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>259</v>
-      </c>
-      <c r="C130" t="n">
-        <v>259</v>
-      </c>
-      <c r="D130" t="n">
-        <v>259</v>
-      </c>
-      <c r="E130" t="n">
-        <v>259</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1694</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-25923.73941678998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>260</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>257</v>
-      </c>
-      <c r="C131" t="n">
-        <v>256</v>
-      </c>
-      <c r="D131" t="n">
-        <v>257</v>
-      </c>
-      <c r="E131" t="n">
-        <v>256</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1389.4563</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-27313.19571678998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>260</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>257</v>
-      </c>
-      <c r="C132" t="n">
-        <v>257</v>
-      </c>
-      <c r="D132" t="n">
-        <v>257</v>
-      </c>
-      <c r="E132" t="n">
-        <v>257</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1723</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-25590.19571678998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>260</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>258</v>
-      </c>
-      <c r="C133" t="n">
-        <v>258</v>
-      </c>
-      <c r="D133" t="n">
-        <v>258</v>
-      </c>
-      <c r="E133" t="n">
-        <v>258</v>
-      </c>
-      <c r="F133" t="n">
-        <v>558.1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-25032.09571678998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>260</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>258</v>
-      </c>
-      <c r="C134" t="n">
-        <v>258</v>
-      </c>
-      <c r="D134" t="n">
-        <v>258</v>
-      </c>
-      <c r="E134" t="n">
-        <v>258</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1140.6</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-25032.09571678998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>260</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>258</v>
-      </c>
-      <c r="C135" t="n">
-        <v>258</v>
-      </c>
-      <c r="D135" t="n">
-        <v>258</v>
-      </c>
-      <c r="E135" t="n">
-        <v>258</v>
-      </c>
-      <c r="F135" t="n">
-        <v>867.5</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-25032.09571678998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>260</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>258</v>
-      </c>
-      <c r="C136" t="n">
-        <v>258</v>
-      </c>
-      <c r="D136" t="n">
-        <v>258</v>
-      </c>
-      <c r="E136" t="n">
-        <v>258</v>
-      </c>
-      <c r="F136" t="n">
-        <v>120</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-25032.09571678998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>260</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>255</v>
-      </c>
-      <c r="C137" t="n">
-        <v>255</v>
-      </c>
-      <c r="D137" t="n">
-        <v>255</v>
-      </c>
-      <c r="E137" t="n">
-        <v>255</v>
-      </c>
-      <c r="F137" t="n">
-        <v>80</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-25112.09571678998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>260</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>257</v>
-      </c>
-      <c r="C138" t="n">
-        <v>257</v>
-      </c>
-      <c r="D138" t="n">
-        <v>257</v>
-      </c>
-      <c r="E138" t="n">
-        <v>257</v>
-      </c>
-      <c r="F138" t="n">
-        <v>197.7078</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-24914.38791678998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>260</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>256</v>
-      </c>
-      <c r="C139" t="n">
-        <v>256</v>
-      </c>
-      <c r="D139" t="n">
-        <v>256</v>
-      </c>
-      <c r="E139" t="n">
-        <v>256</v>
-      </c>
-      <c r="F139" t="n">
-        <v>75.5626</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-24989.95051678998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>260</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>256</v>
-      </c>
-      <c r="C140" t="n">
-        <v>256</v>
-      </c>
-      <c r="D140" t="n">
-        <v>256</v>
-      </c>
-      <c r="E140" t="n">
-        <v>256</v>
-      </c>
-      <c r="F140" t="n">
-        <v>820.8083</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-24989.95051678998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>256</v>
-      </c>
-      <c r="J140" t="n">
-        <v>260</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>257</v>
-      </c>
-      <c r="C141" t="n">
-        <v>256</v>
-      </c>
-      <c r="D141" t="n">
-        <v>257</v>
-      </c>
-      <c r="E141" t="n">
-        <v>256</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1015.3827</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-24989.95051678998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>256</v>
-      </c>
-      <c r="J141" t="n">
-        <v>260</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5401,7 +5107,7 @@
         <v>256</v>
       </c>
       <c r="J142" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5436,13 +5142,11 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5477,13 +5181,11 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5522,7 +5224,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5563,7 +5265,7 @@
         <v>258</v>
       </c>
       <c r="J146" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5602,7 +5304,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5641,7 +5343,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5680,7 +5382,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5719,7 +5421,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5758,7 +5460,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5797,7 +5499,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5836,7 +5538,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5875,7 +5577,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5914,7 +5616,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5953,7 +5655,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5992,7 +5694,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6031,7 +5733,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6070,7 +5772,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6109,7 +5811,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6148,7 +5850,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6187,7 +5889,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6226,7 +5928,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6265,7 +5967,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6304,7 +6006,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6343,7 +6045,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6382,7 +6084,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6421,7 +6123,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6460,7 +6162,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6499,7 +6201,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6538,7 +6240,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6577,7 +6279,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6616,7 +6318,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6655,7 +6357,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6690,19 +6392,19 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>1.0340625</v>
       </c>
       <c r="M175" t="inlineStr"/>
     </row>
@@ -6729,17 +6431,11 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>260</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6768,17 +6464,11 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>260</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6807,17 +6497,11 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>260</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6846,17 +6530,11 @@
         <v>-26444.07211678998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>260</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6885,17 +6563,11 @@
         <v>-26444.07211678998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>260</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6927,14 +6599,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>260</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6966,14 +6632,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>260</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7005,14 +6665,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>260</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7044,14 +6698,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>260</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7083,14 +6731,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>260</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7122,14 +6764,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>260</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7161,14 +6797,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>260</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7197,17 +6827,11 @@
         <v>-1182.439516789986</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>260</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7236,19 +6860,13 @@
         <v>-15361.03801678999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>260</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>1.006538461538462</v>
+        <v>1</v>
       </c>
       <c r="M189" t="inlineStr"/>
     </row>
@@ -7275,7 +6893,7 @@
         <v>-15360.03801678999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7308,7 +6926,7 @@
         <v>-17088.25671678999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7341,7 +6959,7 @@
         <v>-17088.25671678999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7374,7 +6992,7 @@
         <v>-15407.25671678999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7407,7 +7025,7 @@
         <v>-17158.25671678999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7440,7 +7058,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7473,7 +7091,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7506,7 +7124,7 @@
         <v>-28640.65511678999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7539,7 +7157,7 @@
         <v>-29640.65511678999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7572,7 +7190,7 @@
         <v>-26946.65511678999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7605,7 +7223,7 @@
         <v>-27097.64201678999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7638,7 +7256,7 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7671,7 +7289,7 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7704,7 +7322,7 @@
         <v>-39232.57041678999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7737,7 +7355,7 @@
         <v>-39217.57041678999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7770,7 +7388,7 @@
         <v>-39217.57041678999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7803,7 +7421,7 @@
         <v>-38519.90791678999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7836,7 +7454,7 @@
         <v>-42347.07321678999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7869,7 +7487,7 @@
         <v>-42342.19361678999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7902,7 +7520,7 @@
         <v>-42654.78921678999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7935,7 +7553,7 @@
         <v>-42653.78921678999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7968,7 +7586,7 @@
         <v>-40673.85821678999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8067,7 +7685,7 @@
         <v>-42610.35151679</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8100,7 +7718,7 @@
         <v>-42410.35151679</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8133,7 +7751,7 @@
         <v>-44278.74031679</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8199,7 +7817,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8232,7 +7850,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8265,7 +7883,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8342,6 +7960,6 @@
       <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-27 BackTest PIVX.xlsx
@@ -946,7 +946,7 @@
         <v>-9395.622799999996</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10134.92099999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -3223,10 +3223,14 @@
         <v>-27418.31361678998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>262</v>
+      </c>
+      <c r="J86" t="n">
+        <v>262</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3256,11 +3260,19 @@
         <v>-27418.31361678998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>263</v>
+      </c>
+      <c r="J87" t="n">
+        <v>262</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3301,19 @@
         <v>-29792.29831678998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>263</v>
+      </c>
+      <c r="J88" t="n">
+        <v>262</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,10 +3342,14 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>260</v>
+      </c>
+      <c r="J89" t="n">
+        <v>260</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3355,11 +3379,19 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>259</v>
+      </c>
+      <c r="J90" t="n">
+        <v>260</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3420,19 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>259</v>
+      </c>
+      <c r="J91" t="n">
+        <v>260</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3461,19 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>262</v>
+      </c>
+      <c r="J92" t="n">
+        <v>260</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3502,19 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>262</v>
+      </c>
+      <c r="J93" t="n">
+        <v>260</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3543,19 @@
         <v>-15624.22071678998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>262</v>
+      </c>
+      <c r="J94" t="n">
+        <v>260</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3587,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>260</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>260</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3665,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>260</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3704,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>260</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3743,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>260</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3782,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>260</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3821,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>260</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3860,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>260</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3899,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>260</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3938,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>260</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3977,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>260</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4013,19 @@
         <v>-21744.64731678998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>262</v>
+      </c>
+      <c r="J106" t="n">
+        <v>260</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4057,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>260</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4093,17 @@
         <v>-22058.64731678998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>260</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4135,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>260</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>260</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4210,19 @@
         <v>-23839.64731678998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>261</v>
+      </c>
+      <c r="J111" t="n">
+        <v>260</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4254,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>260</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4290,19 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>262</v>
+      </c>
+      <c r="J113" t="n">
+        <v>260</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4334,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>260</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4370,19 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>262</v>
+      </c>
+      <c r="J115" t="n">
+        <v>260</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4411,19 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>262</v>
+      </c>
+      <c r="J116" t="n">
+        <v>260</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4452,19 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>262</v>
+      </c>
+      <c r="J117" t="n">
+        <v>260</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4493,19 @@
         <v>-22067.68701678998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>262</v>
+      </c>
+      <c r="J118" t="n">
+        <v>260</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4534,19 @@
         <v>-26696.84691678998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>263</v>
+      </c>
+      <c r="J119" t="n">
+        <v>260</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4575,19 @@
         <v>-26696.84691678998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>262</v>
+      </c>
+      <c r="J120" t="n">
+        <v>260</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4616,19 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>262</v>
+      </c>
+      <c r="J121" t="n">
+        <v>260</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4657,19 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>261</v>
+      </c>
+      <c r="J122" t="n">
+        <v>260</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4698,19 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>261</v>
+      </c>
+      <c r="J123" t="n">
+        <v>260</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4739,19 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>261</v>
+      </c>
+      <c r="J124" t="n">
+        <v>260</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4780,19 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>261</v>
+      </c>
+      <c r="J125" t="n">
+        <v>260</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4821,19 @@
         <v>-25955.58931678998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>261</v>
+      </c>
+      <c r="J126" t="n">
+        <v>260</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4862,19 @@
         <v>-25968.24461678998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>262</v>
+      </c>
+      <c r="J127" t="n">
+        <v>260</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4903,19 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>258</v>
+      </c>
+      <c r="J128" t="n">
+        <v>260</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4944,19 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>259</v>
+      </c>
+      <c r="J129" t="n">
+        <v>260</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4985,19 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>259</v>
+      </c>
+      <c r="J130" t="n">
+        <v>260</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5026,19 @@
         <v>-27313.19571678998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>259</v>
+      </c>
+      <c r="J131" t="n">
+        <v>260</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5067,19 @@
         <v>-25590.19571678998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>256</v>
+      </c>
+      <c r="J132" t="n">
+        <v>260</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5108,19 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>257</v>
+      </c>
+      <c r="J133" t="n">
+        <v>260</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5149,19 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>258</v>
+      </c>
+      <c r="J134" t="n">
+        <v>260</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5190,19 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>258</v>
+      </c>
+      <c r="J135" t="n">
+        <v>260</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4879,9 +5237,13 @@
         <v>258</v>
       </c>
       <c r="J136" t="n">
-        <v>258</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,15 +5272,17 @@
         <v>-25112.09571678998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>258</v>
+      </c>
       <c r="J137" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -4955,11 +5319,11 @@
         <v>255</v>
       </c>
       <c r="J138" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -4990,11 +5354,19 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>257</v>
+      </c>
+      <c r="J139" t="n">
+        <v>260</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5029,9 +5401,13 @@
         <v>256</v>
       </c>
       <c r="J140" t="n">
-        <v>256</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+        <v>260</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5066,11 +5442,11 @@
         <v>256</v>
       </c>
       <c r="J141" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5107,7 +5483,7 @@
         <v>256</v>
       </c>
       <c r="J142" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5142,11 +5518,13 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>259</v>
+      </c>
       <c r="J143" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5181,11 +5559,13 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>259</v>
+      </c>
       <c r="J144" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5220,11 +5600,13 @@
         <v>-25059.93041678999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>259</v>
+      </c>
       <c r="J145" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5265,7 +5647,7 @@
         <v>258</v>
       </c>
       <c r="J146" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5300,11 +5682,13 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>259</v>
+      </c>
       <c r="J147" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5339,11 +5723,13 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>260</v>
+      </c>
       <c r="J148" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5378,11 +5764,13 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>260</v>
+      </c>
       <c r="J149" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5417,11 +5805,13 @@
         <v>-22218.60711678999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>260</v>
+      </c>
       <c r="J150" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5456,11 +5846,13 @@
         <v>-22218.60711678999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>262</v>
+      </c>
       <c r="J151" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5495,11 +5887,13 @@
         <v>-23895.50311678999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>262</v>
+      </c>
       <c r="J152" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5534,11 +5928,13 @@
         <v>-23895.50311678999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>260</v>
+      </c>
       <c r="J153" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5573,11 +5969,13 @@
         <v>-23030.05061678999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>260</v>
+      </c>
       <c r="J154" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5612,11 +6010,13 @@
         <v>-22192.65211678999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>263</v>
+      </c>
       <c r="J155" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5651,11 +6051,13 @@
         <v>-25552.89351678999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>264</v>
+      </c>
       <c r="J156" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5690,11 +6092,13 @@
         <v>-25552.89351678999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>263</v>
+      </c>
       <c r="J157" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5729,11 +6133,13 @@
         <v>-25552.89351678999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>263</v>
+      </c>
       <c r="J158" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5768,11 +6174,13 @@
         <v>-25728.51901678999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>263</v>
+      </c>
       <c r="J159" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5807,11 +6215,13 @@
         <v>-26656.30291678998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>261</v>
+      </c>
       <c r="J160" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5846,11 +6256,13 @@
         <v>-26656.30291678998</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>260</v>
+      </c>
       <c r="J161" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5885,11 +6297,13 @@
         <v>-26533.30291678998</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>260</v>
+      </c>
       <c r="J162" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5924,11 +6338,13 @@
         <v>-24402.90921678998</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>261</v>
+      </c>
       <c r="J163" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5963,11 +6379,13 @@
         <v>-21972.95721678998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>263</v>
+      </c>
       <c r="J164" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6006,7 +6424,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6045,7 +6463,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6084,7 +6502,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6123,7 +6541,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6162,7 +6580,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6201,7 +6619,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6240,7 +6658,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6279,7 +6697,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6318,7 +6736,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6357,7 +6775,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6392,19 +6810,19 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.0340625</v>
+        <v>1</v>
       </c>
       <c r="M175" t="inlineStr"/>
     </row>
@@ -6431,11 +6849,17 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>260</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6888,17 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>260</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6497,11 +6927,17 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>260</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6533,10 +6969,16 @@
         <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>260</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L179" t="n">
-        <v>1</v>
+        <v>1.021923076923077</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -6596,7 +7038,7 @@
         <v>-26443.07211678998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6629,7 +7071,7 @@
         <v>-27485.64181678998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6662,7 +7104,7 @@
         <v>-27484.64181678998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6695,7 +7137,7 @@
         <v>-29788.72641678998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6728,7 +7170,7 @@
         <v>-31760.19371678999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6761,7 +7203,7 @@
         <v>-29152.03491678998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6827,7 +7269,7 @@
         <v>-1182.439516789986</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6860,7 +7302,7 @@
         <v>-15361.03801678999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6893,7 +7335,7 @@
         <v>-15360.03801678999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6926,7 +7368,7 @@
         <v>-17088.25671678999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7025,7 +7467,7 @@
         <v>-17158.25671678999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7058,7 +7500,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7091,7 +7533,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7124,7 +7566,7 @@
         <v>-28640.65511678999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7157,7 +7599,7 @@
         <v>-29640.65511678999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7289,7 +7731,7 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7322,7 +7764,7 @@
         <v>-39232.57041678999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7421,7 +7863,7 @@
         <v>-38519.90791678999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7454,7 +7896,7 @@
         <v>-42347.07321678999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7619,7 +8061,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7652,7 +8094,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7784,7 +8226,7 @@
         <v>-51962.32381679</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7817,7 +8259,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7850,7 +8292,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7883,7 +8325,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
